--- a/database/ArmengolDonana.xlsx
+++ b/database/ArmengolDonana.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>Data</t>
   </si>
@@ -74,19 +74,25 @@
     <t>sample information</t>
   </si>
   <si>
-    <t>sampleID</t>
+    <t>eventID</t>
   </si>
   <si>
     <t>sample code (data code and sample number; data_001)</t>
   </si>
   <si>
+    <t>datasetID</t>
+  </si>
+  <si>
+    <t>source code</t>
+  </si>
+  <si>
     <t>basisOfRecord</t>
   </si>
   <si>
-    <t>specific nature of the data record (fossil speciment or living specimen)</t>
-  </si>
-  <si>
-    <t>lastModification</t>
+    <t>specific nature of the data record (fossil specimen or living specimen)</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
   <si>
     <t>date of the last modification of the sample in the database</t>
@@ -116,13 +122,13 @@
     <t>datum of latitude and longitude</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>coodinate accuracy; exact, municipality, region</t>
-  </si>
-  <si>
-    <t>siteName</t>
+    <t>georeferenceVerificationStatus</t>
+  </si>
+  <si>
+    <t>coordinate accuracy; exact, municipality, region</t>
+  </si>
+  <si>
+    <t>locality</t>
   </si>
   <si>
     <t>popular site name</t>
@@ -146,7 +152,7 @@
     <t>the record is in node, yes or no</t>
   </si>
   <si>
-    <t>publication</t>
+    <t>bibliographicCitation</t>
   </si>
   <si>
     <t>Publication. No = non-published</t>
@@ -239,15 +245,15 @@
     <t>so4</t>
   </si>
   <si>
+    <t>Sulphate (mg L-1)</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
     <t>Alkalinity (mg L-1)</t>
   </si>
   <si>
-    <t>alkalinity</t>
-  </si>
-  <si>
-    <t>Sulphate (mg L-1)</t>
-  </si>
-  <si>
     <t>cl</t>
   </si>
   <si>
@@ -311,7 +317,13 @@
     <t>speciesID</t>
   </si>
   <si>
-    <t>species code in species table</t>
+    <t>species code in species table following the publication</t>
+  </si>
+  <si>
+    <t>speciesIDRev</t>
+  </si>
+  <si>
+    <t>species code reviewed</t>
   </si>
   <si>
     <t>kingdom</t>
@@ -332,22 +344,25 @@
     <t>genus</t>
   </si>
   <si>
+    <t>specificEpithet</t>
+  </si>
+  <si>
     <t>species</t>
   </si>
   <si>
+    <t>infraspecificEpithet</t>
+  </si>
+  <si>
     <t>subspecies</t>
   </si>
   <si>
-    <t>variety</t>
-  </si>
-  <si>
     <t>scientificName</t>
   </si>
   <si>
     <t>reviewed scientific name</t>
   </si>
   <si>
-    <t>scientificNamePublication</t>
+    <t>verbatimIdentification</t>
   </si>
   <si>
     <t>scientific name in the publication</t>
@@ -356,10 +371,7 @@
     <t>taxonRank</t>
   </si>
   <si>
-    <t>identification accuracy</t>
-  </si>
-  <si>
-    <t>source</t>
+    <t>taxonomic rank of the most specific name in scientificName</t>
   </si>
   <si>
     <t>ArmengolDonana_001</t>
@@ -429,9 +441,6 @@
   </si>
   <si>
     <t>Limnocythere_inopinata</t>
-  </si>
-  <si>
-    <t>speciesIDRev</t>
   </si>
   <si>
     <t>Animalia</t>
@@ -534,7 +543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -545,6 +554,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -573,6 +586,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -903,427 +931,447 @@
       <c r="C15" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>99</v>
+      <c r="B61" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>100</v>
+      <c r="A62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>101</v>
+      <c r="A63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>102</v>
+      <c r="A64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>103</v>
+      <c r="A65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>104</v>
+      <c r="A66" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>105</v>
+      <c r="A67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>106</v>
+      <c r="A68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>107</v>
+      <c r="A69" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>109</v>
+      <c r="A70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>111</v>
+      <c r="A71" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>113</v>
+      <c r="A72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1351,66 +1399,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="4">
+        <v>120</v>
+      </c>
+      <c r="D2" s="9">
         <v>44251.0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="9">
         <v>26665.0</v>
       </c>
       <c r="F2" s="1">
@@ -1420,44 +1468,44 @@
         <v>-6.5118</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="4">
+        <v>120</v>
+      </c>
+      <c r="D3" s="9">
         <v>44251.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>26665.0</v>
       </c>
       <c r="F3" s="1">
@@ -1467,44 +1515,44 @@
         <v>-6.3978</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4">
+        <v>120</v>
+      </c>
+      <c r="D4" s="9">
         <v>44251.0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>26665.0</v>
       </c>
       <c r="F4" s="1">
@@ -1514,44 +1562,44 @@
         <v>-6.5059</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="4">
+        <v>120</v>
+      </c>
+      <c r="D5" s="9">
         <v>44251.0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>26665.0</v>
       </c>
       <c r="F5" s="1">
@@ -1561,4009 +1609,4009 @@
         <v>-6.4168</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19">
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21">
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23">
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24">
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25">
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28">
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29">
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31">
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32">
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33">
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34">
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36">
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37">
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38">
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40">
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41">
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42">
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43">
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44">
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45">
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46">
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47">
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48">
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49">
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50">
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51">
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52">
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53">
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54">
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55">
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56">
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57">
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58">
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59">
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60">
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61">
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62">
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63">
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64">
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65">
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66">
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67">
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68">
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69">
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70">
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71">
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72">
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73">
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74">
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75">
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76">
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77">
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78">
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79">
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80">
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81">
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82">
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83">
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84">
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85">
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86">
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87">
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88">
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89">
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90">
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91">
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92">
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93">
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94">
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95">
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96">
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97">
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98">
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99">
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100">
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101">
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
     </row>
     <row r="102">
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103">
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104">
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105">
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
     </row>
     <row r="106">
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107">
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
     </row>
     <row r="108">
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109">
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110">
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
     </row>
     <row r="111">
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
     </row>
     <row r="112">
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113">
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114">
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115">
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
     </row>
     <row r="116">
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
     </row>
     <row r="117">
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118">
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119">
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120">
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121">
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122">
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123">
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124">
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125">
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126">
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127">
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128">
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
     </row>
     <row r="129">
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130">
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131">
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
     </row>
     <row r="132">
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
     </row>
     <row r="133">
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134">
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
     </row>
     <row r="135">
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136">
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
     </row>
     <row r="137">
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138">
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139">
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140">
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141">
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142">
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143">
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
     </row>
     <row r="144">
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
     </row>
     <row r="145">
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
     </row>
     <row r="146">
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
     </row>
     <row r="147">
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148">
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149">
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150">
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151">
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152">
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153">
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154">
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155">
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156">
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
     </row>
     <row r="157">
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158">
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159">
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160">
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161">
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162">
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163">
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164">
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165">
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166">
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
     </row>
     <row r="167">
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168">
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169">
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170">
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
     </row>
     <row r="171">
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
     </row>
     <row r="172">
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173">
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174">
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
     </row>
     <row r="175">
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176">
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
     </row>
     <row r="177">
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
     </row>
     <row r="178">
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
     </row>
     <row r="179">
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
     </row>
     <row r="180">
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181">
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182">
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183">
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184">
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
     </row>
     <row r="185">
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186">
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187">
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188">
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
     </row>
     <row r="189">
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190">
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191">
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192">
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
     </row>
     <row r="193">
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
     </row>
     <row r="194">
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
     </row>
     <row r="195">
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
     </row>
     <row r="196">
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
     </row>
     <row r="197">
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
     </row>
     <row r="198">
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
     </row>
     <row r="199">
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
     </row>
     <row r="200">
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
     </row>
     <row r="201">
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
     </row>
     <row r="202">
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
     </row>
     <row r="203">
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
     </row>
     <row r="204">
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205">
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
     </row>
     <row r="206">
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
     </row>
     <row r="207">
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208">
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
     </row>
     <row r="209">
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210">
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
     </row>
     <row r="211">
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212">
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213">
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
     </row>
     <row r="214">
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
     </row>
     <row r="215">
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
     </row>
     <row r="216">
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
     </row>
     <row r="217">
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
     </row>
     <row r="218">
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
     </row>
     <row r="219">
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
     </row>
     <row r="220">
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
     </row>
     <row r="221">
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
     </row>
     <row r="222">
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
     </row>
     <row r="223">
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
     </row>
     <row r="224">
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
     </row>
     <row r="225">
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
     </row>
     <row r="226">
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
     </row>
     <row r="227">
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
     </row>
     <row r="228">
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
     </row>
     <row r="229">
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
     </row>
     <row r="230">
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
     </row>
     <row r="231">
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
     </row>
     <row r="232">
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
     </row>
     <row r="233">
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
     </row>
     <row r="234">
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
     </row>
     <row r="235">
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
     </row>
     <row r="236">
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237">
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
     </row>
     <row r="238">
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
     </row>
     <row r="239">
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
     </row>
     <row r="240">
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
     </row>
     <row r="241">
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
     </row>
     <row r="242">
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
     </row>
     <row r="243">
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
     </row>
     <row r="244">
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
     </row>
     <row r="245">
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
     </row>
     <row r="246">
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
     </row>
     <row r="247">
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248">
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
     </row>
     <row r="249">
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
     </row>
     <row r="250">
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
     </row>
     <row r="251">
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
     </row>
     <row r="252">
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
     </row>
     <row r="253">
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
     </row>
     <row r="254">
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255">
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
     </row>
     <row r="256">
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
     </row>
     <row r="257">
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
     </row>
     <row r="258">
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
     </row>
     <row r="259">
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
     </row>
     <row r="260">
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
     </row>
     <row r="261">
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
     </row>
     <row r="262">
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
     </row>
     <row r="263">
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
     </row>
     <row r="264">
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
     </row>
     <row r="265">
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
     </row>
     <row r="266">
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
     </row>
     <row r="267">
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
     </row>
     <row r="268">
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
     </row>
     <row r="269">
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
     </row>
     <row r="270">
-      <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271">
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
     </row>
     <row r="272">
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
     </row>
     <row r="273">
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
     </row>
     <row r="274">
-      <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
     </row>
     <row r="275">
-      <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
     </row>
     <row r="276">
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
     </row>
     <row r="277">
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
     </row>
     <row r="278">
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
     </row>
     <row r="279">
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
     </row>
     <row r="280">
-      <c r="D280" s="5"/>
-      <c r="E280" s="5"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
     </row>
     <row r="281">
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
     </row>
     <row r="282">
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
     </row>
     <row r="283">
-      <c r="D283" s="5"/>
-      <c r="E283" s="5"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
     </row>
     <row r="284">
-      <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
     </row>
     <row r="285">
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
     </row>
     <row r="286">
-      <c r="D286" s="5"/>
-      <c r="E286" s="5"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287">
-      <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
     </row>
     <row r="288">
-      <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289">
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="10"/>
     </row>
     <row r="290">
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="10"/>
     </row>
     <row r="291">
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="10"/>
     </row>
     <row r="292">
-      <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
     </row>
     <row r="293">
-      <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
     </row>
     <row r="294">
-      <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
     </row>
     <row r="295">
-      <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296">
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
     </row>
     <row r="297">
-      <c r="D297" s="5"/>
-      <c r="E297" s="5"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
     </row>
     <row r="298">
-      <c r="D298" s="5"/>
-      <c r="E298" s="5"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
     </row>
     <row r="299">
-      <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
     </row>
     <row r="300">
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
     </row>
     <row r="301">
-      <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
     </row>
     <row r="302">
-      <c r="D302" s="5"/>
-      <c r="E302" s="5"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10"/>
     </row>
     <row r="303">
-      <c r="D303" s="5"/>
-      <c r="E303" s="5"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="10"/>
     </row>
     <row r="304">
-      <c r="D304" s="5"/>
-      <c r="E304" s="5"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="10"/>
     </row>
     <row r="305">
-      <c r="D305" s="5"/>
-      <c r="E305" s="5"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="10"/>
     </row>
     <row r="306">
-      <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="10"/>
     </row>
     <row r="307">
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
     </row>
     <row r="308">
-      <c r="D308" s="5"/>
-      <c r="E308" s="5"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="10"/>
     </row>
     <row r="309">
-      <c r="D309" s="5"/>
-      <c r="E309" s="5"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
     </row>
     <row r="310">
-      <c r="D310" s="5"/>
-      <c r="E310" s="5"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
     </row>
     <row r="311">
-      <c r="D311" s="5"/>
-      <c r="E311" s="5"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
     </row>
     <row r="312">
-      <c r="D312" s="5"/>
-      <c r="E312" s="5"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="10"/>
     </row>
     <row r="313">
-      <c r="D313" s="5"/>
-      <c r="E313" s="5"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
     </row>
     <row r="314">
-      <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10"/>
     </row>
     <row r="315">
-      <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
+      <c r="D315" s="10"/>
+      <c r="E315" s="10"/>
     </row>
     <row r="316">
-      <c r="D316" s="5"/>
-      <c r="E316" s="5"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10"/>
     </row>
     <row r="317">
-      <c r="D317" s="5"/>
-      <c r="E317" s="5"/>
+      <c r="D317" s="10"/>
+      <c r="E317" s="10"/>
     </row>
     <row r="318">
-      <c r="D318" s="5"/>
-      <c r="E318" s="5"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="10"/>
     </row>
     <row r="319">
-      <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
     </row>
     <row r="320">
-      <c r="D320" s="5"/>
-      <c r="E320" s="5"/>
+      <c r="D320" s="10"/>
+      <c r="E320" s="10"/>
     </row>
     <row r="321">
-      <c r="D321" s="5"/>
-      <c r="E321" s="5"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="10"/>
     </row>
     <row r="322">
-      <c r="D322" s="5"/>
-      <c r="E322" s="5"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="10"/>
     </row>
     <row r="323">
-      <c r="D323" s="5"/>
-      <c r="E323" s="5"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="10"/>
     </row>
     <row r="324">
-      <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
     </row>
     <row r="325">
-      <c r="D325" s="5"/>
-      <c r="E325" s="5"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
     </row>
     <row r="326">
-      <c r="D326" s="5"/>
-      <c r="E326" s="5"/>
+      <c r="D326" s="10"/>
+      <c r="E326" s="10"/>
     </row>
     <row r="327">
-      <c r="D327" s="5"/>
-      <c r="E327" s="5"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
     </row>
     <row r="328">
-      <c r="D328" s="5"/>
-      <c r="E328" s="5"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="10"/>
     </row>
     <row r="329">
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
     </row>
     <row r="330">
-      <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="10"/>
     </row>
     <row r="331">
-      <c r="D331" s="5"/>
-      <c r="E331" s="5"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="10"/>
     </row>
     <row r="332">
-      <c r="D332" s="5"/>
-      <c r="E332" s="5"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="10"/>
     </row>
     <row r="333">
-      <c r="D333" s="5"/>
-      <c r="E333" s="5"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
     </row>
     <row r="334">
-      <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="10"/>
     </row>
     <row r="335">
-      <c r="D335" s="5"/>
-      <c r="E335" s="5"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="10"/>
     </row>
     <row r="336">
-      <c r="D336" s="5"/>
-      <c r="E336" s="5"/>
+      <c r="D336" s="10"/>
+      <c r="E336" s="10"/>
     </row>
     <row r="337">
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="10"/>
     </row>
     <row r="338">
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
     </row>
     <row r="339">
-      <c r="D339" s="5"/>
-      <c r="E339" s="5"/>
+      <c r="D339" s="10"/>
+      <c r="E339" s="10"/>
     </row>
     <row r="340">
-      <c r="D340" s="5"/>
-      <c r="E340" s="5"/>
+      <c r="D340" s="10"/>
+      <c r="E340" s="10"/>
     </row>
     <row r="341">
-      <c r="D341" s="5"/>
-      <c r="E341" s="5"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="10"/>
     </row>
     <row r="342">
-      <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
+      <c r="D342" s="10"/>
+      <c r="E342" s="10"/>
     </row>
     <row r="343">
-      <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="10"/>
     </row>
     <row r="344">
-      <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
     </row>
     <row r="345">
-      <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
     </row>
     <row r="346">
-      <c r="D346" s="5"/>
-      <c r="E346" s="5"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="10"/>
     </row>
     <row r="347">
-      <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
+      <c r="D347" s="10"/>
+      <c r="E347" s="10"/>
     </row>
     <row r="348">
-      <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
+      <c r="D348" s="10"/>
+      <c r="E348" s="10"/>
     </row>
     <row r="349">
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="10"/>
     </row>
     <row r="350">
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="10"/>
     </row>
     <row r="351">
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="10"/>
     </row>
     <row r="352">
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
     </row>
     <row r="353">
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="10"/>
     </row>
     <row r="354">
-      <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
     </row>
     <row r="355">
-      <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
     </row>
     <row r="356">
-      <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
     </row>
     <row r="357">
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="10"/>
     </row>
     <row r="358">
-      <c r="D358" s="5"/>
-      <c r="E358" s="5"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="10"/>
     </row>
     <row r="359">
-      <c r="D359" s="5"/>
-      <c r="E359" s="5"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
     </row>
     <row r="360">
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="10"/>
     </row>
     <row r="361">
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="10"/>
     </row>
     <row r="362">
-      <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="10"/>
     </row>
     <row r="363">
-      <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="10"/>
     </row>
     <row r="364">
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="10"/>
     </row>
     <row r="365">
-      <c r="D365" s="5"/>
-      <c r="E365" s="5"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="10"/>
     </row>
     <row r="366">
-      <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="10"/>
     </row>
     <row r="367">
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
     </row>
     <row r="368">
-      <c r="D368" s="5"/>
-      <c r="E368" s="5"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="10"/>
     </row>
     <row r="369">
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="10"/>
     </row>
     <row r="370">
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="10"/>
     </row>
     <row r="371">
-      <c r="D371" s="5"/>
-      <c r="E371" s="5"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="10"/>
     </row>
     <row r="372">
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
+      <c r="D372" s="10"/>
+      <c r="E372" s="10"/>
     </row>
     <row r="373">
-      <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
+      <c r="D373" s="10"/>
+      <c r="E373" s="10"/>
     </row>
     <row r="374">
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="10"/>
     </row>
     <row r="375">
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
+      <c r="D375" s="10"/>
+      <c r="E375" s="10"/>
     </row>
     <row r="376">
-      <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
+      <c r="D376" s="10"/>
+      <c r="E376" s="10"/>
     </row>
     <row r="377">
-      <c r="D377" s="5"/>
-      <c r="E377" s="5"/>
+      <c r="D377" s="10"/>
+      <c r="E377" s="10"/>
     </row>
     <row r="378">
-      <c r="D378" s="5"/>
-      <c r="E378" s="5"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="10"/>
     </row>
     <row r="379">
-      <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="10"/>
     </row>
     <row r="380">
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="10"/>
     </row>
     <row r="381">
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="10"/>
     </row>
     <row r="382">
-      <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="10"/>
     </row>
     <row r="383">
-      <c r="D383" s="5"/>
-      <c r="E383" s="5"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="10"/>
     </row>
     <row r="384">
-      <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="10"/>
     </row>
     <row r="385">
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="10"/>
     </row>
     <row r="386">
-      <c r="D386" s="5"/>
-      <c r="E386" s="5"/>
+      <c r="D386" s="10"/>
+      <c r="E386" s="10"/>
     </row>
     <row r="387">
-      <c r="D387" s="5"/>
-      <c r="E387" s="5"/>
+      <c r="D387" s="10"/>
+      <c r="E387" s="10"/>
     </row>
     <row r="388">
-      <c r="D388" s="5"/>
-      <c r="E388" s="5"/>
+      <c r="D388" s="10"/>
+      <c r="E388" s="10"/>
     </row>
     <row r="389">
-      <c r="D389" s="5"/>
-      <c r="E389" s="5"/>
+      <c r="D389" s="10"/>
+      <c r="E389" s="10"/>
     </row>
     <row r="390">
-      <c r="D390" s="5"/>
-      <c r="E390" s="5"/>
+      <c r="D390" s="10"/>
+      <c r="E390" s="10"/>
     </row>
     <row r="391">
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
+      <c r="D391" s="10"/>
+      <c r="E391" s="10"/>
     </row>
     <row r="392">
-      <c r="D392" s="5"/>
-      <c r="E392" s="5"/>
+      <c r="D392" s="10"/>
+      <c r="E392" s="10"/>
     </row>
     <row r="393">
-      <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
     </row>
     <row r="394">
-      <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="10"/>
     </row>
     <row r="395">
-      <c r="D395" s="5"/>
-      <c r="E395" s="5"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="10"/>
     </row>
     <row r="396">
-      <c r="D396" s="5"/>
-      <c r="E396" s="5"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="10"/>
     </row>
     <row r="397">
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
+      <c r="D397" s="10"/>
+      <c r="E397" s="10"/>
     </row>
     <row r="398">
-      <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="10"/>
     </row>
     <row r="399">
-      <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
+      <c r="D399" s="10"/>
+      <c r="E399" s="10"/>
     </row>
     <row r="400">
-      <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="10"/>
     </row>
     <row r="401">
-      <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="10"/>
     </row>
     <row r="402">
-      <c r="D402" s="5"/>
-      <c r="E402" s="5"/>
+      <c r="D402" s="10"/>
+      <c r="E402" s="10"/>
     </row>
     <row r="403">
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
+      <c r="D403" s="10"/>
+      <c r="E403" s="10"/>
     </row>
     <row r="404">
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="10"/>
     </row>
     <row r="405">
-      <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
+      <c r="D405" s="10"/>
+      <c r="E405" s="10"/>
     </row>
     <row r="406">
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
+      <c r="D406" s="10"/>
+      <c r="E406" s="10"/>
     </row>
     <row r="407">
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
+      <c r="D407" s="10"/>
+      <c r="E407" s="10"/>
     </row>
     <row r="408">
-      <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
+      <c r="D408" s="10"/>
+      <c r="E408" s="10"/>
     </row>
     <row r="409">
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
+      <c r="D409" s="10"/>
+      <c r="E409" s="10"/>
     </row>
     <row r="410">
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="10"/>
     </row>
     <row r="411">
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
+      <c r="D411" s="10"/>
+      <c r="E411" s="10"/>
     </row>
     <row r="412">
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="10"/>
     </row>
     <row r="413">
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="10"/>
     </row>
     <row r="414">
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="10"/>
     </row>
     <row r="415">
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="10"/>
     </row>
     <row r="416">
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="10"/>
     </row>
     <row r="417">
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="10"/>
     </row>
     <row r="418">
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="10"/>
     </row>
     <row r="419">
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="10"/>
     </row>
     <row r="420">
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="10"/>
     </row>
     <row r="421">
-      <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
+      <c r="D421" s="10"/>
+      <c r="E421" s="10"/>
     </row>
     <row r="422">
-      <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
+      <c r="D422" s="10"/>
+      <c r="E422" s="10"/>
     </row>
     <row r="423">
-      <c r="D423" s="5"/>
-      <c r="E423" s="5"/>
+      <c r="D423" s="10"/>
+      <c r="E423" s="10"/>
     </row>
     <row r="424">
-      <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
+      <c r="D424" s="10"/>
+      <c r="E424" s="10"/>
     </row>
     <row r="425">
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
+      <c r="D425" s="10"/>
+      <c r="E425" s="10"/>
     </row>
     <row r="426">
-      <c r="D426" s="5"/>
-      <c r="E426" s="5"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="10"/>
     </row>
     <row r="427">
-      <c r="D427" s="5"/>
-      <c r="E427" s="5"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="10"/>
     </row>
     <row r="428">
-      <c r="D428" s="5"/>
-      <c r="E428" s="5"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="10"/>
     </row>
     <row r="429">
-      <c r="D429" s="5"/>
-      <c r="E429" s="5"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="10"/>
     </row>
     <row r="430">
-      <c r="D430" s="5"/>
-      <c r="E430" s="5"/>
+      <c r="D430" s="10"/>
+      <c r="E430" s="10"/>
     </row>
     <row r="431">
-      <c r="D431" s="5"/>
-      <c r="E431" s="5"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="10"/>
     </row>
     <row r="432">
-      <c r="D432" s="5"/>
-      <c r="E432" s="5"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="10"/>
     </row>
     <row r="433">
-      <c r="D433" s="5"/>
-      <c r="E433" s="5"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="10"/>
     </row>
     <row r="434">
-      <c r="D434" s="5"/>
-      <c r="E434" s="5"/>
+      <c r="D434" s="10"/>
+      <c r="E434" s="10"/>
     </row>
     <row r="435">
-      <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
+      <c r="D435" s="10"/>
+      <c r="E435" s="10"/>
     </row>
     <row r="436">
-      <c r="D436" s="5"/>
-      <c r="E436" s="5"/>
+      <c r="D436" s="10"/>
+      <c r="E436" s="10"/>
     </row>
     <row r="437">
-      <c r="D437" s="5"/>
-      <c r="E437" s="5"/>
+      <c r="D437" s="10"/>
+      <c r="E437" s="10"/>
     </row>
     <row r="438">
-      <c r="D438" s="5"/>
-      <c r="E438" s="5"/>
+      <c r="D438" s="10"/>
+      <c r="E438" s="10"/>
     </row>
     <row r="439">
-      <c r="D439" s="5"/>
-      <c r="E439" s="5"/>
+      <c r="D439" s="10"/>
+      <c r="E439" s="10"/>
     </row>
     <row r="440">
-      <c r="D440" s="5"/>
-      <c r="E440" s="5"/>
+      <c r="D440" s="10"/>
+      <c r="E440" s="10"/>
     </row>
     <row r="441">
-      <c r="D441" s="5"/>
-      <c r="E441" s="5"/>
+      <c r="D441" s="10"/>
+      <c r="E441" s="10"/>
     </row>
     <row r="442">
-      <c r="D442" s="5"/>
-      <c r="E442" s="5"/>
+      <c r="D442" s="10"/>
+      <c r="E442" s="10"/>
     </row>
     <row r="443">
-      <c r="D443" s="5"/>
-      <c r="E443" s="5"/>
+      <c r="D443" s="10"/>
+      <c r="E443" s="10"/>
     </row>
     <row r="444">
-      <c r="D444" s="5"/>
-      <c r="E444" s="5"/>
+      <c r="D444" s="10"/>
+      <c r="E444" s="10"/>
     </row>
     <row r="445">
-      <c r="D445" s="5"/>
-      <c r="E445" s="5"/>
+      <c r="D445" s="10"/>
+      <c r="E445" s="10"/>
     </row>
     <row r="446">
-      <c r="D446" s="5"/>
-      <c r="E446" s="5"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="10"/>
     </row>
     <row r="447">
-      <c r="D447" s="5"/>
-      <c r="E447" s="5"/>
+      <c r="D447" s="10"/>
+      <c r="E447" s="10"/>
     </row>
     <row r="448">
-      <c r="D448" s="5"/>
-      <c r="E448" s="5"/>
+      <c r="D448" s="10"/>
+      <c r="E448" s="10"/>
     </row>
     <row r="449">
-      <c r="D449" s="5"/>
-      <c r="E449" s="5"/>
+      <c r="D449" s="10"/>
+      <c r="E449" s="10"/>
     </row>
     <row r="450">
-      <c r="D450" s="5"/>
-      <c r="E450" s="5"/>
+      <c r="D450" s="10"/>
+      <c r="E450" s="10"/>
     </row>
     <row r="451">
-      <c r="D451" s="5"/>
-      <c r="E451" s="5"/>
+      <c r="D451" s="10"/>
+      <c r="E451" s="10"/>
     </row>
     <row r="452">
-      <c r="D452" s="5"/>
-      <c r="E452" s="5"/>
+      <c r="D452" s="10"/>
+      <c r="E452" s="10"/>
     </row>
     <row r="453">
-      <c r="D453" s="5"/>
-      <c r="E453" s="5"/>
+      <c r="D453" s="10"/>
+      <c r="E453" s="10"/>
     </row>
     <row r="454">
-      <c r="D454" s="5"/>
-      <c r="E454" s="5"/>
+      <c r="D454" s="10"/>
+      <c r="E454" s="10"/>
     </row>
     <row r="455">
-      <c r="D455" s="5"/>
-      <c r="E455" s="5"/>
+      <c r="D455" s="10"/>
+      <c r="E455" s="10"/>
     </row>
     <row r="456">
-      <c r="D456" s="5"/>
-      <c r="E456" s="5"/>
+      <c r="D456" s="10"/>
+      <c r="E456" s="10"/>
     </row>
     <row r="457">
-      <c r="D457" s="5"/>
-      <c r="E457" s="5"/>
+      <c r="D457" s="10"/>
+      <c r="E457" s="10"/>
     </row>
     <row r="458">
-      <c r="D458" s="5"/>
-      <c r="E458" s="5"/>
+      <c r="D458" s="10"/>
+      <c r="E458" s="10"/>
     </row>
     <row r="459">
-      <c r="D459" s="5"/>
-      <c r="E459" s="5"/>
+      <c r="D459" s="10"/>
+      <c r="E459" s="10"/>
     </row>
     <row r="460">
-      <c r="D460" s="5"/>
-      <c r="E460" s="5"/>
+      <c r="D460" s="10"/>
+      <c r="E460" s="10"/>
     </row>
     <row r="461">
-      <c r="D461" s="5"/>
-      <c r="E461" s="5"/>
+      <c r="D461" s="10"/>
+      <c r="E461" s="10"/>
     </row>
     <row r="462">
-      <c r="D462" s="5"/>
-      <c r="E462" s="5"/>
+      <c r="D462" s="10"/>
+      <c r="E462" s="10"/>
     </row>
     <row r="463">
-      <c r="D463" s="5"/>
-      <c r="E463" s="5"/>
+      <c r="D463" s="10"/>
+      <c r="E463" s="10"/>
     </row>
     <row r="464">
-      <c r="D464" s="5"/>
-      <c r="E464" s="5"/>
+      <c r="D464" s="10"/>
+      <c r="E464" s="10"/>
     </row>
     <row r="465">
-      <c r="D465" s="5"/>
-      <c r="E465" s="5"/>
+      <c r="D465" s="10"/>
+      <c r="E465" s="10"/>
     </row>
     <row r="466">
-      <c r="D466" s="5"/>
-      <c r="E466" s="5"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="10"/>
     </row>
     <row r="467">
-      <c r="D467" s="5"/>
-      <c r="E467" s="5"/>
+      <c r="D467" s="10"/>
+      <c r="E467" s="10"/>
     </row>
     <row r="468">
-      <c r="D468" s="5"/>
-      <c r="E468" s="5"/>
+      <c r="D468" s="10"/>
+      <c r="E468" s="10"/>
     </row>
     <row r="469">
-      <c r="D469" s="5"/>
-      <c r="E469" s="5"/>
+      <c r="D469" s="10"/>
+      <c r="E469" s="10"/>
     </row>
     <row r="470">
-      <c r="D470" s="5"/>
-      <c r="E470" s="5"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="10"/>
     </row>
     <row r="471">
-      <c r="D471" s="5"/>
-      <c r="E471" s="5"/>
+      <c r="D471" s="10"/>
+      <c r="E471" s="10"/>
     </row>
     <row r="472">
-      <c r="D472" s="5"/>
-      <c r="E472" s="5"/>
+      <c r="D472" s="10"/>
+      <c r="E472" s="10"/>
     </row>
     <row r="473">
-      <c r="D473" s="5"/>
-      <c r="E473" s="5"/>
+      <c r="D473" s="10"/>
+      <c r="E473" s="10"/>
     </row>
     <row r="474">
-      <c r="D474" s="5"/>
-      <c r="E474" s="5"/>
+      <c r="D474" s="10"/>
+      <c r="E474" s="10"/>
     </row>
     <row r="475">
-      <c r="D475" s="5"/>
-      <c r="E475" s="5"/>
+      <c r="D475" s="10"/>
+      <c r="E475" s="10"/>
     </row>
     <row r="476">
-      <c r="D476" s="5"/>
-      <c r="E476" s="5"/>
+      <c r="D476" s="10"/>
+      <c r="E476" s="10"/>
     </row>
     <row r="477">
-      <c r="D477" s="5"/>
-      <c r="E477" s="5"/>
+      <c r="D477" s="10"/>
+      <c r="E477" s="10"/>
     </row>
     <row r="478">
-      <c r="D478" s="5"/>
-      <c r="E478" s="5"/>
+      <c r="D478" s="10"/>
+      <c r="E478" s="10"/>
     </row>
     <row r="479">
-      <c r="D479" s="5"/>
-      <c r="E479" s="5"/>
+      <c r="D479" s="10"/>
+      <c r="E479" s="10"/>
     </row>
     <row r="480">
-      <c r="D480" s="5"/>
-      <c r="E480" s="5"/>
+      <c r="D480" s="10"/>
+      <c r="E480" s="10"/>
     </row>
     <row r="481">
-      <c r="D481" s="5"/>
-      <c r="E481" s="5"/>
+      <c r="D481" s="10"/>
+      <c r="E481" s="10"/>
     </row>
     <row r="482">
-      <c r="D482" s="5"/>
-      <c r="E482" s="5"/>
+      <c r="D482" s="10"/>
+      <c r="E482" s="10"/>
     </row>
     <row r="483">
-      <c r="D483" s="5"/>
-      <c r="E483" s="5"/>
+      <c r="D483" s="10"/>
+      <c r="E483" s="10"/>
     </row>
     <row r="484">
-      <c r="D484" s="5"/>
-      <c r="E484" s="5"/>
+      <c r="D484" s="10"/>
+      <c r="E484" s="10"/>
     </row>
     <row r="485">
-      <c r="D485" s="5"/>
-      <c r="E485" s="5"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="10"/>
     </row>
     <row r="486">
-      <c r="D486" s="5"/>
-      <c r="E486" s="5"/>
+      <c r="D486" s="10"/>
+      <c r="E486" s="10"/>
     </row>
     <row r="487">
-      <c r="D487" s="5"/>
-      <c r="E487" s="5"/>
+      <c r="D487" s="10"/>
+      <c r="E487" s="10"/>
     </row>
     <row r="488">
-      <c r="D488" s="5"/>
-      <c r="E488" s="5"/>
+      <c r="D488" s="10"/>
+      <c r="E488" s="10"/>
     </row>
     <row r="489">
-      <c r="D489" s="5"/>
-      <c r="E489" s="5"/>
+      <c r="D489" s="10"/>
+      <c r="E489" s="10"/>
     </row>
     <row r="490">
-      <c r="D490" s="5"/>
-      <c r="E490" s="5"/>
+      <c r="D490" s="10"/>
+      <c r="E490" s="10"/>
     </row>
     <row r="491">
-      <c r="D491" s="5"/>
-      <c r="E491" s="5"/>
+      <c r="D491" s="10"/>
+      <c r="E491" s="10"/>
     </row>
     <row r="492">
-      <c r="D492" s="5"/>
-      <c r="E492" s="5"/>
+      <c r="D492" s="10"/>
+      <c r="E492" s="10"/>
     </row>
     <row r="493">
-      <c r="D493" s="5"/>
-      <c r="E493" s="5"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="10"/>
     </row>
     <row r="494">
-      <c r="D494" s="5"/>
-      <c r="E494" s="5"/>
+      <c r="D494" s="10"/>
+      <c r="E494" s="10"/>
     </row>
     <row r="495">
-      <c r="D495" s="5"/>
-      <c r="E495" s="5"/>
+      <c r="D495" s="10"/>
+      <c r="E495" s="10"/>
     </row>
     <row r="496">
-      <c r="D496" s="5"/>
-      <c r="E496" s="5"/>
+      <c r="D496" s="10"/>
+      <c r="E496" s="10"/>
     </row>
     <row r="497">
-      <c r="D497" s="5"/>
-      <c r="E497" s="5"/>
+      <c r="D497" s="10"/>
+      <c r="E497" s="10"/>
     </row>
     <row r="498">
-      <c r="D498" s="5"/>
-      <c r="E498" s="5"/>
+      <c r="D498" s="10"/>
+      <c r="E498" s="10"/>
     </row>
     <row r="499">
-      <c r="D499" s="5"/>
-      <c r="E499" s="5"/>
+      <c r="D499" s="10"/>
+      <c r="E499" s="10"/>
     </row>
     <row r="500">
-      <c r="D500" s="5"/>
-      <c r="E500" s="5"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="10"/>
     </row>
     <row r="501">
-      <c r="D501" s="5"/>
-      <c r="E501" s="5"/>
+      <c r="D501" s="10"/>
+      <c r="E501" s="10"/>
     </row>
     <row r="502">
-      <c r="D502" s="5"/>
-      <c r="E502" s="5"/>
+      <c r="D502" s="10"/>
+      <c r="E502" s="10"/>
     </row>
     <row r="503">
-      <c r="D503" s="5"/>
-      <c r="E503" s="5"/>
+      <c r="D503" s="10"/>
+      <c r="E503" s="10"/>
     </row>
     <row r="504">
-      <c r="D504" s="5"/>
-      <c r="E504" s="5"/>
+      <c r="D504" s="10"/>
+      <c r="E504" s="10"/>
     </row>
     <row r="505">
-      <c r="D505" s="5"/>
-      <c r="E505" s="5"/>
+      <c r="D505" s="10"/>
+      <c r="E505" s="10"/>
     </row>
     <row r="506">
-      <c r="D506" s="5"/>
-      <c r="E506" s="5"/>
+      <c r="D506" s="10"/>
+      <c r="E506" s="10"/>
     </row>
     <row r="507">
-      <c r="D507" s="5"/>
-      <c r="E507" s="5"/>
+      <c r="D507" s="10"/>
+      <c r="E507" s="10"/>
     </row>
     <row r="508">
-      <c r="D508" s="5"/>
-      <c r="E508" s="5"/>
+      <c r="D508" s="10"/>
+      <c r="E508" s="10"/>
     </row>
     <row r="509">
-      <c r="D509" s="5"/>
-      <c r="E509" s="5"/>
+      <c r="D509" s="10"/>
+      <c r="E509" s="10"/>
     </row>
     <row r="510">
-      <c r="D510" s="5"/>
-      <c r="E510" s="5"/>
+      <c r="D510" s="10"/>
+      <c r="E510" s="10"/>
     </row>
     <row r="511">
-      <c r="D511" s="5"/>
-      <c r="E511" s="5"/>
+      <c r="D511" s="10"/>
+      <c r="E511" s="10"/>
     </row>
     <row r="512">
-      <c r="D512" s="5"/>
-      <c r="E512" s="5"/>
+      <c r="D512" s="10"/>
+      <c r="E512" s="10"/>
     </row>
     <row r="513">
-      <c r="D513" s="5"/>
-      <c r="E513" s="5"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="10"/>
     </row>
     <row r="514">
-      <c r="D514" s="5"/>
-      <c r="E514" s="5"/>
+      <c r="D514" s="10"/>
+      <c r="E514" s="10"/>
     </row>
     <row r="515">
-      <c r="D515" s="5"/>
-      <c r="E515" s="5"/>
+      <c r="D515" s="10"/>
+      <c r="E515" s="10"/>
     </row>
     <row r="516">
-      <c r="D516" s="5"/>
-      <c r="E516" s="5"/>
+      <c r="D516" s="10"/>
+      <c r="E516" s="10"/>
     </row>
     <row r="517">
-      <c r="D517" s="5"/>
-      <c r="E517" s="5"/>
+      <c r="D517" s="10"/>
+      <c r="E517" s="10"/>
     </row>
     <row r="518">
-      <c r="D518" s="5"/>
-      <c r="E518" s="5"/>
+      <c r="D518" s="10"/>
+      <c r="E518" s="10"/>
     </row>
     <row r="519">
-      <c r="D519" s="5"/>
-      <c r="E519" s="5"/>
+      <c r="D519" s="10"/>
+      <c r="E519" s="10"/>
     </row>
     <row r="520">
-      <c r="D520" s="5"/>
-      <c r="E520" s="5"/>
+      <c r="D520" s="10"/>
+      <c r="E520" s="10"/>
     </row>
     <row r="521">
-      <c r="D521" s="5"/>
-      <c r="E521" s="5"/>
+      <c r="D521" s="10"/>
+      <c r="E521" s="10"/>
     </row>
     <row r="522">
-      <c r="D522" s="5"/>
-      <c r="E522" s="5"/>
+      <c r="D522" s="10"/>
+      <c r="E522" s="10"/>
     </row>
     <row r="523">
-      <c r="D523" s="5"/>
-      <c r="E523" s="5"/>
+      <c r="D523" s="10"/>
+      <c r="E523" s="10"/>
     </row>
     <row r="524">
-      <c r="D524" s="5"/>
-      <c r="E524" s="5"/>
+      <c r="D524" s="10"/>
+      <c r="E524" s="10"/>
     </row>
     <row r="525">
-      <c r="D525" s="5"/>
-      <c r="E525" s="5"/>
+      <c r="D525" s="10"/>
+      <c r="E525" s="10"/>
     </row>
     <row r="526">
-      <c r="D526" s="5"/>
-      <c r="E526" s="5"/>
+      <c r="D526" s="10"/>
+      <c r="E526" s="10"/>
     </row>
     <row r="527">
-      <c r="D527" s="5"/>
-      <c r="E527" s="5"/>
+      <c r="D527" s="10"/>
+      <c r="E527" s="10"/>
     </row>
     <row r="528">
-      <c r="D528" s="5"/>
-      <c r="E528" s="5"/>
+      <c r="D528" s="10"/>
+      <c r="E528" s="10"/>
     </row>
     <row r="529">
-      <c r="D529" s="5"/>
-      <c r="E529" s="5"/>
+      <c r="D529" s="10"/>
+      <c r="E529" s="10"/>
     </row>
     <row r="530">
-      <c r="D530" s="5"/>
-      <c r="E530" s="5"/>
+      <c r="D530" s="10"/>
+      <c r="E530" s="10"/>
     </row>
     <row r="531">
-      <c r="D531" s="5"/>
-      <c r="E531" s="5"/>
+      <c r="D531" s="10"/>
+      <c r="E531" s="10"/>
     </row>
     <row r="532">
-      <c r="D532" s="5"/>
-      <c r="E532" s="5"/>
+      <c r="D532" s="10"/>
+      <c r="E532" s="10"/>
     </row>
     <row r="533">
-      <c r="D533" s="5"/>
-      <c r="E533" s="5"/>
+      <c r="D533" s="10"/>
+      <c r="E533" s="10"/>
     </row>
     <row r="534">
-      <c r="D534" s="5"/>
-      <c r="E534" s="5"/>
+      <c r="D534" s="10"/>
+      <c r="E534" s="10"/>
     </row>
     <row r="535">
-      <c r="D535" s="5"/>
-      <c r="E535" s="5"/>
+      <c r="D535" s="10"/>
+      <c r="E535" s="10"/>
     </row>
     <row r="536">
-      <c r="D536" s="5"/>
-      <c r="E536" s="5"/>
+      <c r="D536" s="10"/>
+      <c r="E536" s="10"/>
     </row>
     <row r="537">
-      <c r="D537" s="5"/>
-      <c r="E537" s="5"/>
+      <c r="D537" s="10"/>
+      <c r="E537" s="10"/>
     </row>
     <row r="538">
-      <c r="D538" s="5"/>
-      <c r="E538" s="5"/>
+      <c r="D538" s="10"/>
+      <c r="E538" s="10"/>
     </row>
     <row r="539">
-      <c r="D539" s="5"/>
-      <c r="E539" s="5"/>
+      <c r="D539" s="10"/>
+      <c r="E539" s="10"/>
     </row>
     <row r="540">
-      <c r="D540" s="5"/>
-      <c r="E540" s="5"/>
+      <c r="D540" s="10"/>
+      <c r="E540" s="10"/>
     </row>
     <row r="541">
-      <c r="D541" s="5"/>
-      <c r="E541" s="5"/>
+      <c r="D541" s="10"/>
+      <c r="E541" s="10"/>
     </row>
     <row r="542">
-      <c r="D542" s="5"/>
-      <c r="E542" s="5"/>
+      <c r="D542" s="10"/>
+      <c r="E542" s="10"/>
     </row>
     <row r="543">
-      <c r="D543" s="5"/>
-      <c r="E543" s="5"/>
+      <c r="D543" s="10"/>
+      <c r="E543" s="10"/>
     </row>
     <row r="544">
-      <c r="D544" s="5"/>
-      <c r="E544" s="5"/>
+      <c r="D544" s="10"/>
+      <c r="E544" s="10"/>
     </row>
     <row r="545">
-      <c r="D545" s="5"/>
-      <c r="E545" s="5"/>
+      <c r="D545" s="10"/>
+      <c r="E545" s="10"/>
     </row>
     <row r="546">
-      <c r="D546" s="5"/>
-      <c r="E546" s="5"/>
+      <c r="D546" s="10"/>
+      <c r="E546" s="10"/>
     </row>
     <row r="547">
-      <c r="D547" s="5"/>
-      <c r="E547" s="5"/>
+      <c r="D547" s="10"/>
+      <c r="E547" s="10"/>
     </row>
     <row r="548">
-      <c r="D548" s="5"/>
-      <c r="E548" s="5"/>
+      <c r="D548" s="10"/>
+      <c r="E548" s="10"/>
     </row>
     <row r="549">
-      <c r="D549" s="5"/>
-      <c r="E549" s="5"/>
+      <c r="D549" s="10"/>
+      <c r="E549" s="10"/>
     </row>
     <row r="550">
-      <c r="D550" s="5"/>
-      <c r="E550" s="5"/>
+      <c r="D550" s="10"/>
+      <c r="E550" s="10"/>
     </row>
     <row r="551">
-      <c r="D551" s="5"/>
-      <c r="E551" s="5"/>
+      <c r="D551" s="10"/>
+      <c r="E551" s="10"/>
     </row>
     <row r="552">
-      <c r="D552" s="5"/>
-      <c r="E552" s="5"/>
+      <c r="D552" s="10"/>
+      <c r="E552" s="10"/>
     </row>
     <row r="553">
-      <c r="D553" s="5"/>
-      <c r="E553" s="5"/>
+      <c r="D553" s="10"/>
+      <c r="E553" s="10"/>
     </row>
     <row r="554">
-      <c r="D554" s="5"/>
-      <c r="E554" s="5"/>
+      <c r="D554" s="10"/>
+      <c r="E554" s="10"/>
     </row>
     <row r="555">
-      <c r="D555" s="5"/>
-      <c r="E555" s="5"/>
+      <c r="D555" s="10"/>
+      <c r="E555" s="10"/>
     </row>
     <row r="556">
-      <c r="D556" s="5"/>
-      <c r="E556" s="5"/>
+      <c r="D556" s="10"/>
+      <c r="E556" s="10"/>
     </row>
     <row r="557">
-      <c r="D557" s="5"/>
-      <c r="E557" s="5"/>
+      <c r="D557" s="10"/>
+      <c r="E557" s="10"/>
     </row>
     <row r="558">
-      <c r="D558" s="5"/>
-      <c r="E558" s="5"/>
+      <c r="D558" s="10"/>
+      <c r="E558" s="10"/>
     </row>
     <row r="559">
-      <c r="D559" s="5"/>
-      <c r="E559" s="5"/>
+      <c r="D559" s="10"/>
+      <c r="E559" s="10"/>
     </row>
     <row r="560">
-      <c r="D560" s="5"/>
-      <c r="E560" s="5"/>
+      <c r="D560" s="10"/>
+      <c r="E560" s="10"/>
     </row>
     <row r="561">
-      <c r="D561" s="5"/>
-      <c r="E561" s="5"/>
+      <c r="D561" s="10"/>
+      <c r="E561" s="10"/>
     </row>
     <row r="562">
-      <c r="D562" s="5"/>
-      <c r="E562" s="5"/>
+      <c r="D562" s="10"/>
+      <c r="E562" s="10"/>
     </row>
     <row r="563">
-      <c r="D563" s="5"/>
-      <c r="E563" s="5"/>
+      <c r="D563" s="10"/>
+      <c r="E563" s="10"/>
     </row>
     <row r="564">
-      <c r="D564" s="5"/>
-      <c r="E564" s="5"/>
+      <c r="D564" s="10"/>
+      <c r="E564" s="10"/>
     </row>
     <row r="565">
-      <c r="D565" s="5"/>
-      <c r="E565" s="5"/>
+      <c r="D565" s="10"/>
+      <c r="E565" s="10"/>
     </row>
     <row r="566">
-      <c r="D566" s="5"/>
-      <c r="E566" s="5"/>
+      <c r="D566" s="10"/>
+      <c r="E566" s="10"/>
     </row>
     <row r="567">
-      <c r="D567" s="5"/>
-      <c r="E567" s="5"/>
+      <c r="D567" s="10"/>
+      <c r="E567" s="10"/>
     </row>
     <row r="568">
-      <c r="D568" s="5"/>
-      <c r="E568" s="5"/>
+      <c r="D568" s="10"/>
+      <c r="E568" s="10"/>
     </row>
     <row r="569">
-      <c r="D569" s="5"/>
-      <c r="E569" s="5"/>
+      <c r="D569" s="10"/>
+      <c r="E569" s="10"/>
     </row>
     <row r="570">
-      <c r="D570" s="5"/>
-      <c r="E570" s="5"/>
+      <c r="D570" s="10"/>
+      <c r="E570" s="10"/>
     </row>
     <row r="571">
-      <c r="D571" s="5"/>
-      <c r="E571" s="5"/>
+      <c r="D571" s="10"/>
+      <c r="E571" s="10"/>
     </row>
     <row r="572">
-      <c r="D572" s="5"/>
-      <c r="E572" s="5"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="10"/>
     </row>
     <row r="573">
-      <c r="D573" s="5"/>
-      <c r="E573" s="5"/>
+      <c r="D573" s="10"/>
+      <c r="E573" s="10"/>
     </row>
     <row r="574">
-      <c r="D574" s="5"/>
-      <c r="E574" s="5"/>
+      <c r="D574" s="10"/>
+      <c r="E574" s="10"/>
     </row>
     <row r="575">
-      <c r="D575" s="5"/>
-      <c r="E575" s="5"/>
+      <c r="D575" s="10"/>
+      <c r="E575" s="10"/>
     </row>
     <row r="576">
-      <c r="D576" s="5"/>
-      <c r="E576" s="5"/>
+      <c r="D576" s="10"/>
+      <c r="E576" s="10"/>
     </row>
     <row r="577">
-      <c r="D577" s="5"/>
-      <c r="E577" s="5"/>
+      <c r="D577" s="10"/>
+      <c r="E577" s="10"/>
     </row>
     <row r="578">
-      <c r="D578" s="5"/>
-      <c r="E578" s="5"/>
+      <c r="D578" s="10"/>
+      <c r="E578" s="10"/>
     </row>
     <row r="579">
-      <c r="D579" s="5"/>
-      <c r="E579" s="5"/>
+      <c r="D579" s="10"/>
+      <c r="E579" s="10"/>
     </row>
     <row r="580">
-      <c r="D580" s="5"/>
-      <c r="E580" s="5"/>
+      <c r="D580" s="10"/>
+      <c r="E580" s="10"/>
     </row>
     <row r="581">
-      <c r="D581" s="5"/>
-      <c r="E581" s="5"/>
+      <c r="D581" s="10"/>
+      <c r="E581" s="10"/>
     </row>
     <row r="582">
-      <c r="D582" s="5"/>
-      <c r="E582" s="5"/>
+      <c r="D582" s="10"/>
+      <c r="E582" s="10"/>
     </row>
     <row r="583">
-      <c r="D583" s="5"/>
-      <c r="E583" s="5"/>
+      <c r="D583" s="10"/>
+      <c r="E583" s="10"/>
     </row>
     <row r="584">
-      <c r="D584" s="5"/>
-      <c r="E584" s="5"/>
+      <c r="D584" s="10"/>
+      <c r="E584" s="10"/>
     </row>
     <row r="585">
-      <c r="D585" s="5"/>
-      <c r="E585" s="5"/>
+      <c r="D585" s="10"/>
+      <c r="E585" s="10"/>
     </row>
     <row r="586">
-      <c r="D586" s="5"/>
-      <c r="E586" s="5"/>
+      <c r="D586" s="10"/>
+      <c r="E586" s="10"/>
     </row>
     <row r="587">
-      <c r="D587" s="5"/>
-      <c r="E587" s="5"/>
+      <c r="D587" s="10"/>
+      <c r="E587" s="10"/>
     </row>
     <row r="588">
-      <c r="D588" s="5"/>
-      <c r="E588" s="5"/>
+      <c r="D588" s="10"/>
+      <c r="E588" s="10"/>
     </row>
     <row r="589">
-      <c r="D589" s="5"/>
-      <c r="E589" s="5"/>
+      <c r="D589" s="10"/>
+      <c r="E589" s="10"/>
     </row>
     <row r="590">
-      <c r="D590" s="5"/>
-      <c r="E590" s="5"/>
+      <c r="D590" s="10"/>
+      <c r="E590" s="10"/>
     </row>
     <row r="591">
-      <c r="D591" s="5"/>
-      <c r="E591" s="5"/>
+      <c r="D591" s="10"/>
+      <c r="E591" s="10"/>
     </row>
     <row r="592">
-      <c r="D592" s="5"/>
-      <c r="E592" s="5"/>
+      <c r="D592" s="10"/>
+      <c r="E592" s="10"/>
     </row>
     <row r="593">
-      <c r="D593" s="5"/>
-      <c r="E593" s="5"/>
+      <c r="D593" s="10"/>
+      <c r="E593" s="10"/>
     </row>
     <row r="594">
-      <c r="D594" s="5"/>
-      <c r="E594" s="5"/>
+      <c r="D594" s="10"/>
+      <c r="E594" s="10"/>
     </row>
     <row r="595">
-      <c r="D595" s="5"/>
-      <c r="E595" s="5"/>
+      <c r="D595" s="10"/>
+      <c r="E595" s="10"/>
     </row>
     <row r="596">
-      <c r="D596" s="5"/>
-      <c r="E596" s="5"/>
+      <c r="D596" s="10"/>
+      <c r="E596" s="10"/>
     </row>
     <row r="597">
-      <c r="D597" s="5"/>
-      <c r="E597" s="5"/>
+      <c r="D597" s="10"/>
+      <c r="E597" s="10"/>
     </row>
     <row r="598">
-      <c r="D598" s="5"/>
-      <c r="E598" s="5"/>
+      <c r="D598" s="10"/>
+      <c r="E598" s="10"/>
     </row>
     <row r="599">
-      <c r="D599" s="5"/>
-      <c r="E599" s="5"/>
+      <c r="D599" s="10"/>
+      <c r="E599" s="10"/>
     </row>
     <row r="600">
-      <c r="D600" s="5"/>
-      <c r="E600" s="5"/>
+      <c r="D600" s="10"/>
+      <c r="E600" s="10"/>
     </row>
     <row r="601">
-      <c r="D601" s="5"/>
-      <c r="E601" s="5"/>
+      <c r="D601" s="10"/>
+      <c r="E601" s="10"/>
     </row>
     <row r="602">
-      <c r="D602" s="5"/>
-      <c r="E602" s="5"/>
+      <c r="D602" s="10"/>
+      <c r="E602" s="10"/>
     </row>
     <row r="603">
-      <c r="D603" s="5"/>
-      <c r="E603" s="5"/>
+      <c r="D603" s="10"/>
+      <c r="E603" s="10"/>
     </row>
     <row r="604">
-      <c r="D604" s="5"/>
-      <c r="E604" s="5"/>
+      <c r="D604" s="10"/>
+      <c r="E604" s="10"/>
     </row>
     <row r="605">
-      <c r="D605" s="5"/>
-      <c r="E605" s="5"/>
+      <c r="D605" s="10"/>
+      <c r="E605" s="10"/>
     </row>
     <row r="606">
-      <c r="D606" s="5"/>
-      <c r="E606" s="5"/>
+      <c r="D606" s="10"/>
+      <c r="E606" s="10"/>
     </row>
     <row r="607">
-      <c r="D607" s="5"/>
-      <c r="E607" s="5"/>
+      <c r="D607" s="10"/>
+      <c r="E607" s="10"/>
     </row>
     <row r="608">
-      <c r="D608" s="5"/>
-      <c r="E608" s="5"/>
+      <c r="D608" s="10"/>
+      <c r="E608" s="10"/>
     </row>
     <row r="609">
-      <c r="D609" s="5"/>
-      <c r="E609" s="5"/>
+      <c r="D609" s="10"/>
+      <c r="E609" s="10"/>
     </row>
     <row r="610">
-      <c r="D610" s="5"/>
-      <c r="E610" s="5"/>
+      <c r="D610" s="10"/>
+      <c r="E610" s="10"/>
     </row>
     <row r="611">
-      <c r="D611" s="5"/>
-      <c r="E611" s="5"/>
+      <c r="D611" s="10"/>
+      <c r="E611" s="10"/>
     </row>
     <row r="612">
-      <c r="D612" s="5"/>
-      <c r="E612" s="5"/>
+      <c r="D612" s="10"/>
+      <c r="E612" s="10"/>
     </row>
     <row r="613">
-      <c r="D613" s="5"/>
-      <c r="E613" s="5"/>
+      <c r="D613" s="10"/>
+      <c r="E613" s="10"/>
     </row>
     <row r="614">
-      <c r="D614" s="5"/>
-      <c r="E614" s="5"/>
+      <c r="D614" s="10"/>
+      <c r="E614" s="10"/>
     </row>
     <row r="615">
-      <c r="D615" s="5"/>
-      <c r="E615" s="5"/>
+      <c r="D615" s="10"/>
+      <c r="E615" s="10"/>
     </row>
     <row r="616">
-      <c r="D616" s="5"/>
-      <c r="E616" s="5"/>
+      <c r="D616" s="10"/>
+      <c r="E616" s="10"/>
     </row>
     <row r="617">
-      <c r="D617" s="5"/>
-      <c r="E617" s="5"/>
+      <c r="D617" s="10"/>
+      <c r="E617" s="10"/>
     </row>
     <row r="618">
-      <c r="D618" s="5"/>
-      <c r="E618" s="5"/>
+      <c r="D618" s="10"/>
+      <c r="E618" s="10"/>
     </row>
     <row r="619">
-      <c r="D619" s="5"/>
-      <c r="E619" s="5"/>
+      <c r="D619" s="10"/>
+      <c r="E619" s="10"/>
     </row>
     <row r="620">
-      <c r="D620" s="5"/>
-      <c r="E620" s="5"/>
+      <c r="D620" s="10"/>
+      <c r="E620" s="10"/>
     </row>
     <row r="621">
-      <c r="D621" s="5"/>
-      <c r="E621" s="5"/>
+      <c r="D621" s="10"/>
+      <c r="E621" s="10"/>
     </row>
     <row r="622">
-      <c r="D622" s="5"/>
-      <c r="E622" s="5"/>
+      <c r="D622" s="10"/>
+      <c r="E622" s="10"/>
     </row>
     <row r="623">
-      <c r="D623" s="5"/>
-      <c r="E623" s="5"/>
+      <c r="D623" s="10"/>
+      <c r="E623" s="10"/>
     </row>
     <row r="624">
-      <c r="D624" s="5"/>
-      <c r="E624" s="5"/>
+      <c r="D624" s="10"/>
+      <c r="E624" s="10"/>
     </row>
     <row r="625">
-      <c r="D625" s="5"/>
-      <c r="E625" s="5"/>
+      <c r="D625" s="10"/>
+      <c r="E625" s="10"/>
     </row>
     <row r="626">
-      <c r="D626" s="5"/>
-      <c r="E626" s="5"/>
+      <c r="D626" s="10"/>
+      <c r="E626" s="10"/>
     </row>
     <row r="627">
-      <c r="D627" s="5"/>
-      <c r="E627" s="5"/>
+      <c r="D627" s="10"/>
+      <c r="E627" s="10"/>
     </row>
     <row r="628">
-      <c r="D628" s="5"/>
-      <c r="E628" s="5"/>
+      <c r="D628" s="10"/>
+      <c r="E628" s="10"/>
     </row>
     <row r="629">
-      <c r="D629" s="5"/>
-      <c r="E629" s="5"/>
+      <c r="D629" s="10"/>
+      <c r="E629" s="10"/>
     </row>
     <row r="630">
-      <c r="D630" s="5"/>
-      <c r="E630" s="5"/>
+      <c r="D630" s="10"/>
+      <c r="E630" s="10"/>
     </row>
     <row r="631">
-      <c r="D631" s="5"/>
-      <c r="E631" s="5"/>
+      <c r="D631" s="10"/>
+      <c r="E631" s="10"/>
     </row>
     <row r="632">
-      <c r="D632" s="5"/>
-      <c r="E632" s="5"/>
+      <c r="D632" s="10"/>
+      <c r="E632" s="10"/>
     </row>
     <row r="633">
-      <c r="D633" s="5"/>
-      <c r="E633" s="5"/>
+      <c r="D633" s="10"/>
+      <c r="E633" s="10"/>
     </row>
     <row r="634">
-      <c r="D634" s="5"/>
-      <c r="E634" s="5"/>
+      <c r="D634" s="10"/>
+      <c r="E634" s="10"/>
     </row>
     <row r="635">
-      <c r="D635" s="5"/>
-      <c r="E635" s="5"/>
+      <c r="D635" s="10"/>
+      <c r="E635" s="10"/>
     </row>
     <row r="636">
-      <c r="D636" s="5"/>
-      <c r="E636" s="5"/>
+      <c r="D636" s="10"/>
+      <c r="E636" s="10"/>
     </row>
     <row r="637">
-      <c r="D637" s="5"/>
-      <c r="E637" s="5"/>
+      <c r="D637" s="10"/>
+      <c r="E637" s="10"/>
     </row>
     <row r="638">
-      <c r="D638" s="5"/>
-      <c r="E638" s="5"/>
+      <c r="D638" s="10"/>
+      <c r="E638" s="10"/>
     </row>
     <row r="639">
-      <c r="D639" s="5"/>
-      <c r="E639" s="5"/>
+      <c r="D639" s="10"/>
+      <c r="E639" s="10"/>
     </row>
     <row r="640">
-      <c r="D640" s="5"/>
-      <c r="E640" s="5"/>
+      <c r="D640" s="10"/>
+      <c r="E640" s="10"/>
     </row>
     <row r="641">
-      <c r="D641" s="5"/>
-      <c r="E641" s="5"/>
+      <c r="D641" s="10"/>
+      <c r="E641" s="10"/>
     </row>
     <row r="642">
-      <c r="D642" s="5"/>
-      <c r="E642" s="5"/>
+      <c r="D642" s="10"/>
+      <c r="E642" s="10"/>
     </row>
     <row r="643">
-      <c r="D643" s="5"/>
-      <c r="E643" s="5"/>
+      <c r="D643" s="10"/>
+      <c r="E643" s="10"/>
     </row>
     <row r="644">
-      <c r="D644" s="5"/>
-      <c r="E644" s="5"/>
+      <c r="D644" s="10"/>
+      <c r="E644" s="10"/>
     </row>
     <row r="645">
-      <c r="D645" s="5"/>
-      <c r="E645" s="5"/>
+      <c r="D645" s="10"/>
+      <c r="E645" s="10"/>
     </row>
     <row r="646">
-      <c r="D646" s="5"/>
-      <c r="E646" s="5"/>
+      <c r="D646" s="10"/>
+      <c r="E646" s="10"/>
     </row>
     <row r="647">
-      <c r="D647" s="5"/>
-      <c r="E647" s="5"/>
+      <c r="D647" s="10"/>
+      <c r="E647" s="10"/>
     </row>
     <row r="648">
-      <c r="D648" s="5"/>
-      <c r="E648" s="5"/>
+      <c r="D648" s="10"/>
+      <c r="E648" s="10"/>
     </row>
     <row r="649">
-      <c r="D649" s="5"/>
-      <c r="E649" s="5"/>
+      <c r="D649" s="10"/>
+      <c r="E649" s="10"/>
     </row>
     <row r="650">
-      <c r="D650" s="5"/>
-      <c r="E650" s="5"/>
+      <c r="D650" s="10"/>
+      <c r="E650" s="10"/>
     </row>
     <row r="651">
-      <c r="D651" s="5"/>
-      <c r="E651" s="5"/>
+      <c r="D651" s="10"/>
+      <c r="E651" s="10"/>
     </row>
     <row r="652">
-      <c r="D652" s="5"/>
-      <c r="E652" s="5"/>
+      <c r="D652" s="10"/>
+      <c r="E652" s="10"/>
     </row>
     <row r="653">
-      <c r="D653" s="5"/>
-      <c r="E653" s="5"/>
+      <c r="D653" s="10"/>
+      <c r="E653" s="10"/>
     </row>
     <row r="654">
-      <c r="D654" s="5"/>
-      <c r="E654" s="5"/>
+      <c r="D654" s="10"/>
+      <c r="E654" s="10"/>
     </row>
     <row r="655">
-      <c r="D655" s="5"/>
-      <c r="E655" s="5"/>
+      <c r="D655" s="10"/>
+      <c r="E655" s="10"/>
     </row>
     <row r="656">
-      <c r="D656" s="5"/>
-      <c r="E656" s="5"/>
+      <c r="D656" s="10"/>
+      <c r="E656" s="10"/>
     </row>
     <row r="657">
-      <c r="D657" s="5"/>
-      <c r="E657" s="5"/>
+      <c r="D657" s="10"/>
+      <c r="E657" s="10"/>
     </row>
     <row r="658">
-      <c r="D658" s="5"/>
-      <c r="E658" s="5"/>
+      <c r="D658" s="10"/>
+      <c r="E658" s="10"/>
     </row>
     <row r="659">
-      <c r="D659" s="5"/>
-      <c r="E659" s="5"/>
+      <c r="D659" s="10"/>
+      <c r="E659" s="10"/>
     </row>
     <row r="660">
-      <c r="D660" s="5"/>
-      <c r="E660" s="5"/>
+      <c r="D660" s="10"/>
+      <c r="E660" s="10"/>
     </row>
     <row r="661">
-      <c r="D661" s="5"/>
-      <c r="E661" s="5"/>
+      <c r="D661" s="10"/>
+      <c r="E661" s="10"/>
     </row>
     <row r="662">
-      <c r="D662" s="5"/>
-      <c r="E662" s="5"/>
+      <c r="D662" s="10"/>
+      <c r="E662" s="10"/>
     </row>
     <row r="663">
-      <c r="D663" s="5"/>
-      <c r="E663" s="5"/>
+      <c r="D663" s="10"/>
+      <c r="E663" s="10"/>
     </row>
     <row r="664">
-      <c r="D664" s="5"/>
-      <c r="E664" s="5"/>
+      <c r="D664" s="10"/>
+      <c r="E664" s="10"/>
     </row>
     <row r="665">
-      <c r="D665" s="5"/>
-      <c r="E665" s="5"/>
+      <c r="D665" s="10"/>
+      <c r="E665" s="10"/>
     </row>
     <row r="666">
-      <c r="D666" s="5"/>
-      <c r="E666" s="5"/>
+      <c r="D666" s="10"/>
+      <c r="E666" s="10"/>
     </row>
     <row r="667">
-      <c r="D667" s="5"/>
-      <c r="E667" s="5"/>
+      <c r="D667" s="10"/>
+      <c r="E667" s="10"/>
     </row>
     <row r="668">
-      <c r="D668" s="5"/>
-      <c r="E668" s="5"/>
+      <c r="D668" s="10"/>
+      <c r="E668" s="10"/>
     </row>
     <row r="669">
-      <c r="D669" s="5"/>
-      <c r="E669" s="5"/>
+      <c r="D669" s="10"/>
+      <c r="E669" s="10"/>
     </row>
     <row r="670">
-      <c r="D670" s="5"/>
-      <c r="E670" s="5"/>
+      <c r="D670" s="10"/>
+      <c r="E670" s="10"/>
     </row>
     <row r="671">
-      <c r="D671" s="5"/>
-      <c r="E671" s="5"/>
+      <c r="D671" s="10"/>
+      <c r="E671" s="10"/>
     </row>
     <row r="672">
-      <c r="D672" s="5"/>
-      <c r="E672" s="5"/>
+      <c r="D672" s="10"/>
+      <c r="E672" s="10"/>
     </row>
     <row r="673">
-      <c r="D673" s="5"/>
-      <c r="E673" s="5"/>
+      <c r="D673" s="10"/>
+      <c r="E673" s="10"/>
     </row>
     <row r="674">
-      <c r="D674" s="5"/>
-      <c r="E674" s="5"/>
+      <c r="D674" s="10"/>
+      <c r="E674" s="10"/>
     </row>
     <row r="675">
-      <c r="D675" s="5"/>
-      <c r="E675" s="5"/>
+      <c r="D675" s="10"/>
+      <c r="E675" s="10"/>
     </row>
     <row r="676">
-      <c r="D676" s="5"/>
-      <c r="E676" s="5"/>
+      <c r="D676" s="10"/>
+      <c r="E676" s="10"/>
     </row>
     <row r="677">
-      <c r="D677" s="5"/>
-      <c r="E677" s="5"/>
+      <c r="D677" s="10"/>
+      <c r="E677" s="10"/>
     </row>
     <row r="678">
-      <c r="D678" s="5"/>
-      <c r="E678" s="5"/>
+      <c r="D678" s="10"/>
+      <c r="E678" s="10"/>
     </row>
     <row r="679">
-      <c r="D679" s="5"/>
-      <c r="E679" s="5"/>
+      <c r="D679" s="10"/>
+      <c r="E679" s="10"/>
     </row>
     <row r="680">
-      <c r="D680" s="5"/>
-      <c r="E680" s="5"/>
+      <c r="D680" s="10"/>
+      <c r="E680" s="10"/>
     </row>
     <row r="681">
-      <c r="D681" s="5"/>
-      <c r="E681" s="5"/>
+      <c r="D681" s="10"/>
+      <c r="E681" s="10"/>
     </row>
     <row r="682">
-      <c r="D682" s="5"/>
-      <c r="E682" s="5"/>
+      <c r="D682" s="10"/>
+      <c r="E682" s="10"/>
     </row>
     <row r="683">
-      <c r="D683" s="5"/>
-      <c r="E683" s="5"/>
+      <c r="D683" s="10"/>
+      <c r="E683" s="10"/>
     </row>
     <row r="684">
-      <c r="D684" s="5"/>
-      <c r="E684" s="5"/>
+      <c r="D684" s="10"/>
+      <c r="E684" s="10"/>
     </row>
     <row r="685">
-      <c r="D685" s="5"/>
-      <c r="E685" s="5"/>
+      <c r="D685" s="10"/>
+      <c r="E685" s="10"/>
     </row>
     <row r="686">
-      <c r="D686" s="5"/>
-      <c r="E686" s="5"/>
+      <c r="D686" s="10"/>
+      <c r="E686" s="10"/>
     </row>
     <row r="687">
-      <c r="D687" s="5"/>
-      <c r="E687" s="5"/>
+      <c r="D687" s="10"/>
+      <c r="E687" s="10"/>
     </row>
     <row r="688">
-      <c r="D688" s="5"/>
-      <c r="E688" s="5"/>
+      <c r="D688" s="10"/>
+      <c r="E688" s="10"/>
     </row>
     <row r="689">
-      <c r="D689" s="5"/>
-      <c r="E689" s="5"/>
+      <c r="D689" s="10"/>
+      <c r="E689" s="10"/>
     </row>
     <row r="690">
-      <c r="D690" s="5"/>
-      <c r="E690" s="5"/>
+      <c r="D690" s="10"/>
+      <c r="E690" s="10"/>
     </row>
     <row r="691">
-      <c r="D691" s="5"/>
-      <c r="E691" s="5"/>
+      <c r="D691" s="10"/>
+      <c r="E691" s="10"/>
     </row>
     <row r="692">
-      <c r="D692" s="5"/>
-      <c r="E692" s="5"/>
+      <c r="D692" s="10"/>
+      <c r="E692" s="10"/>
     </row>
     <row r="693">
-      <c r="D693" s="5"/>
-      <c r="E693" s="5"/>
+      <c r="D693" s="10"/>
+      <c r="E693" s="10"/>
     </row>
     <row r="694">
-      <c r="D694" s="5"/>
-      <c r="E694" s="5"/>
+      <c r="D694" s="10"/>
+      <c r="E694" s="10"/>
     </row>
     <row r="695">
-      <c r="D695" s="5"/>
-      <c r="E695" s="5"/>
+      <c r="D695" s="10"/>
+      <c r="E695" s="10"/>
     </row>
     <row r="696">
-      <c r="D696" s="5"/>
-      <c r="E696" s="5"/>
+      <c r="D696" s="10"/>
+      <c r="E696" s="10"/>
     </row>
     <row r="697">
-      <c r="D697" s="5"/>
-      <c r="E697" s="5"/>
+      <c r="D697" s="10"/>
+      <c r="E697" s="10"/>
     </row>
     <row r="698">
-      <c r="D698" s="5"/>
-      <c r="E698" s="5"/>
+      <c r="D698" s="10"/>
+      <c r="E698" s="10"/>
     </row>
     <row r="699">
-      <c r="D699" s="5"/>
-      <c r="E699" s="5"/>
+      <c r="D699" s="10"/>
+      <c r="E699" s="10"/>
     </row>
     <row r="700">
-      <c r="D700" s="5"/>
-      <c r="E700" s="5"/>
+      <c r="D700" s="10"/>
+      <c r="E700" s="10"/>
     </row>
     <row r="701">
-      <c r="D701" s="5"/>
-      <c r="E701" s="5"/>
+      <c r="D701" s="10"/>
+      <c r="E701" s="10"/>
     </row>
     <row r="702">
-      <c r="D702" s="5"/>
-      <c r="E702" s="5"/>
+      <c r="D702" s="10"/>
+      <c r="E702" s="10"/>
     </row>
     <row r="703">
-      <c r="D703" s="5"/>
-      <c r="E703" s="5"/>
+      <c r="D703" s="10"/>
+      <c r="E703" s="10"/>
     </row>
     <row r="704">
-      <c r="D704" s="5"/>
-      <c r="E704" s="5"/>
+      <c r="D704" s="10"/>
+      <c r="E704" s="10"/>
     </row>
     <row r="705">
-      <c r="D705" s="5"/>
-      <c r="E705" s="5"/>
+      <c r="D705" s="10"/>
+      <c r="E705" s="10"/>
     </row>
     <row r="706">
-      <c r="D706" s="5"/>
-      <c r="E706" s="5"/>
+      <c r="D706" s="10"/>
+      <c r="E706" s="10"/>
     </row>
     <row r="707">
-      <c r="D707" s="5"/>
-      <c r="E707" s="5"/>
+      <c r="D707" s="10"/>
+      <c r="E707" s="10"/>
     </row>
     <row r="708">
-      <c r="D708" s="5"/>
-      <c r="E708" s="5"/>
+      <c r="D708" s="10"/>
+      <c r="E708" s="10"/>
     </row>
     <row r="709">
-      <c r="D709" s="5"/>
-      <c r="E709" s="5"/>
+      <c r="D709" s="10"/>
+      <c r="E709" s="10"/>
     </row>
     <row r="710">
-      <c r="D710" s="5"/>
-      <c r="E710" s="5"/>
+      <c r="D710" s="10"/>
+      <c r="E710" s="10"/>
     </row>
     <row r="711">
-      <c r="D711" s="5"/>
-      <c r="E711" s="5"/>
+      <c r="D711" s="10"/>
+      <c r="E711" s="10"/>
     </row>
     <row r="712">
-      <c r="D712" s="5"/>
-      <c r="E712" s="5"/>
+      <c r="D712" s="10"/>
+      <c r="E712" s="10"/>
     </row>
     <row r="713">
-      <c r="D713" s="5"/>
-      <c r="E713" s="5"/>
+      <c r="D713" s="10"/>
+      <c r="E713" s="10"/>
     </row>
     <row r="714">
-      <c r="D714" s="5"/>
-      <c r="E714" s="5"/>
+      <c r="D714" s="10"/>
+      <c r="E714" s="10"/>
     </row>
     <row r="715">
-      <c r="D715" s="5"/>
-      <c r="E715" s="5"/>
+      <c r="D715" s="10"/>
+      <c r="E715" s="10"/>
     </row>
     <row r="716">
-      <c r="D716" s="5"/>
-      <c r="E716" s="5"/>
+      <c r="D716" s="10"/>
+      <c r="E716" s="10"/>
     </row>
     <row r="717">
-      <c r="D717" s="5"/>
-      <c r="E717" s="5"/>
+      <c r="D717" s="10"/>
+      <c r="E717" s="10"/>
     </row>
     <row r="718">
-      <c r="D718" s="5"/>
-      <c r="E718" s="5"/>
+      <c r="D718" s="10"/>
+      <c r="E718" s="10"/>
     </row>
     <row r="719">
-      <c r="D719" s="5"/>
-      <c r="E719" s="5"/>
+      <c r="D719" s="10"/>
+      <c r="E719" s="10"/>
     </row>
     <row r="720">
-      <c r="D720" s="5"/>
-      <c r="E720" s="5"/>
+      <c r="D720" s="10"/>
+      <c r="E720" s="10"/>
     </row>
     <row r="721">
-      <c r="D721" s="5"/>
-      <c r="E721" s="5"/>
+      <c r="D721" s="10"/>
+      <c r="E721" s="10"/>
     </row>
     <row r="722">
-      <c r="D722" s="5"/>
-      <c r="E722" s="5"/>
+      <c r="D722" s="10"/>
+      <c r="E722" s="10"/>
     </row>
     <row r="723">
-      <c r="D723" s="5"/>
-      <c r="E723" s="5"/>
+      <c r="D723" s="10"/>
+      <c r="E723" s="10"/>
     </row>
     <row r="724">
-      <c r="D724" s="5"/>
-      <c r="E724" s="5"/>
+      <c r="D724" s="10"/>
+      <c r="E724" s="10"/>
     </row>
     <row r="725">
-      <c r="D725" s="5"/>
-      <c r="E725" s="5"/>
+      <c r="D725" s="10"/>
+      <c r="E725" s="10"/>
     </row>
     <row r="726">
-      <c r="D726" s="5"/>
-      <c r="E726" s="5"/>
+      <c r="D726" s="10"/>
+      <c r="E726" s="10"/>
     </row>
     <row r="727">
-      <c r="D727" s="5"/>
-      <c r="E727" s="5"/>
+      <c r="D727" s="10"/>
+      <c r="E727" s="10"/>
     </row>
     <row r="728">
-      <c r="D728" s="5"/>
-      <c r="E728" s="5"/>
+      <c r="D728" s="10"/>
+      <c r="E728" s="10"/>
     </row>
     <row r="729">
-      <c r="D729" s="5"/>
-      <c r="E729" s="5"/>
+      <c r="D729" s="10"/>
+      <c r="E729" s="10"/>
     </row>
     <row r="730">
-      <c r="D730" s="5"/>
-      <c r="E730" s="5"/>
+      <c r="D730" s="10"/>
+      <c r="E730" s="10"/>
     </row>
     <row r="731">
-      <c r="D731" s="5"/>
-      <c r="E731" s="5"/>
+      <c r="D731" s="10"/>
+      <c r="E731" s="10"/>
     </row>
     <row r="732">
-      <c r="D732" s="5"/>
-      <c r="E732" s="5"/>
+      <c r="D732" s="10"/>
+      <c r="E732" s="10"/>
     </row>
     <row r="733">
-      <c r="D733" s="5"/>
-      <c r="E733" s="5"/>
+      <c r="D733" s="10"/>
+      <c r="E733" s="10"/>
     </row>
     <row r="734">
-      <c r="D734" s="5"/>
-      <c r="E734" s="5"/>
+      <c r="D734" s="10"/>
+      <c r="E734" s="10"/>
     </row>
     <row r="735">
-      <c r="D735" s="5"/>
-      <c r="E735" s="5"/>
+      <c r="D735" s="10"/>
+      <c r="E735" s="10"/>
     </row>
     <row r="736">
-      <c r="D736" s="5"/>
-      <c r="E736" s="5"/>
+      <c r="D736" s="10"/>
+      <c r="E736" s="10"/>
     </row>
     <row r="737">
-      <c r="D737" s="5"/>
-      <c r="E737" s="5"/>
+      <c r="D737" s="10"/>
+      <c r="E737" s="10"/>
     </row>
     <row r="738">
-      <c r="D738" s="5"/>
-      <c r="E738" s="5"/>
+      <c r="D738" s="10"/>
+      <c r="E738" s="10"/>
     </row>
     <row r="739">
-      <c r="D739" s="5"/>
-      <c r="E739" s="5"/>
+      <c r="D739" s="10"/>
+      <c r="E739" s="10"/>
     </row>
     <row r="740">
-      <c r="D740" s="5"/>
-      <c r="E740" s="5"/>
+      <c r="D740" s="10"/>
+      <c r="E740" s="10"/>
     </row>
     <row r="741">
-      <c r="D741" s="5"/>
-      <c r="E741" s="5"/>
+      <c r="D741" s="10"/>
+      <c r="E741" s="10"/>
     </row>
     <row r="742">
-      <c r="D742" s="5"/>
-      <c r="E742" s="5"/>
+      <c r="D742" s="10"/>
+      <c r="E742" s="10"/>
     </row>
     <row r="743">
-      <c r="D743" s="5"/>
-      <c r="E743" s="5"/>
+      <c r="D743" s="10"/>
+      <c r="E743" s="10"/>
     </row>
     <row r="744">
-      <c r="D744" s="5"/>
-      <c r="E744" s="5"/>
+      <c r="D744" s="10"/>
+      <c r="E744" s="10"/>
     </row>
     <row r="745">
-      <c r="D745" s="5"/>
-      <c r="E745" s="5"/>
+      <c r="D745" s="10"/>
+      <c r="E745" s="10"/>
     </row>
     <row r="746">
-      <c r="D746" s="5"/>
-      <c r="E746" s="5"/>
+      <c r="D746" s="10"/>
+      <c r="E746" s="10"/>
     </row>
     <row r="747">
-      <c r="D747" s="5"/>
-      <c r="E747" s="5"/>
+      <c r="D747" s="10"/>
+      <c r="E747" s="10"/>
     </row>
     <row r="748">
-      <c r="D748" s="5"/>
-      <c r="E748" s="5"/>
+      <c r="D748" s="10"/>
+      <c r="E748" s="10"/>
     </row>
     <row r="749">
-      <c r="D749" s="5"/>
-      <c r="E749" s="5"/>
+      <c r="D749" s="10"/>
+      <c r="E749" s="10"/>
     </row>
     <row r="750">
-      <c r="D750" s="5"/>
-      <c r="E750" s="5"/>
+      <c r="D750" s="10"/>
+      <c r="E750" s="10"/>
     </row>
     <row r="751">
-      <c r="D751" s="5"/>
-      <c r="E751" s="5"/>
+      <c r="D751" s="10"/>
+      <c r="E751" s="10"/>
     </row>
     <row r="752">
-      <c r="D752" s="5"/>
-      <c r="E752" s="5"/>
+      <c r="D752" s="10"/>
+      <c r="E752" s="10"/>
     </row>
     <row r="753">
-      <c r="D753" s="5"/>
-      <c r="E753" s="5"/>
+      <c r="D753" s="10"/>
+      <c r="E753" s="10"/>
     </row>
     <row r="754">
-      <c r="D754" s="5"/>
-      <c r="E754" s="5"/>
+      <c r="D754" s="10"/>
+      <c r="E754" s="10"/>
     </row>
     <row r="755">
-      <c r="D755" s="5"/>
-      <c r="E755" s="5"/>
+      <c r="D755" s="10"/>
+      <c r="E755" s="10"/>
     </row>
     <row r="756">
-      <c r="D756" s="5"/>
-      <c r="E756" s="5"/>
+      <c r="D756" s="10"/>
+      <c r="E756" s="10"/>
     </row>
     <row r="757">
-      <c r="D757" s="5"/>
-      <c r="E757" s="5"/>
+      <c r="D757" s="10"/>
+      <c r="E757" s="10"/>
     </row>
     <row r="758">
-      <c r="D758" s="5"/>
-      <c r="E758" s="5"/>
+      <c r="D758" s="10"/>
+      <c r="E758" s="10"/>
     </row>
     <row r="759">
-      <c r="D759" s="5"/>
-      <c r="E759" s="5"/>
+      <c r="D759" s="10"/>
+      <c r="E759" s="10"/>
     </row>
     <row r="760">
-      <c r="D760" s="5"/>
-      <c r="E760" s="5"/>
+      <c r="D760" s="10"/>
+      <c r="E760" s="10"/>
     </row>
     <row r="761">
-      <c r="D761" s="5"/>
-      <c r="E761" s="5"/>
+      <c r="D761" s="10"/>
+      <c r="E761" s="10"/>
     </row>
     <row r="762">
-      <c r="D762" s="5"/>
-      <c r="E762" s="5"/>
+      <c r="D762" s="10"/>
+      <c r="E762" s="10"/>
     </row>
     <row r="763">
-      <c r="D763" s="5"/>
-      <c r="E763" s="5"/>
+      <c r="D763" s="10"/>
+      <c r="E763" s="10"/>
     </row>
     <row r="764">
-      <c r="D764" s="5"/>
-      <c r="E764" s="5"/>
+      <c r="D764" s="10"/>
+      <c r="E764" s="10"/>
     </row>
     <row r="765">
-      <c r="D765" s="5"/>
-      <c r="E765" s="5"/>
+      <c r="D765" s="10"/>
+      <c r="E765" s="10"/>
     </row>
     <row r="766">
-      <c r="D766" s="5"/>
-      <c r="E766" s="5"/>
+      <c r="D766" s="10"/>
+      <c r="E766" s="10"/>
     </row>
     <row r="767">
-      <c r="D767" s="5"/>
-      <c r="E767" s="5"/>
+      <c r="D767" s="10"/>
+      <c r="E767" s="10"/>
     </row>
     <row r="768">
-      <c r="D768" s="5"/>
-      <c r="E768" s="5"/>
+      <c r="D768" s="10"/>
+      <c r="E768" s="10"/>
     </row>
     <row r="769">
-      <c r="D769" s="5"/>
-      <c r="E769" s="5"/>
+      <c r="D769" s="10"/>
+      <c r="E769" s="10"/>
     </row>
     <row r="770">
-      <c r="D770" s="5"/>
-      <c r="E770" s="5"/>
+      <c r="D770" s="10"/>
+      <c r="E770" s="10"/>
     </row>
     <row r="771">
-      <c r="D771" s="5"/>
-      <c r="E771" s="5"/>
+      <c r="D771" s="10"/>
+      <c r="E771" s="10"/>
     </row>
     <row r="772">
-      <c r="D772" s="5"/>
-      <c r="E772" s="5"/>
+      <c r="D772" s="10"/>
+      <c r="E772" s="10"/>
     </row>
     <row r="773">
-      <c r="D773" s="5"/>
-      <c r="E773" s="5"/>
+      <c r="D773" s="10"/>
+      <c r="E773" s="10"/>
     </row>
     <row r="774">
-      <c r="D774" s="5"/>
-      <c r="E774" s="5"/>
+      <c r="D774" s="10"/>
+      <c r="E774" s="10"/>
     </row>
     <row r="775">
-      <c r="D775" s="5"/>
-      <c r="E775" s="5"/>
+      <c r="D775" s="10"/>
+      <c r="E775" s="10"/>
     </row>
     <row r="776">
-      <c r="D776" s="5"/>
-      <c r="E776" s="5"/>
+      <c r="D776" s="10"/>
+      <c r="E776" s="10"/>
     </row>
     <row r="777">
-      <c r="D777" s="5"/>
-      <c r="E777" s="5"/>
+      <c r="D777" s="10"/>
+      <c r="E777" s="10"/>
     </row>
     <row r="778">
-      <c r="D778" s="5"/>
-      <c r="E778" s="5"/>
+      <c r="D778" s="10"/>
+      <c r="E778" s="10"/>
     </row>
     <row r="779">
-      <c r="D779" s="5"/>
-      <c r="E779" s="5"/>
+      <c r="D779" s="10"/>
+      <c r="E779" s="10"/>
     </row>
     <row r="780">
-      <c r="D780" s="5"/>
-      <c r="E780" s="5"/>
+      <c r="D780" s="10"/>
+      <c r="E780" s="10"/>
     </row>
     <row r="781">
-      <c r="D781" s="5"/>
-      <c r="E781" s="5"/>
+      <c r="D781" s="10"/>
+      <c r="E781" s="10"/>
     </row>
     <row r="782">
-      <c r="D782" s="5"/>
-      <c r="E782" s="5"/>
+      <c r="D782" s="10"/>
+      <c r="E782" s="10"/>
     </row>
     <row r="783">
-      <c r="D783" s="5"/>
-      <c r="E783" s="5"/>
+      <c r="D783" s="10"/>
+      <c r="E783" s="10"/>
     </row>
     <row r="784">
-      <c r="D784" s="5"/>
-      <c r="E784" s="5"/>
+      <c r="D784" s="10"/>
+      <c r="E784" s="10"/>
     </row>
     <row r="785">
-      <c r="D785" s="5"/>
-      <c r="E785" s="5"/>
+      <c r="D785" s="10"/>
+      <c r="E785" s="10"/>
     </row>
     <row r="786">
-      <c r="D786" s="5"/>
-      <c r="E786" s="5"/>
+      <c r="D786" s="10"/>
+      <c r="E786" s="10"/>
     </row>
     <row r="787">
-      <c r="D787" s="5"/>
-      <c r="E787" s="5"/>
+      <c r="D787" s="10"/>
+      <c r="E787" s="10"/>
     </row>
     <row r="788">
-      <c r="D788" s="5"/>
-      <c r="E788" s="5"/>
+      <c r="D788" s="10"/>
+      <c r="E788" s="10"/>
     </row>
     <row r="789">
-      <c r="D789" s="5"/>
-      <c r="E789" s="5"/>
+      <c r="D789" s="10"/>
+      <c r="E789" s="10"/>
     </row>
     <row r="790">
-      <c r="D790" s="5"/>
-      <c r="E790" s="5"/>
+      <c r="D790" s="10"/>
+      <c r="E790" s="10"/>
     </row>
     <row r="791">
-      <c r="D791" s="5"/>
-      <c r="E791" s="5"/>
+      <c r="D791" s="10"/>
+      <c r="E791" s="10"/>
     </row>
     <row r="792">
-      <c r="D792" s="5"/>
-      <c r="E792" s="5"/>
+      <c r="D792" s="10"/>
+      <c r="E792" s="10"/>
     </row>
     <row r="793">
-      <c r="D793" s="5"/>
-      <c r="E793" s="5"/>
+      <c r="D793" s="10"/>
+      <c r="E793" s="10"/>
     </row>
     <row r="794">
-      <c r="D794" s="5"/>
-      <c r="E794" s="5"/>
+      <c r="D794" s="10"/>
+      <c r="E794" s="10"/>
     </row>
     <row r="795">
-      <c r="D795" s="5"/>
-      <c r="E795" s="5"/>
+      <c r="D795" s="10"/>
+      <c r="E795" s="10"/>
     </row>
     <row r="796">
-      <c r="D796" s="5"/>
-      <c r="E796" s="5"/>
+      <c r="D796" s="10"/>
+      <c r="E796" s="10"/>
     </row>
     <row r="797">
-      <c r="D797" s="5"/>
-      <c r="E797" s="5"/>
+      <c r="D797" s="10"/>
+      <c r="E797" s="10"/>
     </row>
     <row r="798">
-      <c r="D798" s="5"/>
-      <c r="E798" s="5"/>
+      <c r="D798" s="10"/>
+      <c r="E798" s="10"/>
     </row>
     <row r="799">
-      <c r="D799" s="5"/>
-      <c r="E799" s="5"/>
+      <c r="D799" s="10"/>
+      <c r="E799" s="10"/>
     </row>
     <row r="800">
-      <c r="D800" s="5"/>
-      <c r="E800" s="5"/>
+      <c r="D800" s="10"/>
+      <c r="E800" s="10"/>
     </row>
     <row r="801">
-      <c r="D801" s="5"/>
-      <c r="E801" s="5"/>
+      <c r="D801" s="10"/>
+      <c r="E801" s="10"/>
     </row>
     <row r="802">
-      <c r="D802" s="5"/>
-      <c r="E802" s="5"/>
+      <c r="D802" s="10"/>
+      <c r="E802" s="10"/>
     </row>
     <row r="803">
-      <c r="D803" s="5"/>
-      <c r="E803" s="5"/>
+      <c r="D803" s="10"/>
+      <c r="E803" s="10"/>
     </row>
     <row r="804">
-      <c r="D804" s="5"/>
-      <c r="E804" s="5"/>
+      <c r="D804" s="10"/>
+      <c r="E804" s="10"/>
     </row>
     <row r="805">
-      <c r="D805" s="5"/>
-      <c r="E805" s="5"/>
+      <c r="D805" s="10"/>
+      <c r="E805" s="10"/>
     </row>
     <row r="806">
-      <c r="D806" s="5"/>
-      <c r="E806" s="5"/>
+      <c r="D806" s="10"/>
+      <c r="E806" s="10"/>
     </row>
     <row r="807">
-      <c r="D807" s="5"/>
-      <c r="E807" s="5"/>
+      <c r="D807" s="10"/>
+      <c r="E807" s="10"/>
     </row>
     <row r="808">
-      <c r="D808" s="5"/>
-      <c r="E808" s="5"/>
+      <c r="D808" s="10"/>
+      <c r="E808" s="10"/>
     </row>
     <row r="809">
-      <c r="D809" s="5"/>
-      <c r="E809" s="5"/>
+      <c r="D809" s="10"/>
+      <c r="E809" s="10"/>
     </row>
     <row r="810">
-      <c r="D810" s="5"/>
-      <c r="E810" s="5"/>
+      <c r="D810" s="10"/>
+      <c r="E810" s="10"/>
     </row>
     <row r="811">
-      <c r="D811" s="5"/>
-      <c r="E811" s="5"/>
+      <c r="D811" s="10"/>
+      <c r="E811" s="10"/>
     </row>
     <row r="812">
-      <c r="D812" s="5"/>
-      <c r="E812" s="5"/>
+      <c r="D812" s="10"/>
+      <c r="E812" s="10"/>
     </row>
     <row r="813">
-      <c r="D813" s="5"/>
-      <c r="E813" s="5"/>
+      <c r="D813" s="10"/>
+      <c r="E813" s="10"/>
     </row>
     <row r="814">
-      <c r="D814" s="5"/>
-      <c r="E814" s="5"/>
+      <c r="D814" s="10"/>
+      <c r="E814" s="10"/>
     </row>
     <row r="815">
-      <c r="D815" s="5"/>
-      <c r="E815" s="5"/>
+      <c r="D815" s="10"/>
+      <c r="E815" s="10"/>
     </row>
     <row r="816">
-      <c r="D816" s="5"/>
-      <c r="E816" s="5"/>
+      <c r="D816" s="10"/>
+      <c r="E816" s="10"/>
     </row>
     <row r="817">
-      <c r="D817" s="5"/>
-      <c r="E817" s="5"/>
+      <c r="D817" s="10"/>
+      <c r="E817" s="10"/>
     </row>
     <row r="818">
-      <c r="D818" s="5"/>
-      <c r="E818" s="5"/>
+      <c r="D818" s="10"/>
+      <c r="E818" s="10"/>
     </row>
     <row r="819">
-      <c r="D819" s="5"/>
-      <c r="E819" s="5"/>
+      <c r="D819" s="10"/>
+      <c r="E819" s="10"/>
     </row>
     <row r="820">
-      <c r="D820" s="5"/>
-      <c r="E820" s="5"/>
+      <c r="D820" s="10"/>
+      <c r="E820" s="10"/>
     </row>
     <row r="821">
-      <c r="D821" s="5"/>
-      <c r="E821" s="5"/>
+      <c r="D821" s="10"/>
+      <c r="E821" s="10"/>
     </row>
     <row r="822">
-      <c r="D822" s="5"/>
-      <c r="E822" s="5"/>
+      <c r="D822" s="10"/>
+      <c r="E822" s="10"/>
     </row>
     <row r="823">
-      <c r="D823" s="5"/>
-      <c r="E823" s="5"/>
+      <c r="D823" s="10"/>
+      <c r="E823" s="10"/>
     </row>
     <row r="824">
-      <c r="D824" s="5"/>
-      <c r="E824" s="5"/>
+      <c r="D824" s="10"/>
+      <c r="E824" s="10"/>
     </row>
     <row r="825">
-      <c r="D825" s="5"/>
-      <c r="E825" s="5"/>
+      <c r="D825" s="10"/>
+      <c r="E825" s="10"/>
     </row>
     <row r="826">
-      <c r="D826" s="5"/>
-      <c r="E826" s="5"/>
+      <c r="D826" s="10"/>
+      <c r="E826" s="10"/>
     </row>
     <row r="827">
-      <c r="D827" s="5"/>
-      <c r="E827" s="5"/>
+      <c r="D827" s="10"/>
+      <c r="E827" s="10"/>
     </row>
     <row r="828">
-      <c r="D828" s="5"/>
-      <c r="E828" s="5"/>
+      <c r="D828" s="10"/>
+      <c r="E828" s="10"/>
     </row>
     <row r="829">
-      <c r="D829" s="5"/>
-      <c r="E829" s="5"/>
+      <c r="D829" s="10"/>
+      <c r="E829" s="10"/>
     </row>
     <row r="830">
-      <c r="D830" s="5"/>
-      <c r="E830" s="5"/>
+      <c r="D830" s="10"/>
+      <c r="E830" s="10"/>
     </row>
     <row r="831">
-      <c r="D831" s="5"/>
-      <c r="E831" s="5"/>
+      <c r="D831" s="10"/>
+      <c r="E831" s="10"/>
     </row>
     <row r="832">
-      <c r="D832" s="5"/>
-      <c r="E832" s="5"/>
+      <c r="D832" s="10"/>
+      <c r="E832" s="10"/>
     </row>
     <row r="833">
-      <c r="D833" s="5"/>
-      <c r="E833" s="5"/>
+      <c r="D833" s="10"/>
+      <c r="E833" s="10"/>
     </row>
     <row r="834">
-      <c r="D834" s="5"/>
-      <c r="E834" s="5"/>
+      <c r="D834" s="10"/>
+      <c r="E834" s="10"/>
     </row>
     <row r="835">
-      <c r="D835" s="5"/>
-      <c r="E835" s="5"/>
+      <c r="D835" s="10"/>
+      <c r="E835" s="10"/>
     </row>
     <row r="836">
-      <c r="D836" s="5"/>
-      <c r="E836" s="5"/>
+      <c r="D836" s="10"/>
+      <c r="E836" s="10"/>
     </row>
     <row r="837">
-      <c r="D837" s="5"/>
-      <c r="E837" s="5"/>
+      <c r="D837" s="10"/>
+      <c r="E837" s="10"/>
     </row>
     <row r="838">
-      <c r="D838" s="5"/>
-      <c r="E838" s="5"/>
+      <c r="D838" s="10"/>
+      <c r="E838" s="10"/>
     </row>
     <row r="839">
-      <c r="D839" s="5"/>
-      <c r="E839" s="5"/>
+      <c r="D839" s="10"/>
+      <c r="E839" s="10"/>
     </row>
     <row r="840">
-      <c r="D840" s="5"/>
-      <c r="E840" s="5"/>
+      <c r="D840" s="10"/>
+      <c r="E840" s="10"/>
     </row>
     <row r="841">
-      <c r="D841" s="5"/>
-      <c r="E841" s="5"/>
+      <c r="D841" s="10"/>
+      <c r="E841" s="10"/>
     </row>
     <row r="842">
-      <c r="D842" s="5"/>
-      <c r="E842" s="5"/>
+      <c r="D842" s="10"/>
+      <c r="E842" s="10"/>
     </row>
     <row r="843">
-      <c r="D843" s="5"/>
-      <c r="E843" s="5"/>
+      <c r="D843" s="10"/>
+      <c r="E843" s="10"/>
     </row>
     <row r="844">
-      <c r="D844" s="5"/>
-      <c r="E844" s="5"/>
+      <c r="D844" s="10"/>
+      <c r="E844" s="10"/>
     </row>
     <row r="845">
-      <c r="D845" s="5"/>
-      <c r="E845" s="5"/>
+      <c r="D845" s="10"/>
+      <c r="E845" s="10"/>
     </row>
     <row r="846">
-      <c r="D846" s="5"/>
-      <c r="E846" s="5"/>
+      <c r="D846" s="10"/>
+      <c r="E846" s="10"/>
     </row>
     <row r="847">
-      <c r="D847" s="5"/>
-      <c r="E847" s="5"/>
+      <c r="D847" s="10"/>
+      <c r="E847" s="10"/>
     </row>
     <row r="848">
-      <c r="D848" s="5"/>
-      <c r="E848" s="5"/>
+      <c r="D848" s="10"/>
+      <c r="E848" s="10"/>
     </row>
     <row r="849">
-      <c r="D849" s="5"/>
-      <c r="E849" s="5"/>
+      <c r="D849" s="10"/>
+      <c r="E849" s="10"/>
     </row>
     <row r="850">
-      <c r="D850" s="5"/>
-      <c r="E850" s="5"/>
+      <c r="D850" s="10"/>
+      <c r="E850" s="10"/>
     </row>
     <row r="851">
-      <c r="D851" s="5"/>
-      <c r="E851" s="5"/>
+      <c r="D851" s="10"/>
+      <c r="E851" s="10"/>
     </row>
     <row r="852">
-      <c r="D852" s="5"/>
-      <c r="E852" s="5"/>
+      <c r="D852" s="10"/>
+      <c r="E852" s="10"/>
     </row>
     <row r="853">
-      <c r="D853" s="5"/>
-      <c r="E853" s="5"/>
+      <c r="D853" s="10"/>
+      <c r="E853" s="10"/>
     </row>
     <row r="854">
-      <c r="D854" s="5"/>
-      <c r="E854" s="5"/>
+      <c r="D854" s="10"/>
+      <c r="E854" s="10"/>
     </row>
     <row r="855">
-      <c r="D855" s="5"/>
-      <c r="E855" s="5"/>
+      <c r="D855" s="10"/>
+      <c r="E855" s="10"/>
     </row>
     <row r="856">
-      <c r="D856" s="5"/>
-      <c r="E856" s="5"/>
+      <c r="D856" s="10"/>
+      <c r="E856" s="10"/>
     </row>
     <row r="857">
-      <c r="D857" s="5"/>
-      <c r="E857" s="5"/>
+      <c r="D857" s="10"/>
+      <c r="E857" s="10"/>
     </row>
     <row r="858">
-      <c r="D858" s="5"/>
-      <c r="E858" s="5"/>
+      <c r="D858" s="10"/>
+      <c r="E858" s="10"/>
     </row>
     <row r="859">
-      <c r="D859" s="5"/>
-      <c r="E859" s="5"/>
+      <c r="D859" s="10"/>
+      <c r="E859" s="10"/>
     </row>
     <row r="860">
-      <c r="D860" s="5"/>
-      <c r="E860" s="5"/>
+      <c r="D860" s="10"/>
+      <c r="E860" s="10"/>
     </row>
     <row r="861">
-      <c r="D861" s="5"/>
-      <c r="E861" s="5"/>
+      <c r="D861" s="10"/>
+      <c r="E861" s="10"/>
     </row>
     <row r="862">
-      <c r="D862" s="5"/>
-      <c r="E862" s="5"/>
+      <c r="D862" s="10"/>
+      <c r="E862" s="10"/>
     </row>
     <row r="863">
-      <c r="D863" s="5"/>
-      <c r="E863" s="5"/>
+      <c r="D863" s="10"/>
+      <c r="E863" s="10"/>
     </row>
     <row r="864">
-      <c r="D864" s="5"/>
-      <c r="E864" s="5"/>
+      <c r="D864" s="10"/>
+      <c r="E864" s="10"/>
     </row>
     <row r="865">
-      <c r="D865" s="5"/>
-      <c r="E865" s="5"/>
+      <c r="D865" s="10"/>
+      <c r="E865" s="10"/>
     </row>
     <row r="866">
-      <c r="D866" s="5"/>
-      <c r="E866" s="5"/>
+      <c r="D866" s="10"/>
+      <c r="E866" s="10"/>
     </row>
     <row r="867">
-      <c r="D867" s="5"/>
-      <c r="E867" s="5"/>
+      <c r="D867" s="10"/>
+      <c r="E867" s="10"/>
     </row>
     <row r="868">
-      <c r="D868" s="5"/>
-      <c r="E868" s="5"/>
+      <c r="D868" s="10"/>
+      <c r="E868" s="10"/>
     </row>
     <row r="869">
-      <c r="D869" s="5"/>
-      <c r="E869" s="5"/>
+      <c r="D869" s="10"/>
+      <c r="E869" s="10"/>
     </row>
     <row r="870">
-      <c r="D870" s="5"/>
-      <c r="E870" s="5"/>
+      <c r="D870" s="10"/>
+      <c r="E870" s="10"/>
     </row>
     <row r="871">
-      <c r="D871" s="5"/>
-      <c r="E871" s="5"/>
+      <c r="D871" s="10"/>
+      <c r="E871" s="10"/>
     </row>
     <row r="872">
-      <c r="D872" s="5"/>
-      <c r="E872" s="5"/>
+      <c r="D872" s="10"/>
+      <c r="E872" s="10"/>
     </row>
     <row r="873">
-      <c r="D873" s="5"/>
-      <c r="E873" s="5"/>
+      <c r="D873" s="10"/>
+      <c r="E873" s="10"/>
     </row>
     <row r="874">
-      <c r="D874" s="5"/>
-      <c r="E874" s="5"/>
+      <c r="D874" s="10"/>
+      <c r="E874" s="10"/>
     </row>
     <row r="875">
-      <c r="D875" s="5"/>
-      <c r="E875" s="5"/>
+      <c r="D875" s="10"/>
+      <c r="E875" s="10"/>
     </row>
     <row r="876">
-      <c r="D876" s="5"/>
-      <c r="E876" s="5"/>
+      <c r="D876" s="10"/>
+      <c r="E876" s="10"/>
     </row>
     <row r="877">
-      <c r="D877" s="5"/>
-      <c r="E877" s="5"/>
+      <c r="D877" s="10"/>
+      <c r="E877" s="10"/>
     </row>
     <row r="878">
-      <c r="D878" s="5"/>
-      <c r="E878" s="5"/>
+      <c r="D878" s="10"/>
+      <c r="E878" s="10"/>
     </row>
     <row r="879">
-      <c r="D879" s="5"/>
-      <c r="E879" s="5"/>
+      <c r="D879" s="10"/>
+      <c r="E879" s="10"/>
     </row>
     <row r="880">
-      <c r="D880" s="5"/>
-      <c r="E880" s="5"/>
+      <c r="D880" s="10"/>
+      <c r="E880" s="10"/>
     </row>
     <row r="881">
-      <c r="D881" s="5"/>
-      <c r="E881" s="5"/>
+      <c r="D881" s="10"/>
+      <c r="E881" s="10"/>
     </row>
     <row r="882">
-      <c r="D882" s="5"/>
-      <c r="E882" s="5"/>
+      <c r="D882" s="10"/>
+      <c r="E882" s="10"/>
     </row>
     <row r="883">
-      <c r="D883" s="5"/>
-      <c r="E883" s="5"/>
+      <c r="D883" s="10"/>
+      <c r="E883" s="10"/>
     </row>
     <row r="884">
-      <c r="D884" s="5"/>
-      <c r="E884" s="5"/>
+      <c r="D884" s="10"/>
+      <c r="E884" s="10"/>
     </row>
     <row r="885">
-      <c r="D885" s="5"/>
-      <c r="E885" s="5"/>
+      <c r="D885" s="10"/>
+      <c r="E885" s="10"/>
     </row>
     <row r="886">
-      <c r="D886" s="5"/>
-      <c r="E886" s="5"/>
+      <c r="D886" s="10"/>
+      <c r="E886" s="10"/>
     </row>
     <row r="887">
-      <c r="D887" s="5"/>
-      <c r="E887" s="5"/>
+      <c r="D887" s="10"/>
+      <c r="E887" s="10"/>
     </row>
     <row r="888">
-      <c r="D888" s="5"/>
-      <c r="E888" s="5"/>
+      <c r="D888" s="10"/>
+      <c r="E888" s="10"/>
     </row>
     <row r="889">
-      <c r="D889" s="5"/>
-      <c r="E889" s="5"/>
+      <c r="D889" s="10"/>
+      <c r="E889" s="10"/>
     </row>
     <row r="890">
-      <c r="D890" s="5"/>
-      <c r="E890" s="5"/>
+      <c r="D890" s="10"/>
+      <c r="E890" s="10"/>
     </row>
     <row r="891">
-      <c r="D891" s="5"/>
-      <c r="E891" s="5"/>
+      <c r="D891" s="10"/>
+      <c r="E891" s="10"/>
     </row>
     <row r="892">
-      <c r="D892" s="5"/>
-      <c r="E892" s="5"/>
+      <c r="D892" s="10"/>
+      <c r="E892" s="10"/>
     </row>
     <row r="893">
-      <c r="D893" s="5"/>
-      <c r="E893" s="5"/>
+      <c r="D893" s="10"/>
+      <c r="E893" s="10"/>
     </row>
     <row r="894">
-      <c r="D894" s="5"/>
-      <c r="E894" s="5"/>
+      <c r="D894" s="10"/>
+      <c r="E894" s="10"/>
     </row>
     <row r="895">
-      <c r="D895" s="5"/>
-      <c r="E895" s="5"/>
+      <c r="D895" s="10"/>
+      <c r="E895" s="10"/>
     </row>
     <row r="896">
-      <c r="D896" s="5"/>
-      <c r="E896" s="5"/>
+      <c r="D896" s="10"/>
+      <c r="E896" s="10"/>
     </row>
     <row r="897">
-      <c r="D897" s="5"/>
-      <c r="E897" s="5"/>
+      <c r="D897" s="10"/>
+      <c r="E897" s="10"/>
     </row>
     <row r="898">
-      <c r="D898" s="5"/>
-      <c r="E898" s="5"/>
+      <c r="D898" s="10"/>
+      <c r="E898" s="10"/>
     </row>
     <row r="899">
-      <c r="D899" s="5"/>
-      <c r="E899" s="5"/>
+      <c r="D899" s="10"/>
+      <c r="E899" s="10"/>
     </row>
     <row r="900">
-      <c r="D900" s="5"/>
-      <c r="E900" s="5"/>
+      <c r="D900" s="10"/>
+      <c r="E900" s="10"/>
     </row>
     <row r="901">
-      <c r="D901" s="5"/>
-      <c r="E901" s="5"/>
+      <c r="D901" s="10"/>
+      <c r="E901" s="10"/>
     </row>
     <row r="902">
-      <c r="D902" s="5"/>
-      <c r="E902" s="5"/>
+      <c r="D902" s="10"/>
+      <c r="E902" s="10"/>
     </row>
     <row r="903">
-      <c r="D903" s="5"/>
-      <c r="E903" s="5"/>
+      <c r="D903" s="10"/>
+      <c r="E903" s="10"/>
     </row>
     <row r="904">
-      <c r="D904" s="5"/>
-      <c r="E904" s="5"/>
+      <c r="D904" s="10"/>
+      <c r="E904" s="10"/>
     </row>
     <row r="905">
-      <c r="D905" s="5"/>
-      <c r="E905" s="5"/>
+      <c r="D905" s="10"/>
+      <c r="E905" s="10"/>
     </row>
     <row r="906">
-      <c r="D906" s="5"/>
-      <c r="E906" s="5"/>
+      <c r="D906" s="10"/>
+      <c r="E906" s="10"/>
     </row>
     <row r="907">
-      <c r="D907" s="5"/>
-      <c r="E907" s="5"/>
+      <c r="D907" s="10"/>
+      <c r="E907" s="10"/>
     </row>
     <row r="908">
-      <c r="D908" s="5"/>
-      <c r="E908" s="5"/>
+      <c r="D908" s="10"/>
+      <c r="E908" s="10"/>
     </row>
     <row r="909">
-      <c r="D909" s="5"/>
-      <c r="E909" s="5"/>
+      <c r="D909" s="10"/>
+      <c r="E909" s="10"/>
     </row>
     <row r="910">
-      <c r="D910" s="5"/>
-      <c r="E910" s="5"/>
+      <c r="D910" s="10"/>
+      <c r="E910" s="10"/>
     </row>
     <row r="911">
-      <c r="D911" s="5"/>
-      <c r="E911" s="5"/>
+      <c r="D911" s="10"/>
+      <c r="E911" s="10"/>
     </row>
     <row r="912">
-      <c r="D912" s="5"/>
-      <c r="E912" s="5"/>
+      <c r="D912" s="10"/>
+      <c r="E912" s="10"/>
     </row>
     <row r="913">
-      <c r="D913" s="5"/>
-      <c r="E913" s="5"/>
+      <c r="D913" s="10"/>
+      <c r="E913" s="10"/>
     </row>
     <row r="914">
-      <c r="D914" s="5"/>
-      <c r="E914" s="5"/>
+      <c r="D914" s="10"/>
+      <c r="E914" s="10"/>
     </row>
     <row r="915">
-      <c r="D915" s="5"/>
-      <c r="E915" s="5"/>
+      <c r="D915" s="10"/>
+      <c r="E915" s="10"/>
     </row>
     <row r="916">
-      <c r="D916" s="5"/>
-      <c r="E916" s="5"/>
+      <c r="D916" s="10"/>
+      <c r="E916" s="10"/>
     </row>
     <row r="917">
-      <c r="D917" s="5"/>
-      <c r="E917" s="5"/>
+      <c r="D917" s="10"/>
+      <c r="E917" s="10"/>
     </row>
     <row r="918">
-      <c r="D918" s="5"/>
-      <c r="E918" s="5"/>
+      <c r="D918" s="10"/>
+      <c r="E918" s="10"/>
     </row>
     <row r="919">
-      <c r="D919" s="5"/>
-      <c r="E919" s="5"/>
+      <c r="D919" s="10"/>
+      <c r="E919" s="10"/>
     </row>
     <row r="920">
-      <c r="D920" s="5"/>
-      <c r="E920" s="5"/>
+      <c r="D920" s="10"/>
+      <c r="E920" s="10"/>
     </row>
     <row r="921">
-      <c r="D921" s="5"/>
-      <c r="E921" s="5"/>
+      <c r="D921" s="10"/>
+      <c r="E921" s="10"/>
     </row>
     <row r="922">
-      <c r="D922" s="5"/>
-      <c r="E922" s="5"/>
+      <c r="D922" s="10"/>
+      <c r="E922" s="10"/>
     </row>
     <row r="923">
-      <c r="D923" s="5"/>
-      <c r="E923" s="5"/>
+      <c r="D923" s="10"/>
+      <c r="E923" s="10"/>
     </row>
     <row r="924">
-      <c r="D924" s="5"/>
-      <c r="E924" s="5"/>
+      <c r="D924" s="10"/>
+      <c r="E924" s="10"/>
     </row>
     <row r="925">
-      <c r="D925" s="5"/>
-      <c r="E925" s="5"/>
+      <c r="D925" s="10"/>
+      <c r="E925" s="10"/>
     </row>
     <row r="926">
-      <c r="D926" s="5"/>
-      <c r="E926" s="5"/>
+      <c r="D926" s="10"/>
+      <c r="E926" s="10"/>
     </row>
     <row r="927">
-      <c r="D927" s="5"/>
-      <c r="E927" s="5"/>
+      <c r="D927" s="10"/>
+      <c r="E927" s="10"/>
     </row>
     <row r="928">
-      <c r="D928" s="5"/>
-      <c r="E928" s="5"/>
+      <c r="D928" s="10"/>
+      <c r="E928" s="10"/>
     </row>
     <row r="929">
-      <c r="D929" s="5"/>
-      <c r="E929" s="5"/>
+      <c r="D929" s="10"/>
+      <c r="E929" s="10"/>
     </row>
     <row r="930">
-      <c r="D930" s="5"/>
-      <c r="E930" s="5"/>
+      <c r="D930" s="10"/>
+      <c r="E930" s="10"/>
     </row>
     <row r="931">
-      <c r="D931" s="5"/>
-      <c r="E931" s="5"/>
+      <c r="D931" s="10"/>
+      <c r="E931" s="10"/>
     </row>
     <row r="932">
-      <c r="D932" s="5"/>
-      <c r="E932" s="5"/>
+      <c r="D932" s="10"/>
+      <c r="E932" s="10"/>
     </row>
     <row r="933">
-      <c r="D933" s="5"/>
-      <c r="E933" s="5"/>
+      <c r="D933" s="10"/>
+      <c r="E933" s="10"/>
     </row>
     <row r="934">
-      <c r="D934" s="5"/>
-      <c r="E934" s="5"/>
+      <c r="D934" s="10"/>
+      <c r="E934" s="10"/>
     </row>
     <row r="935">
-      <c r="D935" s="5"/>
-      <c r="E935" s="5"/>
+      <c r="D935" s="10"/>
+      <c r="E935" s="10"/>
     </row>
     <row r="936">
-      <c r="D936" s="5"/>
-      <c r="E936" s="5"/>
+      <c r="D936" s="10"/>
+      <c r="E936" s="10"/>
     </row>
     <row r="937">
-      <c r="D937" s="5"/>
-      <c r="E937" s="5"/>
+      <c r="D937" s="10"/>
+      <c r="E937" s="10"/>
     </row>
     <row r="938">
-      <c r="D938" s="5"/>
-      <c r="E938" s="5"/>
+      <c r="D938" s="10"/>
+      <c r="E938" s="10"/>
     </row>
     <row r="939">
-      <c r="D939" s="5"/>
-      <c r="E939" s="5"/>
+      <c r="D939" s="10"/>
+      <c r="E939" s="10"/>
     </row>
     <row r="940">
-      <c r="D940" s="5"/>
-      <c r="E940" s="5"/>
+      <c r="D940" s="10"/>
+      <c r="E940" s="10"/>
     </row>
     <row r="941">
-      <c r="D941" s="5"/>
-      <c r="E941" s="5"/>
+      <c r="D941" s="10"/>
+      <c r="E941" s="10"/>
     </row>
     <row r="942">
-      <c r="D942" s="5"/>
-      <c r="E942" s="5"/>
+      <c r="D942" s="10"/>
+      <c r="E942" s="10"/>
     </row>
     <row r="943">
-      <c r="D943" s="5"/>
-      <c r="E943" s="5"/>
+      <c r="D943" s="10"/>
+      <c r="E943" s="10"/>
     </row>
     <row r="944">
-      <c r="D944" s="5"/>
-      <c r="E944" s="5"/>
+      <c r="D944" s="10"/>
+      <c r="E944" s="10"/>
     </row>
     <row r="945">
-      <c r="D945" s="5"/>
-      <c r="E945" s="5"/>
+      <c r="D945" s="10"/>
+      <c r="E945" s="10"/>
     </row>
     <row r="946">
-      <c r="D946" s="5"/>
-      <c r="E946" s="5"/>
+      <c r="D946" s="10"/>
+      <c r="E946" s="10"/>
     </row>
     <row r="947">
-      <c r="D947" s="5"/>
-      <c r="E947" s="5"/>
+      <c r="D947" s="10"/>
+      <c r="E947" s="10"/>
     </row>
     <row r="948">
-      <c r="D948" s="5"/>
-      <c r="E948" s="5"/>
+      <c r="D948" s="10"/>
+      <c r="E948" s="10"/>
     </row>
     <row r="949">
-      <c r="D949" s="5"/>
-      <c r="E949" s="5"/>
+      <c r="D949" s="10"/>
+      <c r="E949" s="10"/>
     </row>
     <row r="950">
-      <c r="D950" s="5"/>
-      <c r="E950" s="5"/>
+      <c r="D950" s="10"/>
+      <c r="E950" s="10"/>
     </row>
     <row r="951">
-      <c r="D951" s="5"/>
-      <c r="E951" s="5"/>
+      <c r="D951" s="10"/>
+      <c r="E951" s="10"/>
     </row>
     <row r="952">
-      <c r="D952" s="5"/>
-      <c r="E952" s="5"/>
+      <c r="D952" s="10"/>
+      <c r="E952" s="10"/>
     </row>
     <row r="953">
-      <c r="D953" s="5"/>
-      <c r="E953" s="5"/>
+      <c r="D953" s="10"/>
+      <c r="E953" s="10"/>
     </row>
     <row r="954">
-      <c r="D954" s="5"/>
-      <c r="E954" s="5"/>
+      <c r="D954" s="10"/>
+      <c r="E954" s="10"/>
     </row>
     <row r="955">
-      <c r="D955" s="5"/>
-      <c r="E955" s="5"/>
+      <c r="D955" s="10"/>
+      <c r="E955" s="10"/>
     </row>
     <row r="956">
-      <c r="D956" s="5"/>
-      <c r="E956" s="5"/>
+      <c r="D956" s="10"/>
+      <c r="E956" s="10"/>
     </row>
     <row r="957">
-      <c r="D957" s="5"/>
-      <c r="E957" s="5"/>
+      <c r="D957" s="10"/>
+      <c r="E957" s="10"/>
     </row>
     <row r="958">
-      <c r="D958" s="5"/>
-      <c r="E958" s="5"/>
+      <c r="D958" s="10"/>
+      <c r="E958" s="10"/>
     </row>
     <row r="959">
-      <c r="D959" s="5"/>
-      <c r="E959" s="5"/>
+      <c r="D959" s="10"/>
+      <c r="E959" s="10"/>
     </row>
     <row r="960">
-      <c r="D960" s="5"/>
-      <c r="E960" s="5"/>
+      <c r="D960" s="10"/>
+      <c r="E960" s="10"/>
     </row>
     <row r="961">
-      <c r="D961" s="5"/>
-      <c r="E961" s="5"/>
+      <c r="D961" s="10"/>
+      <c r="E961" s="10"/>
     </row>
     <row r="962">
-      <c r="D962" s="5"/>
-      <c r="E962" s="5"/>
+      <c r="D962" s="10"/>
+      <c r="E962" s="10"/>
     </row>
     <row r="963">
-      <c r="D963" s="5"/>
-      <c r="E963" s="5"/>
+      <c r="D963" s="10"/>
+      <c r="E963" s="10"/>
     </row>
     <row r="964">
-      <c r="D964" s="5"/>
-      <c r="E964" s="5"/>
+      <c r="D964" s="10"/>
+      <c r="E964" s="10"/>
     </row>
     <row r="965">
-      <c r="D965" s="5"/>
-      <c r="E965" s="5"/>
+      <c r="D965" s="10"/>
+      <c r="E965" s="10"/>
     </row>
     <row r="966">
-      <c r="D966" s="5"/>
-      <c r="E966" s="5"/>
+      <c r="D966" s="10"/>
+      <c r="E966" s="10"/>
     </row>
     <row r="967">
-      <c r="D967" s="5"/>
-      <c r="E967" s="5"/>
+      <c r="D967" s="10"/>
+      <c r="E967" s="10"/>
     </row>
     <row r="968">
-      <c r="D968" s="5"/>
-      <c r="E968" s="5"/>
+      <c r="D968" s="10"/>
+      <c r="E968" s="10"/>
     </row>
     <row r="969">
-      <c r="D969" s="5"/>
-      <c r="E969" s="5"/>
+      <c r="D969" s="10"/>
+      <c r="E969" s="10"/>
     </row>
     <row r="970">
-      <c r="D970" s="5"/>
-      <c r="E970" s="5"/>
+      <c r="D970" s="10"/>
+      <c r="E970" s="10"/>
     </row>
     <row r="971">
-      <c r="D971" s="5"/>
-      <c r="E971" s="5"/>
+      <c r="D971" s="10"/>
+      <c r="E971" s="10"/>
     </row>
     <row r="972">
-      <c r="D972" s="5"/>
-      <c r="E972" s="5"/>
+      <c r="D972" s="10"/>
+      <c r="E972" s="10"/>
     </row>
     <row r="973">
-      <c r="D973" s="5"/>
-      <c r="E973" s="5"/>
+      <c r="D973" s="10"/>
+      <c r="E973" s="10"/>
     </row>
     <row r="974">
-      <c r="D974" s="5"/>
-      <c r="E974" s="5"/>
+      <c r="D974" s="10"/>
+      <c r="E974" s="10"/>
     </row>
     <row r="975">
-      <c r="D975" s="5"/>
-      <c r="E975" s="5"/>
+      <c r="D975" s="10"/>
+      <c r="E975" s="10"/>
     </row>
     <row r="976">
-      <c r="D976" s="5"/>
-      <c r="E976" s="5"/>
+      <c r="D976" s="10"/>
+      <c r="E976" s="10"/>
     </row>
     <row r="977">
-      <c r="D977" s="5"/>
-      <c r="E977" s="5"/>
+      <c r="D977" s="10"/>
+      <c r="E977" s="10"/>
     </row>
     <row r="978">
-      <c r="D978" s="5"/>
-      <c r="E978" s="5"/>
+      <c r="D978" s="10"/>
+      <c r="E978" s="10"/>
     </row>
     <row r="979">
-      <c r="D979" s="5"/>
-      <c r="E979" s="5"/>
+      <c r="D979" s="10"/>
+      <c r="E979" s="10"/>
     </row>
     <row r="980">
-      <c r="D980" s="5"/>
-      <c r="E980" s="5"/>
+      <c r="D980" s="10"/>
+      <c r="E980" s="10"/>
     </row>
     <row r="981">
-      <c r="D981" s="5"/>
-      <c r="E981" s="5"/>
+      <c r="D981" s="10"/>
+      <c r="E981" s="10"/>
     </row>
     <row r="982">
-      <c r="D982" s="5"/>
-      <c r="E982" s="5"/>
+      <c r="D982" s="10"/>
+      <c r="E982" s="10"/>
     </row>
     <row r="983">
-      <c r="D983" s="5"/>
-      <c r="E983" s="5"/>
+      <c r="D983" s="10"/>
+      <c r="E983" s="10"/>
     </row>
     <row r="984">
-      <c r="D984" s="5"/>
-      <c r="E984" s="5"/>
+      <c r="D984" s="10"/>
+      <c r="E984" s="10"/>
     </row>
     <row r="985">
-      <c r="D985" s="5"/>
-      <c r="E985" s="5"/>
+      <c r="D985" s="10"/>
+      <c r="E985" s="10"/>
     </row>
     <row r="986">
-      <c r="D986" s="5"/>
-      <c r="E986" s="5"/>
+      <c r="D986" s="10"/>
+      <c r="E986" s="10"/>
     </row>
     <row r="987">
-      <c r="D987" s="5"/>
-      <c r="E987" s="5"/>
+      <c r="D987" s="10"/>
+      <c r="E987" s="10"/>
     </row>
     <row r="988">
-      <c r="D988" s="5"/>
-      <c r="E988" s="5"/>
+      <c r="D988" s="10"/>
+      <c r="E988" s="10"/>
     </row>
     <row r="989">
-      <c r="D989" s="5"/>
-      <c r="E989" s="5"/>
+      <c r="D989" s="10"/>
+      <c r="E989" s="10"/>
     </row>
     <row r="990">
-      <c r="D990" s="5"/>
-      <c r="E990" s="5"/>
+      <c r="D990" s="10"/>
+      <c r="E990" s="10"/>
     </row>
     <row r="991">
-      <c r="D991" s="5"/>
-      <c r="E991" s="5"/>
+      <c r="D991" s="10"/>
+      <c r="E991" s="10"/>
     </row>
     <row r="992">
-      <c r="D992" s="5"/>
-      <c r="E992" s="5"/>
+      <c r="D992" s="10"/>
+      <c r="E992" s="10"/>
     </row>
     <row r="993">
-      <c r="D993" s="5"/>
-      <c r="E993" s="5"/>
+      <c r="D993" s="10"/>
+      <c r="E993" s="10"/>
     </row>
     <row r="994">
-      <c r="D994" s="5"/>
-      <c r="E994" s="5"/>
+      <c r="D994" s="10"/>
+      <c r="E994" s="10"/>
     </row>
     <row r="995">
-      <c r="D995" s="5"/>
-      <c r="E995" s="5"/>
+      <c r="D995" s="10"/>
+      <c r="E995" s="10"/>
     </row>
     <row r="996">
-      <c r="D996" s="5"/>
-      <c r="E996" s="5"/>
+      <c r="D996" s="10"/>
+      <c r="E996" s="10"/>
     </row>
     <row r="997">
-      <c r="D997" s="5"/>
-      <c r="E997" s="5"/>
+      <c r="D997" s="10"/>
+      <c r="E997" s="10"/>
     </row>
     <row r="998">
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
+      <c r="D998" s="10"/>
+      <c r="E998" s="10"/>
     </row>
     <row r="999">
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
+      <c r="D999" s="10"/>
+      <c r="E999" s="10"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
+      <c r="D1000" s="10"/>
+      <c r="E1000" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5586,34 +5634,34 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5631,7 +5679,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -5649,7 +5697,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -5669,7 +5717,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5704,28 +5752,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5748,317 +5796,314 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="10" max="11" width="12.63"/>
-    <col customWidth="1" min="12" max="12" width="25.63"/>
-    <col customWidth="1" min="13" max="13" width="25.75"/>
+    <col customWidth="1" min="10" max="10" width="12.63"/>
+    <col customWidth="1" min="11" max="11" width="25.63"/>
+    <col customWidth="1" min="12" max="12" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
+      <c r="I1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>148</v>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="E4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>154</v>
+      <c r="E5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>158</v>
+      <c r="E6" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="B7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>162</v>
+      <c r="E7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>167</v>
+      <c r="D8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/database/ArmengolDonana.xlsx
+++ b/database/ArmengolDonana.xlsx
@@ -80,7 +80,7 @@
     <t>sample code (data code and sample number; data_001)</t>
   </si>
   <si>
-    <t>datasetID</t>
+    <t>collectionCode</t>
   </si>
   <si>
     <t>source code</t>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -592,6 +592,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -947,7 +950,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -971,7 +974,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1051,10 +1054,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1063,10 +1066,10 @@
       <c r="B33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1251,10 +1254,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1367,10 +1370,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1402,16 +1405,16 @@
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1455,10 +1458,10 @@
       <c r="C2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>44251.0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>26665.0</v>
       </c>
       <c r="F2" s="1">
@@ -1502,10 +1505,10 @@
       <c r="C3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>44251.0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>26665.0</v>
       </c>
       <c r="F3" s="1">
@@ -1549,10 +1552,10 @@
       <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>44251.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>26665.0</v>
       </c>
       <c r="F4" s="1">
@@ -1596,10 +1599,10 @@
       <c r="C5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>44251.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>26665.0</v>
       </c>
       <c r="F5" s="1">
@@ -1634,3984 +1637,3984 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8">
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11">
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12">
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14">
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15">
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16">
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17">
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22">
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23">
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24">
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26">
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27">
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28">
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29">
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30">
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31">
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32">
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33">
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34">
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35">
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36">
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37">
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54">
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55">
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56">
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57">
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58">
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59">
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60">
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61">
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62">
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63">
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64">
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65">
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66">
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67">
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68">
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69">
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70">
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71">
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72">
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73">
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74">
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75">
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76">
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77">
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78">
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79">
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80">
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81">
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82">
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83">
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84">
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85">
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86">
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87">
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88">
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89">
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90">
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91">
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92">
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93">
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94">
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95">
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96">
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97">
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98">
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99">
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100">
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101">
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102">
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103">
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104">
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105">
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106">
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107">
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108">
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109">
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110">
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111">
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112">
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113">
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
     </row>
     <row r="114">
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115">
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116">
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117">
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118">
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119">
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120">
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121">
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
     </row>
     <row r="122">
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123">
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124">
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125">
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126">
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127">
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128">
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129">
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130">
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
     </row>
     <row r="131">
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
     </row>
     <row r="132">
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133">
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134">
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135">
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136">
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137">
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138">
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139">
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
     </row>
     <row r="140">
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141">
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142">
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143">
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
     </row>
     <row r="144">
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
     </row>
     <row r="145">
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
     </row>
     <row r="146">
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147">
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148">
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
     </row>
     <row r="149">
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
     </row>
     <row r="150">
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
     </row>
     <row r="151">
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
     </row>
     <row r="152">
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
     </row>
     <row r="153">
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
     </row>
     <row r="154">
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
     </row>
     <row r="155">
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
     </row>
     <row r="156">
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157">
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
     </row>
     <row r="158">
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
     </row>
     <row r="159">
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
     </row>
     <row r="160">
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
     </row>
     <row r="161">
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
     </row>
     <row r="162">
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
     </row>
     <row r="163">
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
     </row>
     <row r="164">
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
     </row>
     <row r="165">
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
     </row>
     <row r="166">
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
     </row>
     <row r="167">
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
     </row>
     <row r="168">
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
     </row>
     <row r="169">
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
     </row>
     <row r="170">
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
     </row>
     <row r="171">
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
     </row>
     <row r="172">
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
     </row>
     <row r="173">
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
     </row>
     <row r="174">
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
     </row>
     <row r="175">
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
     </row>
     <row r="176">
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
     </row>
     <row r="177">
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
     </row>
     <row r="178">
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
     </row>
     <row r="179">
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
     </row>
     <row r="180">
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
     </row>
     <row r="181">
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
     </row>
     <row r="182">
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
     </row>
     <row r="183">
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
     </row>
     <row r="184">
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
     </row>
     <row r="185">
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
     </row>
     <row r="186">
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
     </row>
     <row r="187">
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
     </row>
     <row r="188">
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
     </row>
     <row r="189">
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
     </row>
     <row r="190">
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
     </row>
     <row r="191">
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
     </row>
     <row r="192">
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
     </row>
     <row r="193">
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
     </row>
     <row r="194">
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
     </row>
     <row r="195">
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
     </row>
     <row r="196">
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
     </row>
     <row r="197">
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
     </row>
     <row r="198">
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
     </row>
     <row r="199">
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
     </row>
     <row r="200">
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
     </row>
     <row r="201">
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
     </row>
     <row r="202">
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
     </row>
     <row r="203">
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
     </row>
     <row r="204">
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
     </row>
     <row r="205">
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
     </row>
     <row r="206">
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
     </row>
     <row r="207">
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
     </row>
     <row r="208">
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
     </row>
     <row r="209">
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
     </row>
     <row r="210">
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
     </row>
     <row r="211">
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
     </row>
     <row r="212">
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
     </row>
     <row r="213">
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
     </row>
     <row r="214">
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
     </row>
     <row r="215">
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
     </row>
     <row r="216">
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
     </row>
     <row r="217">
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
     </row>
     <row r="218">
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
     </row>
     <row r="219">
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
     </row>
     <row r="220">
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
     </row>
     <row r="221">
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
     </row>
     <row r="222">
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
     </row>
     <row r="223">
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
     </row>
     <row r="224">
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
     </row>
     <row r="225">
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
     </row>
     <row r="226">
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
     </row>
     <row r="227">
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
     </row>
     <row r="228">
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
     </row>
     <row r="229">
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
     </row>
     <row r="230">
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
     </row>
     <row r="231">
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
     </row>
     <row r="232">
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
     </row>
     <row r="233">
-      <c r="D233" s="10"/>
-      <c r="E233" s="10"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
     </row>
     <row r="234">
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
     </row>
     <row r="235">
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
     </row>
     <row r="236">
-      <c r="D236" s="10"/>
-      <c r="E236" s="10"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
     </row>
     <row r="237">
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
     </row>
     <row r="238">
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
     </row>
     <row r="239">
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
     </row>
     <row r="240">
-      <c r="D240" s="10"/>
-      <c r="E240" s="10"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
     </row>
     <row r="241">
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
     </row>
     <row r="242">
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
     </row>
     <row r="243">
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
     </row>
     <row r="244">
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
     </row>
     <row r="245">
-      <c r="D245" s="10"/>
-      <c r="E245" s="10"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
     </row>
     <row r="246">
-      <c r="D246" s="10"/>
-      <c r="E246" s="10"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
     </row>
     <row r="247">
-      <c r="D247" s="10"/>
-      <c r="E247" s="10"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
     </row>
     <row r="248">
-      <c r="D248" s="10"/>
-      <c r="E248" s="10"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
     </row>
     <row r="249">
-      <c r="D249" s="10"/>
-      <c r="E249" s="10"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
     </row>
     <row r="250">
-      <c r="D250" s="10"/>
-      <c r="E250" s="10"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
     </row>
     <row r="251">
-      <c r="D251" s="10"/>
-      <c r="E251" s="10"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
     </row>
     <row r="252">
-      <c r="D252" s="10"/>
-      <c r="E252" s="10"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
     </row>
     <row r="253">
-      <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
     </row>
     <row r="254">
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
     </row>
     <row r="255">
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
     </row>
     <row r="256">
-      <c r="D256" s="10"/>
-      <c r="E256" s="10"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
     </row>
     <row r="257">
-      <c r="D257" s="10"/>
-      <c r="E257" s="10"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
     </row>
     <row r="258">
-      <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
     </row>
     <row r="259">
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
     </row>
     <row r="260">
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
     </row>
     <row r="261">
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
     </row>
     <row r="262">
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
     </row>
     <row r="263">
-      <c r="D263" s="10"/>
-      <c r="E263" s="10"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
     </row>
     <row r="264">
-      <c r="D264" s="10"/>
-      <c r="E264" s="10"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
     </row>
     <row r="265">
-      <c r="D265" s="10"/>
-      <c r="E265" s="10"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
     </row>
     <row r="266">
-      <c r="D266" s="10"/>
-      <c r="E266" s="10"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
     </row>
     <row r="267">
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
     </row>
     <row r="268">
-      <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
     </row>
     <row r="269">
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
     </row>
     <row r="270">
-      <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
     </row>
     <row r="271">
-      <c r="D271" s="10"/>
-      <c r="E271" s="10"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
     </row>
     <row r="272">
-      <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
     </row>
     <row r="273">
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
     </row>
     <row r="274">
-      <c r="D274" s="10"/>
-      <c r="E274" s="10"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
     </row>
     <row r="275">
-      <c r="D275" s="10"/>
-      <c r="E275" s="10"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
     </row>
     <row r="276">
-      <c r="D276" s="10"/>
-      <c r="E276" s="10"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
     </row>
     <row r="277">
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
     </row>
     <row r="278">
-      <c r="D278" s="10"/>
-      <c r="E278" s="10"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
     </row>
     <row r="279">
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
     </row>
     <row r="280">
-      <c r="D280" s="10"/>
-      <c r="E280" s="10"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
     </row>
     <row r="281">
-      <c r="D281" s="10"/>
-      <c r="E281" s="10"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
     </row>
     <row r="282">
-      <c r="D282" s="10"/>
-      <c r="E282" s="10"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
     </row>
     <row r="283">
-      <c r="D283" s="10"/>
-      <c r="E283" s="10"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
     </row>
     <row r="284">
-      <c r="D284" s="10"/>
-      <c r="E284" s="10"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
     </row>
     <row r="285">
-      <c r="D285" s="10"/>
-      <c r="E285" s="10"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
     </row>
     <row r="286">
-      <c r="D286" s="10"/>
-      <c r="E286" s="10"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
     </row>
     <row r="287">
-      <c r="D287" s="10"/>
-      <c r="E287" s="10"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
     </row>
     <row r="288">
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
     </row>
     <row r="289">
-      <c r="D289" s="10"/>
-      <c r="E289" s="10"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
     </row>
     <row r="290">
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
     </row>
     <row r="291">
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
     </row>
     <row r="292">
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
     </row>
     <row r="293">
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
     </row>
     <row r="294">
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
     </row>
     <row r="295">
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
     </row>
     <row r="296">
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
     </row>
     <row r="297">
-      <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
     </row>
     <row r="298">
-      <c r="D298" s="10"/>
-      <c r="E298" s="10"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
     </row>
     <row r="299">
-      <c r="D299" s="10"/>
-      <c r="E299" s="10"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
     </row>
     <row r="300">
-      <c r="D300" s="10"/>
-      <c r="E300" s="10"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
     </row>
     <row r="301">
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
     </row>
     <row r="302">
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
     </row>
     <row r="303">
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
     </row>
     <row r="304">
-      <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
     </row>
     <row r="305">
-      <c r="D305" s="10"/>
-      <c r="E305" s="10"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
     </row>
     <row r="306">
-      <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
     </row>
     <row r="307">
-      <c r="D307" s="10"/>
-      <c r="E307" s="10"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
     </row>
     <row r="308">
-      <c r="D308" s="10"/>
-      <c r="E308" s="10"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
     </row>
     <row r="309">
-      <c r="D309" s="10"/>
-      <c r="E309" s="10"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
     </row>
     <row r="310">
-      <c r="D310" s="10"/>
-      <c r="E310" s="10"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
     </row>
     <row r="311">
-      <c r="D311" s="10"/>
-      <c r="E311" s="10"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
     </row>
     <row r="312">
-      <c r="D312" s="10"/>
-      <c r="E312" s="10"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
     </row>
     <row r="313">
-      <c r="D313" s="10"/>
-      <c r="E313" s="10"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
     </row>
     <row r="314">
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
     </row>
     <row r="315">
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
     </row>
     <row r="316">
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
     </row>
     <row r="317">
-      <c r="D317" s="10"/>
-      <c r="E317" s="10"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
     </row>
     <row r="318">
-      <c r="D318" s="10"/>
-      <c r="E318" s="10"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
     </row>
     <row r="319">
-      <c r="D319" s="10"/>
-      <c r="E319" s="10"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
     </row>
     <row r="320">
-      <c r="D320" s="10"/>
-      <c r="E320" s="10"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
     </row>
     <row r="321">
-      <c r="D321" s="10"/>
-      <c r="E321" s="10"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
     </row>
     <row r="322">
-      <c r="D322" s="10"/>
-      <c r="E322" s="10"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
     </row>
     <row r="323">
-      <c r="D323" s="10"/>
-      <c r="E323" s="10"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
     </row>
     <row r="324">
-      <c r="D324" s="10"/>
-      <c r="E324" s="10"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
     </row>
     <row r="325">
-      <c r="D325" s="10"/>
-      <c r="E325" s="10"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
     </row>
     <row r="326">
-      <c r="D326" s="10"/>
-      <c r="E326" s="10"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
     </row>
     <row r="327">
-      <c r="D327" s="10"/>
-      <c r="E327" s="10"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
     </row>
     <row r="328">
-      <c r="D328" s="10"/>
-      <c r="E328" s="10"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
     </row>
     <row r="329">
-      <c r="D329" s="10"/>
-      <c r="E329" s="10"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
     </row>
     <row r="330">
-      <c r="D330" s="10"/>
-      <c r="E330" s="10"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
     </row>
     <row r="331">
-      <c r="D331" s="10"/>
-      <c r="E331" s="10"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
     </row>
     <row r="332">
-      <c r="D332" s="10"/>
-      <c r="E332" s="10"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
     </row>
     <row r="333">
-      <c r="D333" s="10"/>
-      <c r="E333" s="10"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
     </row>
     <row r="334">
-      <c r="D334" s="10"/>
-      <c r="E334" s="10"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
     </row>
     <row r="335">
-      <c r="D335" s="10"/>
-      <c r="E335" s="10"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
     </row>
     <row r="336">
-      <c r="D336" s="10"/>
-      <c r="E336" s="10"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
     </row>
     <row r="337">
-      <c r="D337" s="10"/>
-      <c r="E337" s="10"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
     </row>
     <row r="338">
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
     </row>
     <row r="339">
-      <c r="D339" s="10"/>
-      <c r="E339" s="10"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
     </row>
     <row r="340">
-      <c r="D340" s="10"/>
-      <c r="E340" s="10"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
     </row>
     <row r="341">
-      <c r="D341" s="10"/>
-      <c r="E341" s="10"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
     </row>
     <row r="342">
-      <c r="D342" s="10"/>
-      <c r="E342" s="10"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
     </row>
     <row r="343">
-      <c r="D343" s="10"/>
-      <c r="E343" s="10"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
     </row>
     <row r="344">
-      <c r="D344" s="10"/>
-      <c r="E344" s="10"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
     </row>
     <row r="345">
-      <c r="D345" s="10"/>
-      <c r="E345" s="10"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
     </row>
     <row r="346">
-      <c r="D346" s="10"/>
-      <c r="E346" s="10"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
     </row>
     <row r="347">
-      <c r="D347" s="10"/>
-      <c r="E347" s="10"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
     </row>
     <row r="348">
-      <c r="D348" s="10"/>
-      <c r="E348" s="10"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
     </row>
     <row r="349">
-      <c r="D349" s="10"/>
-      <c r="E349" s="10"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
     </row>
     <row r="350">
-      <c r="D350" s="10"/>
-      <c r="E350" s="10"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
     </row>
     <row r="351">
-      <c r="D351" s="10"/>
-      <c r="E351" s="10"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
     </row>
     <row r="352">
-      <c r="D352" s="10"/>
-      <c r="E352" s="10"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
     </row>
     <row r="353">
-      <c r="D353" s="10"/>
-      <c r="E353" s="10"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
     </row>
     <row r="354">
-      <c r="D354" s="10"/>
-      <c r="E354" s="10"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
     </row>
     <row r="355">
-      <c r="D355" s="10"/>
-      <c r="E355" s="10"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
     </row>
     <row r="356">
-      <c r="D356" s="10"/>
-      <c r="E356" s="10"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
     </row>
     <row r="357">
-      <c r="D357" s="10"/>
-      <c r="E357" s="10"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
     </row>
     <row r="358">
-      <c r="D358" s="10"/>
-      <c r="E358" s="10"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="11"/>
     </row>
     <row r="359">
-      <c r="D359" s="10"/>
-      <c r="E359" s="10"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="11"/>
     </row>
     <row r="360">
-      <c r="D360" s="10"/>
-      <c r="E360" s="10"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
     </row>
     <row r="361">
-      <c r="D361" s="10"/>
-      <c r="E361" s="10"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
     </row>
     <row r="362">
-      <c r="D362" s="10"/>
-      <c r="E362" s="10"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
     </row>
     <row r="363">
-      <c r="D363" s="10"/>
-      <c r="E363" s="10"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="11"/>
     </row>
     <row r="364">
-      <c r="D364" s="10"/>
-      <c r="E364" s="10"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
     </row>
     <row r="365">
-      <c r="D365" s="10"/>
-      <c r="E365" s="10"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11"/>
     </row>
     <row r="366">
-      <c r="D366" s="10"/>
-      <c r="E366" s="10"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="11"/>
     </row>
     <row r="367">
-      <c r="D367" s="10"/>
-      <c r="E367" s="10"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
     </row>
     <row r="368">
-      <c r="D368" s="10"/>
-      <c r="E368" s="10"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11"/>
     </row>
     <row r="369">
-      <c r="D369" s="10"/>
-      <c r="E369" s="10"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11"/>
     </row>
     <row r="370">
-      <c r="D370" s="10"/>
-      <c r="E370" s="10"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11"/>
     </row>
     <row r="371">
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
     </row>
     <row r="372">
-      <c r="D372" s="10"/>
-      <c r="E372" s="10"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="11"/>
     </row>
     <row r="373">
-      <c r="D373" s="10"/>
-      <c r="E373" s="10"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
     </row>
     <row r="374">
-      <c r="D374" s="10"/>
-      <c r="E374" s="10"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
     </row>
     <row r="375">
-      <c r="D375" s="10"/>
-      <c r="E375" s="10"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
     </row>
     <row r="376">
-      <c r="D376" s="10"/>
-      <c r="E376" s="10"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
     </row>
     <row r="377">
-      <c r="D377" s="10"/>
-      <c r="E377" s="10"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
     </row>
     <row r="378">
-      <c r="D378" s="10"/>
-      <c r="E378" s="10"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
     </row>
     <row r="379">
-      <c r="D379" s="10"/>
-      <c r="E379" s="10"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
     </row>
     <row r="380">
-      <c r="D380" s="10"/>
-      <c r="E380" s="10"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
     </row>
     <row r="381">
-      <c r="D381" s="10"/>
-      <c r="E381" s="10"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
     </row>
     <row r="382">
-      <c r="D382" s="10"/>
-      <c r="E382" s="10"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
     </row>
     <row r="383">
-      <c r="D383" s="10"/>
-      <c r="E383" s="10"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
     </row>
     <row r="384">
-      <c r="D384" s="10"/>
-      <c r="E384" s="10"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
     </row>
     <row r="385">
-      <c r="D385" s="10"/>
-      <c r="E385" s="10"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
     </row>
     <row r="386">
-      <c r="D386" s="10"/>
-      <c r="E386" s="10"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="11"/>
     </row>
     <row r="387">
-      <c r="D387" s="10"/>
-      <c r="E387" s="10"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
     </row>
     <row r="388">
-      <c r="D388" s="10"/>
-      <c r="E388" s="10"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
     </row>
     <row r="389">
-      <c r="D389" s="10"/>
-      <c r="E389" s="10"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
     </row>
     <row r="390">
-      <c r="D390" s="10"/>
-      <c r="E390" s="10"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
     </row>
     <row r="391">
-      <c r="D391" s="10"/>
-      <c r="E391" s="10"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
     </row>
     <row r="392">
-      <c r="D392" s="10"/>
-      <c r="E392" s="10"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
     </row>
     <row r="393">
-      <c r="D393" s="10"/>
-      <c r="E393" s="10"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
     </row>
     <row r="394">
-      <c r="D394" s="10"/>
-      <c r="E394" s="10"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
     </row>
     <row r="395">
-      <c r="D395" s="10"/>
-      <c r="E395" s="10"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
     </row>
     <row r="396">
-      <c r="D396" s="10"/>
-      <c r="E396" s="10"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="11"/>
     </row>
     <row r="397">
-      <c r="D397" s="10"/>
-      <c r="E397" s="10"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
     </row>
     <row r="398">
-      <c r="D398" s="10"/>
-      <c r="E398" s="10"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
     </row>
     <row r="399">
-      <c r="D399" s="10"/>
-      <c r="E399" s="10"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
     </row>
     <row r="400">
-      <c r="D400" s="10"/>
-      <c r="E400" s="10"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
     </row>
     <row r="401">
-      <c r="D401" s="10"/>
-      <c r="E401" s="10"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="11"/>
     </row>
     <row r="402">
-      <c r="D402" s="10"/>
-      <c r="E402" s="10"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
     </row>
     <row r="403">
-      <c r="D403" s="10"/>
-      <c r="E403" s="10"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
     </row>
     <row r="404">
-      <c r="D404" s="10"/>
-      <c r="E404" s="10"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
     </row>
     <row r="405">
-      <c r="D405" s="10"/>
-      <c r="E405" s="10"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="11"/>
     </row>
     <row r="406">
-      <c r="D406" s="10"/>
-      <c r="E406" s="10"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
     </row>
     <row r="407">
-      <c r="D407" s="10"/>
-      <c r="E407" s="10"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
     </row>
     <row r="408">
-      <c r="D408" s="10"/>
-      <c r="E408" s="10"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
     </row>
     <row r="409">
-      <c r="D409" s="10"/>
-      <c r="E409" s="10"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
     </row>
     <row r="410">
-      <c r="D410" s="10"/>
-      <c r="E410" s="10"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
     </row>
     <row r="411">
-      <c r="D411" s="10"/>
-      <c r="E411" s="10"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="11"/>
     </row>
     <row r="412">
-      <c r="D412" s="10"/>
-      <c r="E412" s="10"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="11"/>
     </row>
     <row r="413">
-      <c r="D413" s="10"/>
-      <c r="E413" s="10"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="11"/>
     </row>
     <row r="414">
-      <c r="D414" s="10"/>
-      <c r="E414" s="10"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="11"/>
     </row>
     <row r="415">
-      <c r="D415" s="10"/>
-      <c r="E415" s="10"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
     </row>
     <row r="416">
-      <c r="D416" s="10"/>
-      <c r="E416" s="10"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="11"/>
     </row>
     <row r="417">
-      <c r="D417" s="10"/>
-      <c r="E417" s="10"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="11"/>
     </row>
     <row r="418">
-      <c r="D418" s="10"/>
-      <c r="E418" s="10"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
     </row>
     <row r="419">
-      <c r="D419" s="10"/>
-      <c r="E419" s="10"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
     </row>
     <row r="420">
-      <c r="D420" s="10"/>
-      <c r="E420" s="10"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
     </row>
     <row r="421">
-      <c r="D421" s="10"/>
-      <c r="E421" s="10"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="11"/>
     </row>
     <row r="422">
-      <c r="D422" s="10"/>
-      <c r="E422" s="10"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="11"/>
     </row>
     <row r="423">
-      <c r="D423" s="10"/>
-      <c r="E423" s="10"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="11"/>
     </row>
     <row r="424">
-      <c r="D424" s="10"/>
-      <c r="E424" s="10"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
     </row>
     <row r="425">
-      <c r="D425" s="10"/>
-      <c r="E425" s="10"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
     </row>
     <row r="426">
-      <c r="D426" s="10"/>
-      <c r="E426" s="10"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="11"/>
     </row>
     <row r="427">
-      <c r="D427" s="10"/>
-      <c r="E427" s="10"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="11"/>
     </row>
     <row r="428">
-      <c r="D428" s="10"/>
-      <c r="E428" s="10"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="11"/>
     </row>
     <row r="429">
-      <c r="D429" s="10"/>
-      <c r="E429" s="10"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="11"/>
     </row>
     <row r="430">
-      <c r="D430" s="10"/>
-      <c r="E430" s="10"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="11"/>
     </row>
     <row r="431">
-      <c r="D431" s="10"/>
-      <c r="E431" s="10"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="11"/>
     </row>
     <row r="432">
-      <c r="D432" s="10"/>
-      <c r="E432" s="10"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="11"/>
     </row>
     <row r="433">
-      <c r="D433" s="10"/>
-      <c r="E433" s="10"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="11"/>
     </row>
     <row r="434">
-      <c r="D434" s="10"/>
-      <c r="E434" s="10"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="11"/>
     </row>
     <row r="435">
-      <c r="D435" s="10"/>
-      <c r="E435" s="10"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
     </row>
     <row r="436">
-      <c r="D436" s="10"/>
-      <c r="E436" s="10"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="11"/>
     </row>
     <row r="437">
-      <c r="D437" s="10"/>
-      <c r="E437" s="10"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="11"/>
     </row>
     <row r="438">
-      <c r="D438" s="10"/>
-      <c r="E438" s="10"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="11"/>
     </row>
     <row r="439">
-      <c r="D439" s="10"/>
-      <c r="E439" s="10"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11"/>
     </row>
     <row r="440">
-      <c r="D440" s="10"/>
-      <c r="E440" s="10"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11"/>
     </row>
     <row r="441">
-      <c r="D441" s="10"/>
-      <c r="E441" s="10"/>
+      <c r="D441" s="11"/>
+      <c r="E441" s="11"/>
     </row>
     <row r="442">
-      <c r="D442" s="10"/>
-      <c r="E442" s="10"/>
+      <c r="D442" s="11"/>
+      <c r="E442" s="11"/>
     </row>
     <row r="443">
-      <c r="D443" s="10"/>
-      <c r="E443" s="10"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
     </row>
     <row r="444">
-      <c r="D444" s="10"/>
-      <c r="E444" s="10"/>
+      <c r="D444" s="11"/>
+      <c r="E444" s="11"/>
     </row>
     <row r="445">
-      <c r="D445" s="10"/>
-      <c r="E445" s="10"/>
+      <c r="D445" s="11"/>
+      <c r="E445" s="11"/>
     </row>
     <row r="446">
-      <c r="D446" s="10"/>
-      <c r="E446" s="10"/>
+      <c r="D446" s="11"/>
+      <c r="E446" s="11"/>
     </row>
     <row r="447">
-      <c r="D447" s="10"/>
-      <c r="E447" s="10"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="11"/>
     </row>
     <row r="448">
-      <c r="D448" s="10"/>
-      <c r="E448" s="10"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11"/>
     </row>
     <row r="449">
-      <c r="D449" s="10"/>
-      <c r="E449" s="10"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11"/>
     </row>
     <row r="450">
-      <c r="D450" s="10"/>
-      <c r="E450" s="10"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11"/>
     </row>
     <row r="451">
-      <c r="D451" s="10"/>
-      <c r="E451" s="10"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
     </row>
     <row r="452">
-      <c r="D452" s="10"/>
-      <c r="E452" s="10"/>
+      <c r="D452" s="11"/>
+      <c r="E452" s="11"/>
     </row>
     <row r="453">
-      <c r="D453" s="10"/>
-      <c r="E453" s="10"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="11"/>
     </row>
     <row r="454">
-      <c r="D454" s="10"/>
-      <c r="E454" s="10"/>
+      <c r="D454" s="11"/>
+      <c r="E454" s="11"/>
     </row>
     <row r="455">
-      <c r="D455" s="10"/>
-      <c r="E455" s="10"/>
+      <c r="D455" s="11"/>
+      <c r="E455" s="11"/>
     </row>
     <row r="456">
-      <c r="D456" s="10"/>
-      <c r="E456" s="10"/>
+      <c r="D456" s="11"/>
+      <c r="E456" s="11"/>
     </row>
     <row r="457">
-      <c r="D457" s="10"/>
-      <c r="E457" s="10"/>
+      <c r="D457" s="11"/>
+      <c r="E457" s="11"/>
     </row>
     <row r="458">
-      <c r="D458" s="10"/>
-      <c r="E458" s="10"/>
+      <c r="D458" s="11"/>
+      <c r="E458" s="11"/>
     </row>
     <row r="459">
-      <c r="D459" s="10"/>
-      <c r="E459" s="10"/>
+      <c r="D459" s="11"/>
+      <c r="E459" s="11"/>
     </row>
     <row r="460">
-      <c r="D460" s="10"/>
-      <c r="E460" s="10"/>
+      <c r="D460" s="11"/>
+      <c r="E460" s="11"/>
     </row>
     <row r="461">
-      <c r="D461" s="10"/>
-      <c r="E461" s="10"/>
+      <c r="D461" s="11"/>
+      <c r="E461" s="11"/>
     </row>
     <row r="462">
-      <c r="D462" s="10"/>
-      <c r="E462" s="10"/>
+      <c r="D462" s="11"/>
+      <c r="E462" s="11"/>
     </row>
     <row r="463">
-      <c r="D463" s="10"/>
-      <c r="E463" s="10"/>
+      <c r="D463" s="11"/>
+      <c r="E463" s="11"/>
     </row>
     <row r="464">
-      <c r="D464" s="10"/>
-      <c r="E464" s="10"/>
+      <c r="D464" s="11"/>
+      <c r="E464" s="11"/>
     </row>
     <row r="465">
-      <c r="D465" s="10"/>
-      <c r="E465" s="10"/>
+      <c r="D465" s="11"/>
+      <c r="E465" s="11"/>
     </row>
     <row r="466">
-      <c r="D466" s="10"/>
-      <c r="E466" s="10"/>
+      <c r="D466" s="11"/>
+      <c r="E466" s="11"/>
     </row>
     <row r="467">
-      <c r="D467" s="10"/>
-      <c r="E467" s="10"/>
+      <c r="D467" s="11"/>
+      <c r="E467" s="11"/>
     </row>
     <row r="468">
-      <c r="D468" s="10"/>
-      <c r="E468" s="10"/>
+      <c r="D468" s="11"/>
+      <c r="E468" s="11"/>
     </row>
     <row r="469">
-      <c r="D469" s="10"/>
-      <c r="E469" s="10"/>
+      <c r="D469" s="11"/>
+      <c r="E469" s="11"/>
     </row>
     <row r="470">
-      <c r="D470" s="10"/>
-      <c r="E470" s="10"/>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
     </row>
     <row r="471">
-      <c r="D471" s="10"/>
-      <c r="E471" s="10"/>
+      <c r="D471" s="11"/>
+      <c r="E471" s="11"/>
     </row>
     <row r="472">
-      <c r="D472" s="10"/>
-      <c r="E472" s="10"/>
+      <c r="D472" s="11"/>
+      <c r="E472" s="11"/>
     </row>
     <row r="473">
-      <c r="D473" s="10"/>
-      <c r="E473" s="10"/>
+      <c r="D473" s="11"/>
+      <c r="E473" s="11"/>
     </row>
     <row r="474">
-      <c r="D474" s="10"/>
-      <c r="E474" s="10"/>
+      <c r="D474" s="11"/>
+      <c r="E474" s="11"/>
     </row>
     <row r="475">
-      <c r="D475" s="10"/>
-      <c r="E475" s="10"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11"/>
     </row>
     <row r="476">
-      <c r="D476" s="10"/>
-      <c r="E476" s="10"/>
+      <c r="D476" s="11"/>
+      <c r="E476" s="11"/>
     </row>
     <row r="477">
-      <c r="D477" s="10"/>
-      <c r="E477" s="10"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11"/>
     </row>
     <row r="478">
-      <c r="D478" s="10"/>
-      <c r="E478" s="10"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="11"/>
     </row>
     <row r="479">
-      <c r="D479" s="10"/>
-      <c r="E479" s="10"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11"/>
     </row>
     <row r="480">
-      <c r="D480" s="10"/>
-      <c r="E480" s="10"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11"/>
     </row>
     <row r="481">
-      <c r="D481" s="10"/>
-      <c r="E481" s="10"/>
+      <c r="D481" s="11"/>
+      <c r="E481" s="11"/>
     </row>
     <row r="482">
-      <c r="D482" s="10"/>
-      <c r="E482" s="10"/>
+      <c r="D482" s="11"/>
+      <c r="E482" s="11"/>
     </row>
     <row r="483">
-      <c r="D483" s="10"/>
-      <c r="E483" s="10"/>
+      <c r="D483" s="11"/>
+      <c r="E483" s="11"/>
     </row>
     <row r="484">
-      <c r="D484" s="10"/>
-      <c r="E484" s="10"/>
+      <c r="D484" s="11"/>
+      <c r="E484" s="11"/>
     </row>
     <row r="485">
-      <c r="D485" s="10"/>
-      <c r="E485" s="10"/>
+      <c r="D485" s="11"/>
+      <c r="E485" s="11"/>
     </row>
     <row r="486">
-      <c r="D486" s="10"/>
-      <c r="E486" s="10"/>
+      <c r="D486" s="11"/>
+      <c r="E486" s="11"/>
     </row>
     <row r="487">
-      <c r="D487" s="10"/>
-      <c r="E487" s="10"/>
+      <c r="D487" s="11"/>
+      <c r="E487" s="11"/>
     </row>
     <row r="488">
-      <c r="D488" s="10"/>
-      <c r="E488" s="10"/>
+      <c r="D488" s="11"/>
+      <c r="E488" s="11"/>
     </row>
     <row r="489">
-      <c r="D489" s="10"/>
-      <c r="E489" s="10"/>
+      <c r="D489" s="11"/>
+      <c r="E489" s="11"/>
     </row>
     <row r="490">
-      <c r="D490" s="10"/>
-      <c r="E490" s="10"/>
+      <c r="D490" s="11"/>
+      <c r="E490" s="11"/>
     </row>
     <row r="491">
-      <c r="D491" s="10"/>
-      <c r="E491" s="10"/>
+      <c r="D491" s="11"/>
+      <c r="E491" s="11"/>
     </row>
     <row r="492">
-      <c r="D492" s="10"/>
-      <c r="E492" s="10"/>
+      <c r="D492" s="11"/>
+      <c r="E492" s="11"/>
     </row>
     <row r="493">
-      <c r="D493" s="10"/>
-      <c r="E493" s="10"/>
+      <c r="D493" s="11"/>
+      <c r="E493" s="11"/>
     </row>
     <row r="494">
-      <c r="D494" s="10"/>
-      <c r="E494" s="10"/>
+      <c r="D494" s="11"/>
+      <c r="E494" s="11"/>
     </row>
     <row r="495">
-      <c r="D495" s="10"/>
-      <c r="E495" s="10"/>
+      <c r="D495" s="11"/>
+      <c r="E495" s="11"/>
     </row>
     <row r="496">
-      <c r="D496" s="10"/>
-      <c r="E496" s="10"/>
+      <c r="D496" s="11"/>
+      <c r="E496" s="11"/>
     </row>
     <row r="497">
-      <c r="D497" s="10"/>
-      <c r="E497" s="10"/>
+      <c r="D497" s="11"/>
+      <c r="E497" s="11"/>
     </row>
     <row r="498">
-      <c r="D498" s="10"/>
-      <c r="E498" s="10"/>
+      <c r="D498" s="11"/>
+      <c r="E498" s="11"/>
     </row>
     <row r="499">
-      <c r="D499" s="10"/>
-      <c r="E499" s="10"/>
+      <c r="D499" s="11"/>
+      <c r="E499" s="11"/>
     </row>
     <row r="500">
-      <c r="D500" s="10"/>
-      <c r="E500" s="10"/>
+      <c r="D500" s="11"/>
+      <c r="E500" s="11"/>
     </row>
     <row r="501">
-      <c r="D501" s="10"/>
-      <c r="E501" s="10"/>
+      <c r="D501" s="11"/>
+      <c r="E501" s="11"/>
     </row>
     <row r="502">
-      <c r="D502" s="10"/>
-      <c r="E502" s="10"/>
+      <c r="D502" s="11"/>
+      <c r="E502" s="11"/>
     </row>
     <row r="503">
-      <c r="D503" s="10"/>
-      <c r="E503" s="10"/>
+      <c r="D503" s="11"/>
+      <c r="E503" s="11"/>
     </row>
     <row r="504">
-      <c r="D504" s="10"/>
-      <c r="E504" s="10"/>
+      <c r="D504" s="11"/>
+      <c r="E504" s="11"/>
     </row>
     <row r="505">
-      <c r="D505" s="10"/>
-      <c r="E505" s="10"/>
+      <c r="D505" s="11"/>
+      <c r="E505" s="11"/>
     </row>
     <row r="506">
-      <c r="D506" s="10"/>
-      <c r="E506" s="10"/>
+      <c r="D506" s="11"/>
+      <c r="E506" s="11"/>
     </row>
     <row r="507">
-      <c r="D507" s="10"/>
-      <c r="E507" s="10"/>
+      <c r="D507" s="11"/>
+      <c r="E507" s="11"/>
     </row>
     <row r="508">
-      <c r="D508" s="10"/>
-      <c r="E508" s="10"/>
+      <c r="D508" s="11"/>
+      <c r="E508" s="11"/>
     </row>
     <row r="509">
-      <c r="D509" s="10"/>
-      <c r="E509" s="10"/>
+      <c r="D509" s="11"/>
+      <c r="E509" s="11"/>
     </row>
     <row r="510">
-      <c r="D510" s="10"/>
-      <c r="E510" s="10"/>
+      <c r="D510" s="11"/>
+      <c r="E510" s="11"/>
     </row>
     <row r="511">
-      <c r="D511" s="10"/>
-      <c r="E511" s="10"/>
+      <c r="D511" s="11"/>
+      <c r="E511" s="11"/>
     </row>
     <row r="512">
-      <c r="D512" s="10"/>
-      <c r="E512" s="10"/>
+      <c r="D512" s="11"/>
+      <c r="E512" s="11"/>
     </row>
     <row r="513">
-      <c r="D513" s="10"/>
-      <c r="E513" s="10"/>
+      <c r="D513" s="11"/>
+      <c r="E513" s="11"/>
     </row>
     <row r="514">
-      <c r="D514" s="10"/>
-      <c r="E514" s="10"/>
+      <c r="D514" s="11"/>
+      <c r="E514" s="11"/>
     </row>
     <row r="515">
-      <c r="D515" s="10"/>
-      <c r="E515" s="10"/>
+      <c r="D515" s="11"/>
+      <c r="E515" s="11"/>
     </row>
     <row r="516">
-      <c r="D516" s="10"/>
-      <c r="E516" s="10"/>
+      <c r="D516" s="11"/>
+      <c r="E516" s="11"/>
     </row>
     <row r="517">
-      <c r="D517" s="10"/>
-      <c r="E517" s="10"/>
+      <c r="D517" s="11"/>
+      <c r="E517" s="11"/>
     </row>
     <row r="518">
-      <c r="D518" s="10"/>
-      <c r="E518" s="10"/>
+      <c r="D518" s="11"/>
+      <c r="E518" s="11"/>
     </row>
     <row r="519">
-      <c r="D519" s="10"/>
-      <c r="E519" s="10"/>
+      <c r="D519" s="11"/>
+      <c r="E519" s="11"/>
     </row>
     <row r="520">
-      <c r="D520" s="10"/>
-      <c r="E520" s="10"/>
+      <c r="D520" s="11"/>
+      <c r="E520" s="11"/>
     </row>
     <row r="521">
-      <c r="D521" s="10"/>
-      <c r="E521" s="10"/>
+      <c r="D521" s="11"/>
+      <c r="E521" s="11"/>
     </row>
     <row r="522">
-      <c r="D522" s="10"/>
-      <c r="E522" s="10"/>
+      <c r="D522" s="11"/>
+      <c r="E522" s="11"/>
     </row>
     <row r="523">
-      <c r="D523" s="10"/>
-      <c r="E523" s="10"/>
+      <c r="D523" s="11"/>
+      <c r="E523" s="11"/>
     </row>
     <row r="524">
-      <c r="D524" s="10"/>
-      <c r="E524" s="10"/>
+      <c r="D524" s="11"/>
+      <c r="E524" s="11"/>
     </row>
     <row r="525">
-      <c r="D525" s="10"/>
-      <c r="E525" s="10"/>
+      <c r="D525" s="11"/>
+      <c r="E525" s="11"/>
     </row>
     <row r="526">
-      <c r="D526" s="10"/>
-      <c r="E526" s="10"/>
+      <c r="D526" s="11"/>
+      <c r="E526" s="11"/>
     </row>
     <row r="527">
-      <c r="D527" s="10"/>
-      <c r="E527" s="10"/>
+      <c r="D527" s="11"/>
+      <c r="E527" s="11"/>
     </row>
     <row r="528">
-      <c r="D528" s="10"/>
-      <c r="E528" s="10"/>
+      <c r="D528" s="11"/>
+      <c r="E528" s="11"/>
     </row>
     <row r="529">
-      <c r="D529" s="10"/>
-      <c r="E529" s="10"/>
+      <c r="D529" s="11"/>
+      <c r="E529" s="11"/>
     </row>
     <row r="530">
-      <c r="D530" s="10"/>
-      <c r="E530" s="10"/>
+      <c r="D530" s="11"/>
+      <c r="E530" s="11"/>
     </row>
     <row r="531">
-      <c r="D531" s="10"/>
-      <c r="E531" s="10"/>
+      <c r="D531" s="11"/>
+      <c r="E531" s="11"/>
     </row>
     <row r="532">
-      <c r="D532" s="10"/>
-      <c r="E532" s="10"/>
+      <c r="D532" s="11"/>
+      <c r="E532" s="11"/>
     </row>
     <row r="533">
-      <c r="D533" s="10"/>
-      <c r="E533" s="10"/>
+      <c r="D533" s="11"/>
+      <c r="E533" s="11"/>
     </row>
     <row r="534">
-      <c r="D534" s="10"/>
-      <c r="E534" s="10"/>
+      <c r="D534" s="11"/>
+      <c r="E534" s="11"/>
     </row>
     <row r="535">
-      <c r="D535" s="10"/>
-      <c r="E535" s="10"/>
+      <c r="D535" s="11"/>
+      <c r="E535" s="11"/>
     </row>
     <row r="536">
-      <c r="D536" s="10"/>
-      <c r="E536" s="10"/>
+      <c r="D536" s="11"/>
+      <c r="E536" s="11"/>
     </row>
     <row r="537">
-      <c r="D537" s="10"/>
-      <c r="E537" s="10"/>
+      <c r="D537" s="11"/>
+      <c r="E537" s="11"/>
     </row>
     <row r="538">
-      <c r="D538" s="10"/>
-      <c r="E538" s="10"/>
+      <c r="D538" s="11"/>
+      <c r="E538" s="11"/>
     </row>
     <row r="539">
-      <c r="D539" s="10"/>
-      <c r="E539" s="10"/>
+      <c r="D539" s="11"/>
+      <c r="E539" s="11"/>
     </row>
     <row r="540">
-      <c r="D540" s="10"/>
-      <c r="E540" s="10"/>
+      <c r="D540" s="11"/>
+      <c r="E540" s="11"/>
     </row>
     <row r="541">
-      <c r="D541" s="10"/>
-      <c r="E541" s="10"/>
+      <c r="D541" s="11"/>
+      <c r="E541" s="11"/>
     </row>
     <row r="542">
-      <c r="D542" s="10"/>
-      <c r="E542" s="10"/>
+      <c r="D542" s="11"/>
+      <c r="E542" s="11"/>
     </row>
     <row r="543">
-      <c r="D543" s="10"/>
-      <c r="E543" s="10"/>
+      <c r="D543" s="11"/>
+      <c r="E543" s="11"/>
     </row>
     <row r="544">
-      <c r="D544" s="10"/>
-      <c r="E544" s="10"/>
+      <c r="D544" s="11"/>
+      <c r="E544" s="11"/>
     </row>
     <row r="545">
-      <c r="D545" s="10"/>
-      <c r="E545" s="10"/>
+      <c r="D545" s="11"/>
+      <c r="E545" s="11"/>
     </row>
     <row r="546">
-      <c r="D546" s="10"/>
-      <c r="E546" s="10"/>
+      <c r="D546" s="11"/>
+      <c r="E546" s="11"/>
     </row>
     <row r="547">
-      <c r="D547" s="10"/>
-      <c r="E547" s="10"/>
+      <c r="D547" s="11"/>
+      <c r="E547" s="11"/>
     </row>
     <row r="548">
-      <c r="D548" s="10"/>
-      <c r="E548" s="10"/>
+      <c r="D548" s="11"/>
+      <c r="E548" s="11"/>
     </row>
     <row r="549">
-      <c r="D549" s="10"/>
-      <c r="E549" s="10"/>
+      <c r="D549" s="11"/>
+      <c r="E549" s="11"/>
     </row>
     <row r="550">
-      <c r="D550" s="10"/>
-      <c r="E550" s="10"/>
+      <c r="D550" s="11"/>
+      <c r="E550" s="11"/>
     </row>
     <row r="551">
-      <c r="D551" s="10"/>
-      <c r="E551" s="10"/>
+      <c r="D551" s="11"/>
+      <c r="E551" s="11"/>
     </row>
     <row r="552">
-      <c r="D552" s="10"/>
-      <c r="E552" s="10"/>
+      <c r="D552" s="11"/>
+      <c r="E552" s="11"/>
     </row>
     <row r="553">
-      <c r="D553" s="10"/>
-      <c r="E553" s="10"/>
+      <c r="D553" s="11"/>
+      <c r="E553" s="11"/>
     </row>
     <row r="554">
-      <c r="D554" s="10"/>
-      <c r="E554" s="10"/>
+      <c r="D554" s="11"/>
+      <c r="E554" s="11"/>
     </row>
     <row r="555">
-      <c r="D555" s="10"/>
-      <c r="E555" s="10"/>
+      <c r="D555" s="11"/>
+      <c r="E555" s="11"/>
     </row>
     <row r="556">
-      <c r="D556" s="10"/>
-      <c r="E556" s="10"/>
+      <c r="D556" s="11"/>
+      <c r="E556" s="11"/>
     </row>
     <row r="557">
-      <c r="D557" s="10"/>
-      <c r="E557" s="10"/>
+      <c r="D557" s="11"/>
+      <c r="E557" s="11"/>
     </row>
     <row r="558">
-      <c r="D558" s="10"/>
-      <c r="E558" s="10"/>
+      <c r="D558" s="11"/>
+      <c r="E558" s="11"/>
     </row>
     <row r="559">
-      <c r="D559" s="10"/>
-      <c r="E559" s="10"/>
+      <c r="D559" s="11"/>
+      <c r="E559" s="11"/>
     </row>
     <row r="560">
-      <c r="D560" s="10"/>
-      <c r="E560" s="10"/>
+      <c r="D560" s="11"/>
+      <c r="E560" s="11"/>
     </row>
     <row r="561">
-      <c r="D561" s="10"/>
-      <c r="E561" s="10"/>
+      <c r="D561" s="11"/>
+      <c r="E561" s="11"/>
     </row>
     <row r="562">
-      <c r="D562" s="10"/>
-      <c r="E562" s="10"/>
+      <c r="D562" s="11"/>
+      <c r="E562" s="11"/>
     </row>
     <row r="563">
-      <c r="D563" s="10"/>
-      <c r="E563" s="10"/>
+      <c r="D563" s="11"/>
+      <c r="E563" s="11"/>
     </row>
     <row r="564">
-      <c r="D564" s="10"/>
-      <c r="E564" s="10"/>
+      <c r="D564" s="11"/>
+      <c r="E564" s="11"/>
     </row>
     <row r="565">
-      <c r="D565" s="10"/>
-      <c r="E565" s="10"/>
+      <c r="D565" s="11"/>
+      <c r="E565" s="11"/>
     </row>
     <row r="566">
-      <c r="D566" s="10"/>
-      <c r="E566" s="10"/>
+      <c r="D566" s="11"/>
+      <c r="E566" s="11"/>
     </row>
     <row r="567">
-      <c r="D567" s="10"/>
-      <c r="E567" s="10"/>
+      <c r="D567" s="11"/>
+      <c r="E567" s="11"/>
     </row>
     <row r="568">
-      <c r="D568" s="10"/>
-      <c r="E568" s="10"/>
+      <c r="D568" s="11"/>
+      <c r="E568" s="11"/>
     </row>
     <row r="569">
-      <c r="D569" s="10"/>
-      <c r="E569" s="10"/>
+      <c r="D569" s="11"/>
+      <c r="E569" s="11"/>
     </row>
     <row r="570">
-      <c r="D570" s="10"/>
-      <c r="E570" s="10"/>
+      <c r="D570" s="11"/>
+      <c r="E570" s="11"/>
     </row>
     <row r="571">
-      <c r="D571" s="10"/>
-      <c r="E571" s="10"/>
+      <c r="D571" s="11"/>
+      <c r="E571" s="11"/>
     </row>
     <row r="572">
-      <c r="D572" s="10"/>
-      <c r="E572" s="10"/>
+      <c r="D572" s="11"/>
+      <c r="E572" s="11"/>
     </row>
     <row r="573">
-      <c r="D573" s="10"/>
-      <c r="E573" s="10"/>
+      <c r="D573" s="11"/>
+      <c r="E573" s="11"/>
     </row>
     <row r="574">
-      <c r="D574" s="10"/>
-      <c r="E574" s="10"/>
+      <c r="D574" s="11"/>
+      <c r="E574" s="11"/>
     </row>
     <row r="575">
-      <c r="D575" s="10"/>
-      <c r="E575" s="10"/>
+      <c r="D575" s="11"/>
+      <c r="E575" s="11"/>
     </row>
     <row r="576">
-      <c r="D576" s="10"/>
-      <c r="E576" s="10"/>
+      <c r="D576" s="11"/>
+      <c r="E576" s="11"/>
     </row>
     <row r="577">
-      <c r="D577" s="10"/>
-      <c r="E577" s="10"/>
+      <c r="D577" s="11"/>
+      <c r="E577" s="11"/>
     </row>
     <row r="578">
-      <c r="D578" s="10"/>
-      <c r="E578" s="10"/>
+      <c r="D578" s="11"/>
+      <c r="E578" s="11"/>
     </row>
     <row r="579">
-      <c r="D579" s="10"/>
-      <c r="E579" s="10"/>
+      <c r="D579" s="11"/>
+      <c r="E579" s="11"/>
     </row>
     <row r="580">
-      <c r="D580" s="10"/>
-      <c r="E580" s="10"/>
+      <c r="D580" s="11"/>
+      <c r="E580" s="11"/>
     </row>
     <row r="581">
-      <c r="D581" s="10"/>
-      <c r="E581" s="10"/>
+      <c r="D581" s="11"/>
+      <c r="E581" s="11"/>
     </row>
     <row r="582">
-      <c r="D582" s="10"/>
-      <c r="E582" s="10"/>
+      <c r="D582" s="11"/>
+      <c r="E582" s="11"/>
     </row>
     <row r="583">
-      <c r="D583" s="10"/>
-      <c r="E583" s="10"/>
+      <c r="D583" s="11"/>
+      <c r="E583" s="11"/>
     </row>
     <row r="584">
-      <c r="D584" s="10"/>
-      <c r="E584" s="10"/>
+      <c r="D584" s="11"/>
+      <c r="E584" s="11"/>
     </row>
     <row r="585">
-      <c r="D585" s="10"/>
-      <c r="E585" s="10"/>
+      <c r="D585" s="11"/>
+      <c r="E585" s="11"/>
     </row>
     <row r="586">
-      <c r="D586" s="10"/>
-      <c r="E586" s="10"/>
+      <c r="D586" s="11"/>
+      <c r="E586" s="11"/>
     </row>
     <row r="587">
-      <c r="D587" s="10"/>
-      <c r="E587" s="10"/>
+      <c r="D587" s="11"/>
+      <c r="E587" s="11"/>
     </row>
     <row r="588">
-      <c r="D588" s="10"/>
-      <c r="E588" s="10"/>
+      <c r="D588" s="11"/>
+      <c r="E588" s="11"/>
     </row>
     <row r="589">
-      <c r="D589" s="10"/>
-      <c r="E589" s="10"/>
+      <c r="D589" s="11"/>
+      <c r="E589" s="11"/>
     </row>
     <row r="590">
-      <c r="D590" s="10"/>
-      <c r="E590" s="10"/>
+      <c r="D590" s="11"/>
+      <c r="E590" s="11"/>
     </row>
     <row r="591">
-      <c r="D591" s="10"/>
-      <c r="E591" s="10"/>
+      <c r="D591" s="11"/>
+      <c r="E591" s="11"/>
     </row>
     <row r="592">
-      <c r="D592" s="10"/>
-      <c r="E592" s="10"/>
+      <c r="D592" s="11"/>
+      <c r="E592" s="11"/>
     </row>
     <row r="593">
-      <c r="D593" s="10"/>
-      <c r="E593" s="10"/>
+      <c r="D593" s="11"/>
+      <c r="E593" s="11"/>
     </row>
     <row r="594">
-      <c r="D594" s="10"/>
-      <c r="E594" s="10"/>
+      <c r="D594" s="11"/>
+      <c r="E594" s="11"/>
     </row>
     <row r="595">
-      <c r="D595" s="10"/>
-      <c r="E595" s="10"/>
+      <c r="D595" s="11"/>
+      <c r="E595" s="11"/>
     </row>
     <row r="596">
-      <c r="D596" s="10"/>
-      <c r="E596" s="10"/>
+      <c r="D596" s="11"/>
+      <c r="E596" s="11"/>
     </row>
     <row r="597">
-      <c r="D597" s="10"/>
-      <c r="E597" s="10"/>
+      <c r="D597" s="11"/>
+      <c r="E597" s="11"/>
     </row>
     <row r="598">
-      <c r="D598" s="10"/>
-      <c r="E598" s="10"/>
+      <c r="D598" s="11"/>
+      <c r="E598" s="11"/>
     </row>
     <row r="599">
-      <c r="D599" s="10"/>
-      <c r="E599" s="10"/>
+      <c r="D599" s="11"/>
+      <c r="E599" s="11"/>
     </row>
     <row r="600">
-      <c r="D600" s="10"/>
-      <c r="E600" s="10"/>
+      <c r="D600" s="11"/>
+      <c r="E600" s="11"/>
     </row>
     <row r="601">
-      <c r="D601" s="10"/>
-      <c r="E601" s="10"/>
+      <c r="D601" s="11"/>
+      <c r="E601" s="11"/>
     </row>
     <row r="602">
-      <c r="D602" s="10"/>
-      <c r="E602" s="10"/>
+      <c r="D602" s="11"/>
+      <c r="E602" s="11"/>
     </row>
     <row r="603">
-      <c r="D603" s="10"/>
-      <c r="E603" s="10"/>
+      <c r="D603" s="11"/>
+      <c r="E603" s="11"/>
     </row>
     <row r="604">
-      <c r="D604" s="10"/>
-      <c r="E604" s="10"/>
+      <c r="D604" s="11"/>
+      <c r="E604" s="11"/>
     </row>
     <row r="605">
-      <c r="D605" s="10"/>
-      <c r="E605" s="10"/>
+      <c r="D605" s="11"/>
+      <c r="E605" s="11"/>
     </row>
     <row r="606">
-      <c r="D606" s="10"/>
-      <c r="E606" s="10"/>
+      <c r="D606" s="11"/>
+      <c r="E606" s="11"/>
     </row>
     <row r="607">
-      <c r="D607" s="10"/>
-      <c r="E607" s="10"/>
+      <c r="D607" s="11"/>
+      <c r="E607" s="11"/>
     </row>
     <row r="608">
-      <c r="D608" s="10"/>
-      <c r="E608" s="10"/>
+      <c r="D608" s="11"/>
+      <c r="E608" s="11"/>
     </row>
     <row r="609">
-      <c r="D609" s="10"/>
-      <c r="E609" s="10"/>
+      <c r="D609" s="11"/>
+      <c r="E609" s="11"/>
     </row>
     <row r="610">
-      <c r="D610" s="10"/>
-      <c r="E610" s="10"/>
+      <c r="D610" s="11"/>
+      <c r="E610" s="11"/>
     </row>
     <row r="611">
-      <c r="D611" s="10"/>
-      <c r="E611" s="10"/>
+      <c r="D611" s="11"/>
+      <c r="E611" s="11"/>
     </row>
     <row r="612">
-      <c r="D612" s="10"/>
-      <c r="E612" s="10"/>
+      <c r="D612" s="11"/>
+      <c r="E612" s="11"/>
     </row>
     <row r="613">
-      <c r="D613" s="10"/>
-      <c r="E613" s="10"/>
+      <c r="D613" s="11"/>
+      <c r="E613" s="11"/>
     </row>
     <row r="614">
-      <c r="D614" s="10"/>
-      <c r="E614" s="10"/>
+      <c r="D614" s="11"/>
+      <c r="E614" s="11"/>
     </row>
     <row r="615">
-      <c r="D615" s="10"/>
-      <c r="E615" s="10"/>
+      <c r="D615" s="11"/>
+      <c r="E615" s="11"/>
     </row>
     <row r="616">
-      <c r="D616" s="10"/>
-      <c r="E616" s="10"/>
+      <c r="D616" s="11"/>
+      <c r="E616" s="11"/>
     </row>
     <row r="617">
-      <c r="D617" s="10"/>
-      <c r="E617" s="10"/>
+      <c r="D617" s="11"/>
+      <c r="E617" s="11"/>
     </row>
     <row r="618">
-      <c r="D618" s="10"/>
-      <c r="E618" s="10"/>
+      <c r="D618" s="11"/>
+      <c r="E618" s="11"/>
     </row>
     <row r="619">
-      <c r="D619" s="10"/>
-      <c r="E619" s="10"/>
+      <c r="D619" s="11"/>
+      <c r="E619" s="11"/>
     </row>
     <row r="620">
-      <c r="D620" s="10"/>
-      <c r="E620" s="10"/>
+      <c r="D620" s="11"/>
+      <c r="E620" s="11"/>
     </row>
     <row r="621">
-      <c r="D621" s="10"/>
-      <c r="E621" s="10"/>
+      <c r="D621" s="11"/>
+      <c r="E621" s="11"/>
     </row>
     <row r="622">
-      <c r="D622" s="10"/>
-      <c r="E622" s="10"/>
+      <c r="D622" s="11"/>
+      <c r="E622" s="11"/>
     </row>
     <row r="623">
-      <c r="D623" s="10"/>
-      <c r="E623" s="10"/>
+      <c r="D623" s="11"/>
+      <c r="E623" s="11"/>
     </row>
     <row r="624">
-      <c r="D624" s="10"/>
-      <c r="E624" s="10"/>
+      <c r="D624" s="11"/>
+      <c r="E624" s="11"/>
     </row>
     <row r="625">
-      <c r="D625" s="10"/>
-      <c r="E625" s="10"/>
+      <c r="D625" s="11"/>
+      <c r="E625" s="11"/>
     </row>
     <row r="626">
-      <c r="D626" s="10"/>
-      <c r="E626" s="10"/>
+      <c r="D626" s="11"/>
+      <c r="E626" s="11"/>
     </row>
     <row r="627">
-      <c r="D627" s="10"/>
-      <c r="E627" s="10"/>
+      <c r="D627" s="11"/>
+      <c r="E627" s="11"/>
     </row>
     <row r="628">
-      <c r="D628" s="10"/>
-      <c r="E628" s="10"/>
+      <c r="D628" s="11"/>
+      <c r="E628" s="11"/>
     </row>
     <row r="629">
-      <c r="D629" s="10"/>
-      <c r="E629" s="10"/>
+      <c r="D629" s="11"/>
+      <c r="E629" s="11"/>
     </row>
     <row r="630">
-      <c r="D630" s="10"/>
-      <c r="E630" s="10"/>
+      <c r="D630" s="11"/>
+      <c r="E630" s="11"/>
     </row>
     <row r="631">
-      <c r="D631" s="10"/>
-      <c r="E631" s="10"/>
+      <c r="D631" s="11"/>
+      <c r="E631" s="11"/>
     </row>
     <row r="632">
-      <c r="D632" s="10"/>
-      <c r="E632" s="10"/>
+      <c r="D632" s="11"/>
+      <c r="E632" s="11"/>
     </row>
     <row r="633">
-      <c r="D633" s="10"/>
-      <c r="E633" s="10"/>
+      <c r="D633" s="11"/>
+      <c r="E633" s="11"/>
     </row>
     <row r="634">
-      <c r="D634" s="10"/>
-      <c r="E634" s="10"/>
+      <c r="D634" s="11"/>
+      <c r="E634" s="11"/>
     </row>
     <row r="635">
-      <c r="D635" s="10"/>
-      <c r="E635" s="10"/>
+      <c r="D635" s="11"/>
+      <c r="E635" s="11"/>
     </row>
     <row r="636">
-      <c r="D636" s="10"/>
-      <c r="E636" s="10"/>
+      <c r="D636" s="11"/>
+      <c r="E636" s="11"/>
     </row>
     <row r="637">
-      <c r="D637" s="10"/>
-      <c r="E637" s="10"/>
+      <c r="D637" s="11"/>
+      <c r="E637" s="11"/>
     </row>
     <row r="638">
-      <c r="D638" s="10"/>
-      <c r="E638" s="10"/>
+      <c r="D638" s="11"/>
+      <c r="E638" s="11"/>
     </row>
     <row r="639">
-      <c r="D639" s="10"/>
-      <c r="E639" s="10"/>
+      <c r="D639" s="11"/>
+      <c r="E639" s="11"/>
     </row>
     <row r="640">
-      <c r="D640" s="10"/>
-      <c r="E640" s="10"/>
+      <c r="D640" s="11"/>
+      <c r="E640" s="11"/>
     </row>
     <row r="641">
-      <c r="D641" s="10"/>
-      <c r="E641" s="10"/>
+      <c r="D641" s="11"/>
+      <c r="E641" s="11"/>
     </row>
     <row r="642">
-      <c r="D642" s="10"/>
-      <c r="E642" s="10"/>
+      <c r="D642" s="11"/>
+      <c r="E642" s="11"/>
     </row>
     <row r="643">
-      <c r="D643" s="10"/>
-      <c r="E643" s="10"/>
+      <c r="D643" s="11"/>
+      <c r="E643" s="11"/>
     </row>
     <row r="644">
-      <c r="D644" s="10"/>
-      <c r="E644" s="10"/>
+      <c r="D644" s="11"/>
+      <c r="E644" s="11"/>
     </row>
     <row r="645">
-      <c r="D645" s="10"/>
-      <c r="E645" s="10"/>
+      <c r="D645" s="11"/>
+      <c r="E645" s="11"/>
     </row>
     <row r="646">
-      <c r="D646" s="10"/>
-      <c r="E646" s="10"/>
+      <c r="D646" s="11"/>
+      <c r="E646" s="11"/>
     </row>
     <row r="647">
-      <c r="D647" s="10"/>
-      <c r="E647" s="10"/>
+      <c r="D647" s="11"/>
+      <c r="E647" s="11"/>
     </row>
     <row r="648">
-      <c r="D648" s="10"/>
-      <c r="E648" s="10"/>
+      <c r="D648" s="11"/>
+      <c r="E648" s="11"/>
     </row>
     <row r="649">
-      <c r="D649" s="10"/>
-      <c r="E649" s="10"/>
+      <c r="D649" s="11"/>
+      <c r="E649" s="11"/>
     </row>
     <row r="650">
-      <c r="D650" s="10"/>
-      <c r="E650" s="10"/>
+      <c r="D650" s="11"/>
+      <c r="E650" s="11"/>
     </row>
     <row r="651">
-      <c r="D651" s="10"/>
-      <c r="E651" s="10"/>
+      <c r="D651" s="11"/>
+      <c r="E651" s="11"/>
     </row>
     <row r="652">
-      <c r="D652" s="10"/>
-      <c r="E652" s="10"/>
+      <c r="D652" s="11"/>
+      <c r="E652" s="11"/>
     </row>
     <row r="653">
-      <c r="D653" s="10"/>
-      <c r="E653" s="10"/>
+      <c r="D653" s="11"/>
+      <c r="E653" s="11"/>
     </row>
     <row r="654">
-      <c r="D654" s="10"/>
-      <c r="E654" s="10"/>
+      <c r="D654" s="11"/>
+      <c r="E654" s="11"/>
     </row>
     <row r="655">
-      <c r="D655" s="10"/>
-      <c r="E655" s="10"/>
+      <c r="D655" s="11"/>
+      <c r="E655" s="11"/>
     </row>
     <row r="656">
-      <c r="D656" s="10"/>
-      <c r="E656" s="10"/>
+      <c r="D656" s="11"/>
+      <c r="E656" s="11"/>
     </row>
     <row r="657">
-      <c r="D657" s="10"/>
-      <c r="E657" s="10"/>
+      <c r="D657" s="11"/>
+      <c r="E657" s="11"/>
     </row>
     <row r="658">
-      <c r="D658" s="10"/>
-      <c r="E658" s="10"/>
+      <c r="D658" s="11"/>
+      <c r="E658" s="11"/>
     </row>
     <row r="659">
-      <c r="D659" s="10"/>
-      <c r="E659" s="10"/>
+      <c r="D659" s="11"/>
+      <c r="E659" s="11"/>
     </row>
     <row r="660">
-      <c r="D660" s="10"/>
-      <c r="E660" s="10"/>
+      <c r="D660" s="11"/>
+      <c r="E660" s="11"/>
     </row>
     <row r="661">
-      <c r="D661" s="10"/>
-      <c r="E661" s="10"/>
+      <c r="D661" s="11"/>
+      <c r="E661" s="11"/>
     </row>
     <row r="662">
-      <c r="D662" s="10"/>
-      <c r="E662" s="10"/>
+      <c r="D662" s="11"/>
+      <c r="E662" s="11"/>
     </row>
     <row r="663">
-      <c r="D663" s="10"/>
-      <c r="E663" s="10"/>
+      <c r="D663" s="11"/>
+      <c r="E663" s="11"/>
     </row>
     <row r="664">
-      <c r="D664" s="10"/>
-      <c r="E664" s="10"/>
+      <c r="D664" s="11"/>
+      <c r="E664" s="11"/>
     </row>
     <row r="665">
-      <c r="D665" s="10"/>
-      <c r="E665" s="10"/>
+      <c r="D665" s="11"/>
+      <c r="E665" s="11"/>
     </row>
     <row r="666">
-      <c r="D666" s="10"/>
-      <c r="E666" s="10"/>
+      <c r="D666" s="11"/>
+      <c r="E666" s="11"/>
     </row>
     <row r="667">
-      <c r="D667" s="10"/>
-      <c r="E667" s="10"/>
+      <c r="D667" s="11"/>
+      <c r="E667" s="11"/>
     </row>
     <row r="668">
-      <c r="D668" s="10"/>
-      <c r="E668" s="10"/>
+      <c r="D668" s="11"/>
+      <c r="E668" s="11"/>
     </row>
     <row r="669">
-      <c r="D669" s="10"/>
-      <c r="E669" s="10"/>
+      <c r="D669" s="11"/>
+      <c r="E669" s="11"/>
     </row>
     <row r="670">
-      <c r="D670" s="10"/>
-      <c r="E670" s="10"/>
+      <c r="D670" s="11"/>
+      <c r="E670" s="11"/>
     </row>
     <row r="671">
-      <c r="D671" s="10"/>
-      <c r="E671" s="10"/>
+      <c r="D671" s="11"/>
+      <c r="E671" s="11"/>
     </row>
     <row r="672">
-      <c r="D672" s="10"/>
-      <c r="E672" s="10"/>
+      <c r="D672" s="11"/>
+      <c r="E672" s="11"/>
     </row>
     <row r="673">
-      <c r="D673" s="10"/>
-      <c r="E673" s="10"/>
+      <c r="D673" s="11"/>
+      <c r="E673" s="11"/>
     </row>
     <row r="674">
-      <c r="D674" s="10"/>
-      <c r="E674" s="10"/>
+      <c r="D674" s="11"/>
+      <c r="E674" s="11"/>
     </row>
     <row r="675">
-      <c r="D675" s="10"/>
-      <c r="E675" s="10"/>
+      <c r="D675" s="11"/>
+      <c r="E675" s="11"/>
     </row>
     <row r="676">
-      <c r="D676" s="10"/>
-      <c r="E676" s="10"/>
+      <c r="D676" s="11"/>
+      <c r="E676" s="11"/>
     </row>
     <row r="677">
-      <c r="D677" s="10"/>
-      <c r="E677" s="10"/>
+      <c r="D677" s="11"/>
+      <c r="E677" s="11"/>
     </row>
     <row r="678">
-      <c r="D678" s="10"/>
-      <c r="E678" s="10"/>
+      <c r="D678" s="11"/>
+      <c r="E678" s="11"/>
     </row>
     <row r="679">
-      <c r="D679" s="10"/>
-      <c r="E679" s="10"/>
+      <c r="D679" s="11"/>
+      <c r="E679" s="11"/>
     </row>
     <row r="680">
-      <c r="D680" s="10"/>
-      <c r="E680" s="10"/>
+      <c r="D680" s="11"/>
+      <c r="E680" s="11"/>
     </row>
     <row r="681">
-      <c r="D681" s="10"/>
-      <c r="E681" s="10"/>
+      <c r="D681" s="11"/>
+      <c r="E681" s="11"/>
     </row>
     <row r="682">
-      <c r="D682" s="10"/>
-      <c r="E682" s="10"/>
+      <c r="D682" s="11"/>
+      <c r="E682" s="11"/>
     </row>
     <row r="683">
-      <c r="D683" s="10"/>
-      <c r="E683" s="10"/>
+      <c r="D683" s="11"/>
+      <c r="E683" s="11"/>
     </row>
     <row r="684">
-      <c r="D684" s="10"/>
-      <c r="E684" s="10"/>
+      <c r="D684" s="11"/>
+      <c r="E684" s="11"/>
     </row>
     <row r="685">
-      <c r="D685" s="10"/>
-      <c r="E685" s="10"/>
+      <c r="D685" s="11"/>
+      <c r="E685" s="11"/>
     </row>
     <row r="686">
-      <c r="D686" s="10"/>
-      <c r="E686" s="10"/>
+      <c r="D686" s="11"/>
+      <c r="E686" s="11"/>
     </row>
     <row r="687">
-      <c r="D687" s="10"/>
-      <c r="E687" s="10"/>
+      <c r="D687" s="11"/>
+      <c r="E687" s="11"/>
     </row>
     <row r="688">
-      <c r="D688" s="10"/>
-      <c r="E688" s="10"/>
+      <c r="D688" s="11"/>
+      <c r="E688" s="11"/>
     </row>
     <row r="689">
-      <c r="D689" s="10"/>
-      <c r="E689" s="10"/>
+      <c r="D689" s="11"/>
+      <c r="E689" s="11"/>
     </row>
     <row r="690">
-      <c r="D690" s="10"/>
-      <c r="E690" s="10"/>
+      <c r="D690" s="11"/>
+      <c r="E690" s="11"/>
     </row>
     <row r="691">
-      <c r="D691" s="10"/>
-      <c r="E691" s="10"/>
+      <c r="D691" s="11"/>
+      <c r="E691" s="11"/>
     </row>
     <row r="692">
-      <c r="D692" s="10"/>
-      <c r="E692" s="10"/>
+      <c r="D692" s="11"/>
+      <c r="E692" s="11"/>
     </row>
     <row r="693">
-      <c r="D693" s="10"/>
-      <c r="E693" s="10"/>
+      <c r="D693" s="11"/>
+      <c r="E693" s="11"/>
     </row>
     <row r="694">
-      <c r="D694" s="10"/>
-      <c r="E694" s="10"/>
+      <c r="D694" s="11"/>
+      <c r="E694" s="11"/>
     </row>
     <row r="695">
-      <c r="D695" s="10"/>
-      <c r="E695" s="10"/>
+      <c r="D695" s="11"/>
+      <c r="E695" s="11"/>
     </row>
     <row r="696">
-      <c r="D696" s="10"/>
-      <c r="E696" s="10"/>
+      <c r="D696" s="11"/>
+      <c r="E696" s="11"/>
     </row>
     <row r="697">
-      <c r="D697" s="10"/>
-      <c r="E697" s="10"/>
+      <c r="D697" s="11"/>
+      <c r="E697" s="11"/>
     </row>
     <row r="698">
-      <c r="D698" s="10"/>
-      <c r="E698" s="10"/>
+      <c r="D698" s="11"/>
+      <c r="E698" s="11"/>
     </row>
     <row r="699">
-      <c r="D699" s="10"/>
-      <c r="E699" s="10"/>
+      <c r="D699" s="11"/>
+      <c r="E699" s="11"/>
     </row>
     <row r="700">
-      <c r="D700" s="10"/>
-      <c r="E700" s="10"/>
+      <c r="D700" s="11"/>
+      <c r="E700" s="11"/>
     </row>
     <row r="701">
-      <c r="D701" s="10"/>
-      <c r="E701" s="10"/>
+      <c r="D701" s="11"/>
+      <c r="E701" s="11"/>
     </row>
     <row r="702">
-      <c r="D702" s="10"/>
-      <c r="E702" s="10"/>
+      <c r="D702" s="11"/>
+      <c r="E702" s="11"/>
     </row>
     <row r="703">
-      <c r="D703" s="10"/>
-      <c r="E703" s="10"/>
+      <c r="D703" s="11"/>
+      <c r="E703" s="11"/>
     </row>
     <row r="704">
-      <c r="D704" s="10"/>
-      <c r="E704" s="10"/>
+      <c r="D704" s="11"/>
+      <c r="E704" s="11"/>
     </row>
     <row r="705">
-      <c r="D705" s="10"/>
-      <c r="E705" s="10"/>
+      <c r="D705" s="11"/>
+      <c r="E705" s="11"/>
     </row>
     <row r="706">
-      <c r="D706" s="10"/>
-      <c r="E706" s="10"/>
+      <c r="D706" s="11"/>
+      <c r="E706" s="11"/>
     </row>
     <row r="707">
-      <c r="D707" s="10"/>
-      <c r="E707" s="10"/>
+      <c r="D707" s="11"/>
+      <c r="E707" s="11"/>
     </row>
     <row r="708">
-      <c r="D708" s="10"/>
-      <c r="E708" s="10"/>
+      <c r="D708" s="11"/>
+      <c r="E708" s="11"/>
     </row>
     <row r="709">
-      <c r="D709" s="10"/>
-      <c r="E709" s="10"/>
+      <c r="D709" s="11"/>
+      <c r="E709" s="11"/>
     </row>
     <row r="710">
-      <c r="D710" s="10"/>
-      <c r="E710" s="10"/>
+      <c r="D710" s="11"/>
+      <c r="E710" s="11"/>
     </row>
     <row r="711">
-      <c r="D711" s="10"/>
-      <c r="E711" s="10"/>
+      <c r="D711" s="11"/>
+      <c r="E711" s="11"/>
     </row>
     <row r="712">
-      <c r="D712" s="10"/>
-      <c r="E712" s="10"/>
+      <c r="D712" s="11"/>
+      <c r="E712" s="11"/>
     </row>
     <row r="713">
-      <c r="D713" s="10"/>
-      <c r="E713" s="10"/>
+      <c r="D713" s="11"/>
+      <c r="E713" s="11"/>
     </row>
     <row r="714">
-      <c r="D714" s="10"/>
-      <c r="E714" s="10"/>
+      <c r="D714" s="11"/>
+      <c r="E714" s="11"/>
     </row>
     <row r="715">
-      <c r="D715" s="10"/>
-      <c r="E715" s="10"/>
+      <c r="D715" s="11"/>
+      <c r="E715" s="11"/>
     </row>
     <row r="716">
-      <c r="D716" s="10"/>
-      <c r="E716" s="10"/>
+      <c r="D716" s="11"/>
+      <c r="E716" s="11"/>
     </row>
     <row r="717">
-      <c r="D717" s="10"/>
-      <c r="E717" s="10"/>
+      <c r="D717" s="11"/>
+      <c r="E717" s="11"/>
     </row>
     <row r="718">
-      <c r="D718" s="10"/>
-      <c r="E718" s="10"/>
+      <c r="D718" s="11"/>
+      <c r="E718" s="11"/>
     </row>
     <row r="719">
-      <c r="D719" s="10"/>
-      <c r="E719" s="10"/>
+      <c r="D719" s="11"/>
+      <c r="E719" s="11"/>
     </row>
     <row r="720">
-      <c r="D720" s="10"/>
-      <c r="E720" s="10"/>
+      <c r="D720" s="11"/>
+      <c r="E720" s="11"/>
     </row>
     <row r="721">
-      <c r="D721" s="10"/>
-      <c r="E721" s="10"/>
+      <c r="D721" s="11"/>
+      <c r="E721" s="11"/>
     </row>
     <row r="722">
-      <c r="D722" s="10"/>
-      <c r="E722" s="10"/>
+      <c r="D722" s="11"/>
+      <c r="E722" s="11"/>
     </row>
     <row r="723">
-      <c r="D723" s="10"/>
-      <c r="E723" s="10"/>
+      <c r="D723" s="11"/>
+      <c r="E723" s="11"/>
     </row>
     <row r="724">
-      <c r="D724" s="10"/>
-      <c r="E724" s="10"/>
+      <c r="D724" s="11"/>
+      <c r="E724" s="11"/>
     </row>
     <row r="725">
-      <c r="D725" s="10"/>
-      <c r="E725" s="10"/>
+      <c r="D725" s="11"/>
+      <c r="E725" s="11"/>
     </row>
     <row r="726">
-      <c r="D726" s="10"/>
-      <c r="E726" s="10"/>
+      <c r="D726" s="11"/>
+      <c r="E726" s="11"/>
     </row>
     <row r="727">
-      <c r="D727" s="10"/>
-      <c r="E727" s="10"/>
+      <c r="D727" s="11"/>
+      <c r="E727" s="11"/>
     </row>
     <row r="728">
-      <c r="D728" s="10"/>
-      <c r="E728" s="10"/>
+      <c r="D728" s="11"/>
+      <c r="E728" s="11"/>
     </row>
     <row r="729">
-      <c r="D729" s="10"/>
-      <c r="E729" s="10"/>
+      <c r="D729" s="11"/>
+      <c r="E729" s="11"/>
     </row>
     <row r="730">
-      <c r="D730" s="10"/>
-      <c r="E730" s="10"/>
+      <c r="D730" s="11"/>
+      <c r="E730" s="11"/>
     </row>
     <row r="731">
-      <c r="D731" s="10"/>
-      <c r="E731" s="10"/>
+      <c r="D731" s="11"/>
+      <c r="E731" s="11"/>
     </row>
     <row r="732">
-      <c r="D732" s="10"/>
-      <c r="E732" s="10"/>
+      <c r="D732" s="11"/>
+      <c r="E732" s="11"/>
     </row>
     <row r="733">
-      <c r="D733" s="10"/>
-      <c r="E733" s="10"/>
+      <c r="D733" s="11"/>
+      <c r="E733" s="11"/>
     </row>
     <row r="734">
-      <c r="D734" s="10"/>
-      <c r="E734" s="10"/>
+      <c r="D734" s="11"/>
+      <c r="E734" s="11"/>
     </row>
     <row r="735">
-      <c r="D735" s="10"/>
-      <c r="E735" s="10"/>
+      <c r="D735" s="11"/>
+      <c r="E735" s="11"/>
     </row>
     <row r="736">
-      <c r="D736" s="10"/>
-      <c r="E736" s="10"/>
+      <c r="D736" s="11"/>
+      <c r="E736" s="11"/>
     </row>
     <row r="737">
-      <c r="D737" s="10"/>
-      <c r="E737" s="10"/>
+      <c r="D737" s="11"/>
+      <c r="E737" s="11"/>
     </row>
     <row r="738">
-      <c r="D738" s="10"/>
-      <c r="E738" s="10"/>
+      <c r="D738" s="11"/>
+      <c r="E738" s="11"/>
     </row>
     <row r="739">
-      <c r="D739" s="10"/>
-      <c r="E739" s="10"/>
+      <c r="D739" s="11"/>
+      <c r="E739" s="11"/>
     </row>
     <row r="740">
-      <c r="D740" s="10"/>
-      <c r="E740" s="10"/>
+      <c r="D740" s="11"/>
+      <c r="E740" s="11"/>
     </row>
     <row r="741">
-      <c r="D741" s="10"/>
-      <c r="E741" s="10"/>
+      <c r="D741" s="11"/>
+      <c r="E741" s="11"/>
     </row>
     <row r="742">
-      <c r="D742" s="10"/>
-      <c r="E742" s="10"/>
+      <c r="D742" s="11"/>
+      <c r="E742" s="11"/>
     </row>
     <row r="743">
-      <c r="D743" s="10"/>
-      <c r="E743" s="10"/>
+      <c r="D743" s="11"/>
+      <c r="E743" s="11"/>
     </row>
     <row r="744">
-      <c r="D744" s="10"/>
-      <c r="E744" s="10"/>
+      <c r="D744" s="11"/>
+      <c r="E744" s="11"/>
     </row>
     <row r="745">
-      <c r="D745" s="10"/>
-      <c r="E745" s="10"/>
+      <c r="D745" s="11"/>
+      <c r="E745" s="11"/>
     </row>
     <row r="746">
-      <c r="D746" s="10"/>
-      <c r="E746" s="10"/>
+      <c r="D746" s="11"/>
+      <c r="E746" s="11"/>
     </row>
     <row r="747">
-      <c r="D747" s="10"/>
-      <c r="E747" s="10"/>
+      <c r="D747" s="11"/>
+      <c r="E747" s="11"/>
     </row>
     <row r="748">
-      <c r="D748" s="10"/>
-      <c r="E748" s="10"/>
+      <c r="D748" s="11"/>
+      <c r="E748" s="11"/>
     </row>
     <row r="749">
-      <c r="D749" s="10"/>
-      <c r="E749" s="10"/>
+      <c r="D749" s="11"/>
+      <c r="E749" s="11"/>
     </row>
     <row r="750">
-      <c r="D750" s="10"/>
-      <c r="E750" s="10"/>
+      <c r="D750" s="11"/>
+      <c r="E750" s="11"/>
     </row>
     <row r="751">
-      <c r="D751" s="10"/>
-      <c r="E751" s="10"/>
+      <c r="D751" s="11"/>
+      <c r="E751" s="11"/>
     </row>
     <row r="752">
-      <c r="D752" s="10"/>
-      <c r="E752" s="10"/>
+      <c r="D752" s="11"/>
+      <c r="E752" s="11"/>
     </row>
     <row r="753">
-      <c r="D753" s="10"/>
-      <c r="E753" s="10"/>
+      <c r="D753" s="11"/>
+      <c r="E753" s="11"/>
     </row>
     <row r="754">
-      <c r="D754" s="10"/>
-      <c r="E754" s="10"/>
+      <c r="D754" s="11"/>
+      <c r="E754" s="11"/>
     </row>
     <row r="755">
-      <c r="D755" s="10"/>
-      <c r="E755" s="10"/>
+      <c r="D755" s="11"/>
+      <c r="E755" s="11"/>
     </row>
     <row r="756">
-      <c r="D756" s="10"/>
-      <c r="E756" s="10"/>
+      <c r="D756" s="11"/>
+      <c r="E756" s="11"/>
     </row>
     <row r="757">
-      <c r="D757" s="10"/>
-      <c r="E757" s="10"/>
+      <c r="D757" s="11"/>
+      <c r="E757" s="11"/>
     </row>
     <row r="758">
-      <c r="D758" s="10"/>
-      <c r="E758" s="10"/>
+      <c r="D758" s="11"/>
+      <c r="E758" s="11"/>
     </row>
     <row r="759">
-      <c r="D759" s="10"/>
-      <c r="E759" s="10"/>
+      <c r="D759" s="11"/>
+      <c r="E759" s="11"/>
     </row>
     <row r="760">
-      <c r="D760" s="10"/>
-      <c r="E760" s="10"/>
+      <c r="D760" s="11"/>
+      <c r="E760" s="11"/>
     </row>
     <row r="761">
-      <c r="D761" s="10"/>
-      <c r="E761" s="10"/>
+      <c r="D761" s="11"/>
+      <c r="E761" s="11"/>
     </row>
     <row r="762">
-      <c r="D762" s="10"/>
-      <c r="E762" s="10"/>
+      <c r="D762" s="11"/>
+      <c r="E762" s="11"/>
     </row>
     <row r="763">
-      <c r="D763" s="10"/>
-      <c r="E763" s="10"/>
+      <c r="D763" s="11"/>
+      <c r="E763" s="11"/>
     </row>
     <row r="764">
-      <c r="D764" s="10"/>
-      <c r="E764" s="10"/>
+      <c r="D764" s="11"/>
+      <c r="E764" s="11"/>
     </row>
     <row r="765">
-      <c r="D765" s="10"/>
-      <c r="E765" s="10"/>
+      <c r="D765" s="11"/>
+      <c r="E765" s="11"/>
     </row>
     <row r="766">
-      <c r="D766" s="10"/>
-      <c r="E766" s="10"/>
+      <c r="D766" s="11"/>
+      <c r="E766" s="11"/>
     </row>
     <row r="767">
-      <c r="D767" s="10"/>
-      <c r="E767" s="10"/>
+      <c r="D767" s="11"/>
+      <c r="E767" s="11"/>
     </row>
     <row r="768">
-      <c r="D768" s="10"/>
-      <c r="E768" s="10"/>
+      <c r="D768" s="11"/>
+      <c r="E768" s="11"/>
     </row>
     <row r="769">
-      <c r="D769" s="10"/>
-      <c r="E769" s="10"/>
+      <c r="D769" s="11"/>
+      <c r="E769" s="11"/>
     </row>
     <row r="770">
-      <c r="D770" s="10"/>
-      <c r="E770" s="10"/>
+      <c r="D770" s="11"/>
+      <c r="E770" s="11"/>
     </row>
     <row r="771">
-      <c r="D771" s="10"/>
-      <c r="E771" s="10"/>
+      <c r="D771" s="11"/>
+      <c r="E771" s="11"/>
     </row>
     <row r="772">
-      <c r="D772" s="10"/>
-      <c r="E772" s="10"/>
+      <c r="D772" s="11"/>
+      <c r="E772" s="11"/>
     </row>
     <row r="773">
-      <c r="D773" s="10"/>
-      <c r="E773" s="10"/>
+      <c r="D773" s="11"/>
+      <c r="E773" s="11"/>
     </row>
     <row r="774">
-      <c r="D774" s="10"/>
-      <c r="E774" s="10"/>
+      <c r="D774" s="11"/>
+      <c r="E774" s="11"/>
     </row>
     <row r="775">
-      <c r="D775" s="10"/>
-      <c r="E775" s="10"/>
+      <c r="D775" s="11"/>
+      <c r="E775" s="11"/>
     </row>
     <row r="776">
-      <c r="D776" s="10"/>
-      <c r="E776" s="10"/>
+      <c r="D776" s="11"/>
+      <c r="E776" s="11"/>
     </row>
     <row r="777">
-      <c r="D777" s="10"/>
-      <c r="E777" s="10"/>
+      <c r="D777" s="11"/>
+      <c r="E777" s="11"/>
     </row>
     <row r="778">
-      <c r="D778" s="10"/>
-      <c r="E778" s="10"/>
+      <c r="D778" s="11"/>
+      <c r="E778" s="11"/>
     </row>
     <row r="779">
-      <c r="D779" s="10"/>
-      <c r="E779" s="10"/>
+      <c r="D779" s="11"/>
+      <c r="E779" s="11"/>
     </row>
     <row r="780">
-      <c r="D780" s="10"/>
-      <c r="E780" s="10"/>
+      <c r="D780" s="11"/>
+      <c r="E780" s="11"/>
     </row>
     <row r="781">
-      <c r="D781" s="10"/>
-      <c r="E781" s="10"/>
+      <c r="D781" s="11"/>
+      <c r="E781" s="11"/>
     </row>
     <row r="782">
-      <c r="D782" s="10"/>
-      <c r="E782" s="10"/>
+      <c r="D782" s="11"/>
+      <c r="E782" s="11"/>
     </row>
     <row r="783">
-      <c r="D783" s="10"/>
-      <c r="E783" s="10"/>
+      <c r="D783" s="11"/>
+      <c r="E783" s="11"/>
     </row>
     <row r="784">
-      <c r="D784" s="10"/>
-      <c r="E784" s="10"/>
+      <c r="D784" s="11"/>
+      <c r="E784" s="11"/>
     </row>
     <row r="785">
-      <c r="D785" s="10"/>
-      <c r="E785" s="10"/>
+      <c r="D785" s="11"/>
+      <c r="E785" s="11"/>
     </row>
     <row r="786">
-      <c r="D786" s="10"/>
-      <c r="E786" s="10"/>
+      <c r="D786" s="11"/>
+      <c r="E786" s="11"/>
     </row>
     <row r="787">
-      <c r="D787" s="10"/>
-      <c r="E787" s="10"/>
+      <c r="D787" s="11"/>
+      <c r="E787" s="11"/>
     </row>
     <row r="788">
-      <c r="D788" s="10"/>
-      <c r="E788" s="10"/>
+      <c r="D788" s="11"/>
+      <c r="E788" s="11"/>
     </row>
     <row r="789">
-      <c r="D789" s="10"/>
-      <c r="E789" s="10"/>
+      <c r="D789" s="11"/>
+      <c r="E789" s="11"/>
     </row>
     <row r="790">
-      <c r="D790" s="10"/>
-      <c r="E790" s="10"/>
+      <c r="D790" s="11"/>
+      <c r="E790" s="11"/>
     </row>
     <row r="791">
-      <c r="D791" s="10"/>
-      <c r="E791" s="10"/>
+      <c r="D791" s="11"/>
+      <c r="E791" s="11"/>
     </row>
     <row r="792">
-      <c r="D792" s="10"/>
-      <c r="E792" s="10"/>
+      <c r="D792" s="11"/>
+      <c r="E792" s="11"/>
     </row>
     <row r="793">
-      <c r="D793" s="10"/>
-      <c r="E793" s="10"/>
+      <c r="D793" s="11"/>
+      <c r="E793" s="11"/>
     </row>
     <row r="794">
-      <c r="D794" s="10"/>
-      <c r="E794" s="10"/>
+      <c r="D794" s="11"/>
+      <c r="E794" s="11"/>
     </row>
     <row r="795">
-      <c r="D795" s="10"/>
-      <c r="E795" s="10"/>
+      <c r="D795" s="11"/>
+      <c r="E795" s="11"/>
     </row>
     <row r="796">
-      <c r="D796" s="10"/>
-      <c r="E796" s="10"/>
+      <c r="D796" s="11"/>
+      <c r="E796" s="11"/>
     </row>
     <row r="797">
-      <c r="D797" s="10"/>
-      <c r="E797" s="10"/>
+      <c r="D797" s="11"/>
+      <c r="E797" s="11"/>
     </row>
     <row r="798">
-      <c r="D798" s="10"/>
-      <c r="E798" s="10"/>
+      <c r="D798" s="11"/>
+      <c r="E798" s="11"/>
     </row>
     <row r="799">
-      <c r="D799" s="10"/>
-      <c r="E799" s="10"/>
+      <c r="D799" s="11"/>
+      <c r="E799" s="11"/>
     </row>
     <row r="800">
-      <c r="D800" s="10"/>
-      <c r="E800" s="10"/>
+      <c r="D800" s="11"/>
+      <c r="E800" s="11"/>
     </row>
     <row r="801">
-      <c r="D801" s="10"/>
-      <c r="E801" s="10"/>
+      <c r="D801" s="11"/>
+      <c r="E801" s="11"/>
     </row>
     <row r="802">
-      <c r="D802" s="10"/>
-      <c r="E802" s="10"/>
+      <c r="D802" s="11"/>
+      <c r="E802" s="11"/>
     </row>
     <row r="803">
-      <c r="D803" s="10"/>
-      <c r="E803" s="10"/>
+      <c r="D803" s="11"/>
+      <c r="E803" s="11"/>
     </row>
     <row r="804">
-      <c r="D804" s="10"/>
-      <c r="E804" s="10"/>
+      <c r="D804" s="11"/>
+      <c r="E804" s="11"/>
     </row>
     <row r="805">
-      <c r="D805" s="10"/>
-      <c r="E805" s="10"/>
+      <c r="D805" s="11"/>
+      <c r="E805" s="11"/>
     </row>
     <row r="806">
-      <c r="D806" s="10"/>
-      <c r="E806" s="10"/>
+      <c r="D806" s="11"/>
+      <c r="E806" s="11"/>
     </row>
     <row r="807">
-      <c r="D807" s="10"/>
-      <c r="E807" s="10"/>
+      <c r="D807" s="11"/>
+      <c r="E807" s="11"/>
     </row>
     <row r="808">
-      <c r="D808" s="10"/>
-      <c r="E808" s="10"/>
+      <c r="D808" s="11"/>
+      <c r="E808" s="11"/>
     </row>
     <row r="809">
-      <c r="D809" s="10"/>
-      <c r="E809" s="10"/>
+      <c r="D809" s="11"/>
+      <c r="E809" s="11"/>
     </row>
     <row r="810">
-      <c r="D810" s="10"/>
-      <c r="E810" s="10"/>
+      <c r="D810" s="11"/>
+      <c r="E810" s="11"/>
     </row>
     <row r="811">
-      <c r="D811" s="10"/>
-      <c r="E811" s="10"/>
+      <c r="D811" s="11"/>
+      <c r="E811" s="11"/>
     </row>
     <row r="812">
-      <c r="D812" s="10"/>
-      <c r="E812" s="10"/>
+      <c r="D812" s="11"/>
+      <c r="E812" s="11"/>
     </row>
     <row r="813">
-      <c r="D813" s="10"/>
-      <c r="E813" s="10"/>
+      <c r="D813" s="11"/>
+      <c r="E813" s="11"/>
     </row>
     <row r="814">
-      <c r="D814" s="10"/>
-      <c r="E814" s="10"/>
+      <c r="D814" s="11"/>
+      <c r="E814" s="11"/>
     </row>
     <row r="815">
-      <c r="D815" s="10"/>
-      <c r="E815" s="10"/>
+      <c r="D815" s="11"/>
+      <c r="E815" s="11"/>
     </row>
     <row r="816">
-      <c r="D816" s="10"/>
-      <c r="E816" s="10"/>
+      <c r="D816" s="11"/>
+      <c r="E816" s="11"/>
     </row>
     <row r="817">
-      <c r="D817" s="10"/>
-      <c r="E817" s="10"/>
+      <c r="D817" s="11"/>
+      <c r="E817" s="11"/>
     </row>
     <row r="818">
-      <c r="D818" s="10"/>
-      <c r="E818" s="10"/>
+      <c r="D818" s="11"/>
+      <c r="E818" s="11"/>
     </row>
     <row r="819">
-      <c r="D819" s="10"/>
-      <c r="E819" s="10"/>
+      <c r="D819" s="11"/>
+      <c r="E819" s="11"/>
     </row>
     <row r="820">
-      <c r="D820" s="10"/>
-      <c r="E820" s="10"/>
+      <c r="D820" s="11"/>
+      <c r="E820" s="11"/>
     </row>
     <row r="821">
-      <c r="D821" s="10"/>
-      <c r="E821" s="10"/>
+      <c r="D821" s="11"/>
+      <c r="E821" s="11"/>
     </row>
     <row r="822">
-      <c r="D822" s="10"/>
-      <c r="E822" s="10"/>
+      <c r="D822" s="11"/>
+      <c r="E822" s="11"/>
     </row>
     <row r="823">
-      <c r="D823" s="10"/>
-      <c r="E823" s="10"/>
+      <c r="D823" s="11"/>
+      <c r="E823" s="11"/>
     </row>
     <row r="824">
-      <c r="D824" s="10"/>
-      <c r="E824" s="10"/>
+      <c r="D824" s="11"/>
+      <c r="E824" s="11"/>
     </row>
     <row r="825">
-      <c r="D825" s="10"/>
-      <c r="E825" s="10"/>
+      <c r="D825" s="11"/>
+      <c r="E825" s="11"/>
     </row>
     <row r="826">
-      <c r="D826" s="10"/>
-      <c r="E826" s="10"/>
+      <c r="D826" s="11"/>
+      <c r="E826" s="11"/>
     </row>
     <row r="827">
-      <c r="D827" s="10"/>
-      <c r="E827" s="10"/>
+      <c r="D827" s="11"/>
+      <c r="E827" s="11"/>
     </row>
     <row r="828">
-      <c r="D828" s="10"/>
-      <c r="E828" s="10"/>
+      <c r="D828" s="11"/>
+      <c r="E828" s="11"/>
     </row>
     <row r="829">
-      <c r="D829" s="10"/>
-      <c r="E829" s="10"/>
+      <c r="D829" s="11"/>
+      <c r="E829" s="11"/>
     </row>
     <row r="830">
-      <c r="D830" s="10"/>
-      <c r="E830" s="10"/>
+      <c r="D830" s="11"/>
+      <c r="E830" s="11"/>
     </row>
     <row r="831">
-      <c r="D831" s="10"/>
-      <c r="E831" s="10"/>
+      <c r="D831" s="11"/>
+      <c r="E831" s="11"/>
     </row>
     <row r="832">
-      <c r="D832" s="10"/>
-      <c r="E832" s="10"/>
+      <c r="D832" s="11"/>
+      <c r="E832" s="11"/>
     </row>
     <row r="833">
-      <c r="D833" s="10"/>
-      <c r="E833" s="10"/>
+      <c r="D833" s="11"/>
+      <c r="E833" s="11"/>
     </row>
     <row r="834">
-      <c r="D834" s="10"/>
-      <c r="E834" s="10"/>
+      <c r="D834" s="11"/>
+      <c r="E834" s="11"/>
     </row>
     <row r="835">
-      <c r="D835" s="10"/>
-      <c r="E835" s="10"/>
+      <c r="D835" s="11"/>
+      <c r="E835" s="11"/>
     </row>
     <row r="836">
-      <c r="D836" s="10"/>
-      <c r="E836" s="10"/>
+      <c r="D836" s="11"/>
+      <c r="E836" s="11"/>
     </row>
     <row r="837">
-      <c r="D837" s="10"/>
-      <c r="E837" s="10"/>
+      <c r="D837" s="11"/>
+      <c r="E837" s="11"/>
     </row>
     <row r="838">
-      <c r="D838" s="10"/>
-      <c r="E838" s="10"/>
+      <c r="D838" s="11"/>
+      <c r="E838" s="11"/>
     </row>
     <row r="839">
-      <c r="D839" s="10"/>
-      <c r="E839" s="10"/>
+      <c r="D839" s="11"/>
+      <c r="E839" s="11"/>
     </row>
     <row r="840">
-      <c r="D840" s="10"/>
-      <c r="E840" s="10"/>
+      <c r="D840" s="11"/>
+      <c r="E840" s="11"/>
     </row>
     <row r="841">
-      <c r="D841" s="10"/>
-      <c r="E841" s="10"/>
+      <c r="D841" s="11"/>
+      <c r="E841" s="11"/>
     </row>
     <row r="842">
-      <c r="D842" s="10"/>
-      <c r="E842" s="10"/>
+      <c r="D842" s="11"/>
+      <c r="E842" s="11"/>
     </row>
     <row r="843">
-      <c r="D843" s="10"/>
-      <c r="E843" s="10"/>
+      <c r="D843" s="11"/>
+      <c r="E843" s="11"/>
     </row>
     <row r="844">
-      <c r="D844" s="10"/>
-      <c r="E844" s="10"/>
+      <c r="D844" s="11"/>
+      <c r="E844" s="11"/>
     </row>
     <row r="845">
-      <c r="D845" s="10"/>
-      <c r="E845" s="10"/>
+      <c r="D845" s="11"/>
+      <c r="E845" s="11"/>
     </row>
     <row r="846">
-      <c r="D846" s="10"/>
-      <c r="E846" s="10"/>
+      <c r="D846" s="11"/>
+      <c r="E846" s="11"/>
     </row>
     <row r="847">
-      <c r="D847" s="10"/>
-      <c r="E847" s="10"/>
+      <c r="D847" s="11"/>
+      <c r="E847" s="11"/>
     </row>
     <row r="848">
-      <c r="D848" s="10"/>
-      <c r="E848" s="10"/>
+      <c r="D848" s="11"/>
+      <c r="E848" s="11"/>
     </row>
     <row r="849">
-      <c r="D849" s="10"/>
-      <c r="E849" s="10"/>
+      <c r="D849" s="11"/>
+      <c r="E849" s="11"/>
     </row>
     <row r="850">
-      <c r="D850" s="10"/>
-      <c r="E850" s="10"/>
+      <c r="D850" s="11"/>
+      <c r="E850" s="11"/>
     </row>
     <row r="851">
-      <c r="D851" s="10"/>
-      <c r="E851" s="10"/>
+      <c r="D851" s="11"/>
+      <c r="E851" s="11"/>
     </row>
     <row r="852">
-      <c r="D852" s="10"/>
-      <c r="E852" s="10"/>
+      <c r="D852" s="11"/>
+      <c r="E852" s="11"/>
     </row>
     <row r="853">
-      <c r="D853" s="10"/>
-      <c r="E853" s="10"/>
+      <c r="D853" s="11"/>
+      <c r="E853" s="11"/>
     </row>
     <row r="854">
-      <c r="D854" s="10"/>
-      <c r="E854" s="10"/>
+      <c r="D854" s="11"/>
+      <c r="E854" s="11"/>
     </row>
     <row r="855">
-      <c r="D855" s="10"/>
-      <c r="E855" s="10"/>
+      <c r="D855" s="11"/>
+      <c r="E855" s="11"/>
     </row>
     <row r="856">
-      <c r="D856" s="10"/>
-      <c r="E856" s="10"/>
+      <c r="D856" s="11"/>
+      <c r="E856" s="11"/>
     </row>
     <row r="857">
-      <c r="D857" s="10"/>
-      <c r="E857" s="10"/>
+      <c r="D857" s="11"/>
+      <c r="E857" s="11"/>
     </row>
     <row r="858">
-      <c r="D858" s="10"/>
-      <c r="E858" s="10"/>
+      <c r="D858" s="11"/>
+      <c r="E858" s="11"/>
     </row>
     <row r="859">
-      <c r="D859" s="10"/>
-      <c r="E859" s="10"/>
+      <c r="D859" s="11"/>
+      <c r="E859" s="11"/>
     </row>
     <row r="860">
-      <c r="D860" s="10"/>
-      <c r="E860" s="10"/>
+      <c r="D860" s="11"/>
+      <c r="E860" s="11"/>
     </row>
     <row r="861">
-      <c r="D861" s="10"/>
-      <c r="E861" s="10"/>
+      <c r="D861" s="11"/>
+      <c r="E861" s="11"/>
     </row>
     <row r="862">
-      <c r="D862" s="10"/>
-      <c r="E862" s="10"/>
+      <c r="D862" s="11"/>
+      <c r="E862" s="11"/>
     </row>
     <row r="863">
-      <c r="D863" s="10"/>
-      <c r="E863" s="10"/>
+      <c r="D863" s="11"/>
+      <c r="E863" s="11"/>
     </row>
     <row r="864">
-      <c r="D864" s="10"/>
-      <c r="E864" s="10"/>
+      <c r="D864" s="11"/>
+      <c r="E864" s="11"/>
     </row>
     <row r="865">
-      <c r="D865" s="10"/>
-      <c r="E865" s="10"/>
+      <c r="D865" s="11"/>
+      <c r="E865" s="11"/>
     </row>
     <row r="866">
-      <c r="D866" s="10"/>
-      <c r="E866" s="10"/>
+      <c r="D866" s="11"/>
+      <c r="E866" s="11"/>
     </row>
     <row r="867">
-      <c r="D867" s="10"/>
-      <c r="E867" s="10"/>
+      <c r="D867" s="11"/>
+      <c r="E867" s="11"/>
     </row>
     <row r="868">
-      <c r="D868" s="10"/>
-      <c r="E868" s="10"/>
+      <c r="D868" s="11"/>
+      <c r="E868" s="11"/>
     </row>
     <row r="869">
-      <c r="D869" s="10"/>
-      <c r="E869" s="10"/>
+      <c r="D869" s="11"/>
+      <c r="E869" s="11"/>
     </row>
     <row r="870">
-      <c r="D870" s="10"/>
-      <c r="E870" s="10"/>
+      <c r="D870" s="11"/>
+      <c r="E870" s="11"/>
     </row>
     <row r="871">
-      <c r="D871" s="10"/>
-      <c r="E871" s="10"/>
+      <c r="D871" s="11"/>
+      <c r="E871" s="11"/>
     </row>
     <row r="872">
-      <c r="D872" s="10"/>
-      <c r="E872" s="10"/>
+      <c r="D872" s="11"/>
+      <c r="E872" s="11"/>
     </row>
     <row r="873">
-      <c r="D873" s="10"/>
-      <c r="E873" s="10"/>
+      <c r="D873" s="11"/>
+      <c r="E873" s="11"/>
     </row>
     <row r="874">
-      <c r="D874" s="10"/>
-      <c r="E874" s="10"/>
+      <c r="D874" s="11"/>
+      <c r="E874" s="11"/>
     </row>
     <row r="875">
-      <c r="D875" s="10"/>
-      <c r="E875" s="10"/>
+      <c r="D875" s="11"/>
+      <c r="E875" s="11"/>
     </row>
     <row r="876">
-      <c r="D876" s="10"/>
-      <c r="E876" s="10"/>
+      <c r="D876" s="11"/>
+      <c r="E876" s="11"/>
     </row>
     <row r="877">
-      <c r="D877" s="10"/>
-      <c r="E877" s="10"/>
+      <c r="D877" s="11"/>
+      <c r="E877" s="11"/>
     </row>
     <row r="878">
-      <c r="D878" s="10"/>
-      <c r="E878" s="10"/>
+      <c r="D878" s="11"/>
+      <c r="E878" s="11"/>
     </row>
     <row r="879">
-      <c r="D879" s="10"/>
-      <c r="E879" s="10"/>
+      <c r="D879" s="11"/>
+      <c r="E879" s="11"/>
     </row>
     <row r="880">
-      <c r="D880" s="10"/>
-      <c r="E880" s="10"/>
+      <c r="D880" s="11"/>
+      <c r="E880" s="11"/>
     </row>
     <row r="881">
-      <c r="D881" s="10"/>
-      <c r="E881" s="10"/>
+      <c r="D881" s="11"/>
+      <c r="E881" s="11"/>
     </row>
     <row r="882">
-      <c r="D882" s="10"/>
-      <c r="E882" s="10"/>
+      <c r="D882" s="11"/>
+      <c r="E882" s="11"/>
     </row>
     <row r="883">
-      <c r="D883" s="10"/>
-      <c r="E883" s="10"/>
+      <c r="D883" s="11"/>
+      <c r="E883" s="11"/>
     </row>
     <row r="884">
-      <c r="D884" s="10"/>
-      <c r="E884" s="10"/>
+      <c r="D884" s="11"/>
+      <c r="E884" s="11"/>
     </row>
     <row r="885">
-      <c r="D885" s="10"/>
-      <c r="E885" s="10"/>
+      <c r="D885" s="11"/>
+      <c r="E885" s="11"/>
     </row>
     <row r="886">
-      <c r="D886" s="10"/>
-      <c r="E886" s="10"/>
+      <c r="D886" s="11"/>
+      <c r="E886" s="11"/>
     </row>
     <row r="887">
-      <c r="D887" s="10"/>
-      <c r="E887" s="10"/>
+      <c r="D887" s="11"/>
+      <c r="E887" s="11"/>
     </row>
     <row r="888">
-      <c r="D888" s="10"/>
-      <c r="E888" s="10"/>
+      <c r="D888" s="11"/>
+      <c r="E888" s="11"/>
     </row>
     <row r="889">
-      <c r="D889" s="10"/>
-      <c r="E889" s="10"/>
+      <c r="D889" s="11"/>
+      <c r="E889" s="11"/>
     </row>
     <row r="890">
-      <c r="D890" s="10"/>
-      <c r="E890" s="10"/>
+      <c r="D890" s="11"/>
+      <c r="E890" s="11"/>
     </row>
     <row r="891">
-      <c r="D891" s="10"/>
-      <c r="E891" s="10"/>
+      <c r="D891" s="11"/>
+      <c r="E891" s="11"/>
     </row>
     <row r="892">
-      <c r="D892" s="10"/>
-      <c r="E892" s="10"/>
+      <c r="D892" s="11"/>
+      <c r="E892" s="11"/>
     </row>
     <row r="893">
-      <c r="D893" s="10"/>
-      <c r="E893" s="10"/>
+      <c r="D893" s="11"/>
+      <c r="E893" s="11"/>
     </row>
     <row r="894">
-      <c r="D894" s="10"/>
-      <c r="E894" s="10"/>
+      <c r="D894" s="11"/>
+      <c r="E894" s="11"/>
     </row>
     <row r="895">
-      <c r="D895" s="10"/>
-      <c r="E895" s="10"/>
+      <c r="D895" s="11"/>
+      <c r="E895" s="11"/>
     </row>
     <row r="896">
-      <c r="D896" s="10"/>
-      <c r="E896" s="10"/>
+      <c r="D896" s="11"/>
+      <c r="E896" s="11"/>
     </row>
     <row r="897">
-      <c r="D897" s="10"/>
-      <c r="E897" s="10"/>
+      <c r="D897" s="11"/>
+      <c r="E897" s="11"/>
     </row>
     <row r="898">
-      <c r="D898" s="10"/>
-      <c r="E898" s="10"/>
+      <c r="D898" s="11"/>
+      <c r="E898" s="11"/>
     </row>
     <row r="899">
-      <c r="D899" s="10"/>
-      <c r="E899" s="10"/>
+      <c r="D899" s="11"/>
+      <c r="E899" s="11"/>
     </row>
     <row r="900">
-      <c r="D900" s="10"/>
-      <c r="E900" s="10"/>
+      <c r="D900" s="11"/>
+      <c r="E900" s="11"/>
     </row>
     <row r="901">
-      <c r="D901" s="10"/>
-      <c r="E901" s="10"/>
+      <c r="D901" s="11"/>
+      <c r="E901" s="11"/>
     </row>
     <row r="902">
-      <c r="D902" s="10"/>
-      <c r="E902" s="10"/>
+      <c r="D902" s="11"/>
+      <c r="E902" s="11"/>
     </row>
     <row r="903">
-      <c r="D903" s="10"/>
-      <c r="E903" s="10"/>
+      <c r="D903" s="11"/>
+      <c r="E903" s="11"/>
     </row>
     <row r="904">
-      <c r="D904" s="10"/>
-      <c r="E904" s="10"/>
+      <c r="D904" s="11"/>
+      <c r="E904" s="11"/>
     </row>
     <row r="905">
-      <c r="D905" s="10"/>
-      <c r="E905" s="10"/>
+      <c r="D905" s="11"/>
+      <c r="E905" s="11"/>
     </row>
     <row r="906">
-      <c r="D906" s="10"/>
-      <c r="E906" s="10"/>
+      <c r="D906" s="11"/>
+      <c r="E906" s="11"/>
     </row>
     <row r="907">
-      <c r="D907" s="10"/>
-      <c r="E907" s="10"/>
+      <c r="D907" s="11"/>
+      <c r="E907" s="11"/>
     </row>
     <row r="908">
-      <c r="D908" s="10"/>
-      <c r="E908" s="10"/>
+      <c r="D908" s="11"/>
+      <c r="E908" s="11"/>
     </row>
     <row r="909">
-      <c r="D909" s="10"/>
-      <c r="E909" s="10"/>
+      <c r="D909" s="11"/>
+      <c r="E909" s="11"/>
     </row>
     <row r="910">
-      <c r="D910" s="10"/>
-      <c r="E910" s="10"/>
+      <c r="D910" s="11"/>
+      <c r="E910" s="11"/>
     </row>
     <row r="911">
-      <c r="D911" s="10"/>
-      <c r="E911" s="10"/>
+      <c r="D911" s="11"/>
+      <c r="E911" s="11"/>
     </row>
     <row r="912">
-      <c r="D912" s="10"/>
-      <c r="E912" s="10"/>
+      <c r="D912" s="11"/>
+      <c r="E912" s="11"/>
     </row>
     <row r="913">
-      <c r="D913" s="10"/>
-      <c r="E913" s="10"/>
+      <c r="D913" s="11"/>
+      <c r="E913" s="11"/>
     </row>
     <row r="914">
-      <c r="D914" s="10"/>
-      <c r="E914" s="10"/>
+      <c r="D914" s="11"/>
+      <c r="E914" s="11"/>
     </row>
     <row r="915">
-      <c r="D915" s="10"/>
-      <c r="E915" s="10"/>
+      <c r="D915" s="11"/>
+      <c r="E915" s="11"/>
     </row>
     <row r="916">
-      <c r="D916" s="10"/>
-      <c r="E916" s="10"/>
+      <c r="D916" s="11"/>
+      <c r="E916" s="11"/>
     </row>
     <row r="917">
-      <c r="D917" s="10"/>
-      <c r="E917" s="10"/>
+      <c r="D917" s="11"/>
+      <c r="E917" s="11"/>
     </row>
     <row r="918">
-      <c r="D918" s="10"/>
-      <c r="E918" s="10"/>
+      <c r="D918" s="11"/>
+      <c r="E918" s="11"/>
     </row>
     <row r="919">
-      <c r="D919" s="10"/>
-      <c r="E919" s="10"/>
+      <c r="D919" s="11"/>
+      <c r="E919" s="11"/>
     </row>
     <row r="920">
-      <c r="D920" s="10"/>
-      <c r="E920" s="10"/>
+      <c r="D920" s="11"/>
+      <c r="E920" s="11"/>
     </row>
     <row r="921">
-      <c r="D921" s="10"/>
-      <c r="E921" s="10"/>
+      <c r="D921" s="11"/>
+      <c r="E921" s="11"/>
     </row>
     <row r="922">
-      <c r="D922" s="10"/>
-      <c r="E922" s="10"/>
+      <c r="D922" s="11"/>
+      <c r="E922" s="11"/>
     </row>
     <row r="923">
-      <c r="D923" s="10"/>
-      <c r="E923" s="10"/>
+      <c r="D923" s="11"/>
+      <c r="E923" s="11"/>
     </row>
     <row r="924">
-      <c r="D924" s="10"/>
-      <c r="E924" s="10"/>
+      <c r="D924" s="11"/>
+      <c r="E924" s="11"/>
     </row>
     <row r="925">
-      <c r="D925" s="10"/>
-      <c r="E925" s="10"/>
+      <c r="D925" s="11"/>
+      <c r="E925" s="11"/>
     </row>
     <row r="926">
-      <c r="D926" s="10"/>
-      <c r="E926" s="10"/>
+      <c r="D926" s="11"/>
+      <c r="E926" s="11"/>
     </row>
     <row r="927">
-      <c r="D927" s="10"/>
-      <c r="E927" s="10"/>
+      <c r="D927" s="11"/>
+      <c r="E927" s="11"/>
     </row>
     <row r="928">
-      <c r="D928" s="10"/>
-      <c r="E928" s="10"/>
+      <c r="D928" s="11"/>
+      <c r="E928" s="11"/>
     </row>
     <row r="929">
-      <c r="D929" s="10"/>
-      <c r="E929" s="10"/>
+      <c r="D929" s="11"/>
+      <c r="E929" s="11"/>
     </row>
     <row r="930">
-      <c r="D930" s="10"/>
-      <c r="E930" s="10"/>
+      <c r="D930" s="11"/>
+      <c r="E930" s="11"/>
     </row>
     <row r="931">
-      <c r="D931" s="10"/>
-      <c r="E931" s="10"/>
+      <c r="D931" s="11"/>
+      <c r="E931" s="11"/>
     </row>
     <row r="932">
-      <c r="D932" s="10"/>
-      <c r="E932" s="10"/>
+      <c r="D932" s="11"/>
+      <c r="E932" s="11"/>
     </row>
     <row r="933">
-      <c r="D933" s="10"/>
-      <c r="E933" s="10"/>
+      <c r="D933" s="11"/>
+      <c r="E933" s="11"/>
     </row>
     <row r="934">
-      <c r="D934" s="10"/>
-      <c r="E934" s="10"/>
+      <c r="D934" s="11"/>
+      <c r="E934" s="11"/>
     </row>
     <row r="935">
-      <c r="D935" s="10"/>
-      <c r="E935" s="10"/>
+      <c r="D935" s="11"/>
+      <c r="E935" s="11"/>
     </row>
     <row r="936">
-      <c r="D936" s="10"/>
-      <c r="E936" s="10"/>
+      <c r="D936" s="11"/>
+      <c r="E936" s="11"/>
     </row>
     <row r="937">
-      <c r="D937" s="10"/>
-      <c r="E937" s="10"/>
+      <c r="D937" s="11"/>
+      <c r="E937" s="11"/>
     </row>
     <row r="938">
-      <c r="D938" s="10"/>
-      <c r="E938" s="10"/>
+      <c r="D938" s="11"/>
+      <c r="E938" s="11"/>
     </row>
     <row r="939">
-      <c r="D939" s="10"/>
-      <c r="E939" s="10"/>
+      <c r="D939" s="11"/>
+      <c r="E939" s="11"/>
     </row>
     <row r="940">
-      <c r="D940" s="10"/>
-      <c r="E940" s="10"/>
+      <c r="D940" s="11"/>
+      <c r="E940" s="11"/>
     </row>
     <row r="941">
-      <c r="D941" s="10"/>
-      <c r="E941" s="10"/>
+      <c r="D941" s="11"/>
+      <c r="E941" s="11"/>
     </row>
     <row r="942">
-      <c r="D942" s="10"/>
-      <c r="E942" s="10"/>
+      <c r="D942" s="11"/>
+      <c r="E942" s="11"/>
     </row>
     <row r="943">
-      <c r="D943" s="10"/>
-      <c r="E943" s="10"/>
+      <c r="D943" s="11"/>
+      <c r="E943" s="11"/>
     </row>
     <row r="944">
-      <c r="D944" s="10"/>
-      <c r="E944" s="10"/>
+      <c r="D944" s="11"/>
+      <c r="E944" s="11"/>
     </row>
     <row r="945">
-      <c r="D945" s="10"/>
-      <c r="E945" s="10"/>
+      <c r="D945" s="11"/>
+      <c r="E945" s="11"/>
     </row>
     <row r="946">
-      <c r="D946" s="10"/>
-      <c r="E946" s="10"/>
+      <c r="D946" s="11"/>
+      <c r="E946" s="11"/>
     </row>
     <row r="947">
-      <c r="D947" s="10"/>
-      <c r="E947" s="10"/>
+      <c r="D947" s="11"/>
+      <c r="E947" s="11"/>
     </row>
     <row r="948">
-      <c r="D948" s="10"/>
-      <c r="E948" s="10"/>
+      <c r="D948" s="11"/>
+      <c r="E948" s="11"/>
     </row>
     <row r="949">
-      <c r="D949" s="10"/>
-      <c r="E949" s="10"/>
+      <c r="D949" s="11"/>
+      <c r="E949" s="11"/>
     </row>
     <row r="950">
-      <c r="D950" s="10"/>
-      <c r="E950" s="10"/>
+      <c r="D950" s="11"/>
+      <c r="E950" s="11"/>
     </row>
     <row r="951">
-      <c r="D951" s="10"/>
-      <c r="E951" s="10"/>
+      <c r="D951" s="11"/>
+      <c r="E951" s="11"/>
     </row>
     <row r="952">
-      <c r="D952" s="10"/>
-      <c r="E952" s="10"/>
+      <c r="D952" s="11"/>
+      <c r="E952" s="11"/>
     </row>
     <row r="953">
-      <c r="D953" s="10"/>
-      <c r="E953" s="10"/>
+      <c r="D953" s="11"/>
+      <c r="E953" s="11"/>
     </row>
     <row r="954">
-      <c r="D954" s="10"/>
-      <c r="E954" s="10"/>
+      <c r="D954" s="11"/>
+      <c r="E954" s="11"/>
     </row>
     <row r="955">
-      <c r="D955" s="10"/>
-      <c r="E955" s="10"/>
+      <c r="D955" s="11"/>
+      <c r="E955" s="11"/>
     </row>
     <row r="956">
-      <c r="D956" s="10"/>
-      <c r="E956" s="10"/>
+      <c r="D956" s="11"/>
+      <c r="E956" s="11"/>
     </row>
     <row r="957">
-      <c r="D957" s="10"/>
-      <c r="E957" s="10"/>
+      <c r="D957" s="11"/>
+      <c r="E957" s="11"/>
     </row>
     <row r="958">
-      <c r="D958" s="10"/>
-      <c r="E958" s="10"/>
+      <c r="D958" s="11"/>
+      <c r="E958" s="11"/>
     </row>
     <row r="959">
-      <c r="D959" s="10"/>
-      <c r="E959" s="10"/>
+      <c r="D959" s="11"/>
+      <c r="E959" s="11"/>
     </row>
     <row r="960">
-      <c r="D960" s="10"/>
-      <c r="E960" s="10"/>
+      <c r="D960" s="11"/>
+      <c r="E960" s="11"/>
     </row>
     <row r="961">
-      <c r="D961" s="10"/>
-      <c r="E961" s="10"/>
+      <c r="D961" s="11"/>
+      <c r="E961" s="11"/>
     </row>
     <row r="962">
-      <c r="D962" s="10"/>
-      <c r="E962" s="10"/>
+      <c r="D962" s="11"/>
+      <c r="E962" s="11"/>
     </row>
     <row r="963">
-      <c r="D963" s="10"/>
-      <c r="E963" s="10"/>
+      <c r="D963" s="11"/>
+      <c r="E963" s="11"/>
     </row>
     <row r="964">
-      <c r="D964" s="10"/>
-      <c r="E964" s="10"/>
+      <c r="D964" s="11"/>
+      <c r="E964" s="11"/>
     </row>
     <row r="965">
-      <c r="D965" s="10"/>
-      <c r="E965" s="10"/>
+      <c r="D965" s="11"/>
+      <c r="E965" s="11"/>
     </row>
     <row r="966">
-      <c r="D966" s="10"/>
-      <c r="E966" s="10"/>
+      <c r="D966" s="11"/>
+      <c r="E966" s="11"/>
     </row>
     <row r="967">
-      <c r="D967" s="10"/>
-      <c r="E967" s="10"/>
+      <c r="D967" s="11"/>
+      <c r="E967" s="11"/>
     </row>
     <row r="968">
-      <c r="D968" s="10"/>
-      <c r="E968" s="10"/>
+      <c r="D968" s="11"/>
+      <c r="E968" s="11"/>
     </row>
     <row r="969">
-      <c r="D969" s="10"/>
-      <c r="E969" s="10"/>
+      <c r="D969" s="11"/>
+      <c r="E969" s="11"/>
     </row>
     <row r="970">
-      <c r="D970" s="10"/>
-      <c r="E970" s="10"/>
+      <c r="D970" s="11"/>
+      <c r="E970" s="11"/>
     </row>
     <row r="971">
-      <c r="D971" s="10"/>
-      <c r="E971" s="10"/>
+      <c r="D971" s="11"/>
+      <c r="E971" s="11"/>
     </row>
     <row r="972">
-      <c r="D972" s="10"/>
-      <c r="E972" s="10"/>
+      <c r="D972" s="11"/>
+      <c r="E972" s="11"/>
     </row>
     <row r="973">
-      <c r="D973" s="10"/>
-      <c r="E973" s="10"/>
+      <c r="D973" s="11"/>
+      <c r="E973" s="11"/>
     </row>
     <row r="974">
-      <c r="D974" s="10"/>
-      <c r="E974" s="10"/>
+      <c r="D974" s="11"/>
+      <c r="E974" s="11"/>
     </row>
     <row r="975">
-      <c r="D975" s="10"/>
-      <c r="E975" s="10"/>
+      <c r="D975" s="11"/>
+      <c r="E975" s="11"/>
     </row>
     <row r="976">
-      <c r="D976" s="10"/>
-      <c r="E976" s="10"/>
+      <c r="D976" s="11"/>
+      <c r="E976" s="11"/>
     </row>
     <row r="977">
-      <c r="D977" s="10"/>
-      <c r="E977" s="10"/>
+      <c r="D977" s="11"/>
+      <c r="E977" s="11"/>
     </row>
     <row r="978">
-      <c r="D978" s="10"/>
-      <c r="E978" s="10"/>
+      <c r="D978" s="11"/>
+      <c r="E978" s="11"/>
     </row>
     <row r="979">
-      <c r="D979" s="10"/>
-      <c r="E979" s="10"/>
+      <c r="D979" s="11"/>
+      <c r="E979" s="11"/>
     </row>
     <row r="980">
-      <c r="D980" s="10"/>
-      <c r="E980" s="10"/>
+      <c r="D980" s="11"/>
+      <c r="E980" s="11"/>
     </row>
     <row r="981">
-      <c r="D981" s="10"/>
-      <c r="E981" s="10"/>
+      <c r="D981" s="11"/>
+      <c r="E981" s="11"/>
     </row>
     <row r="982">
-      <c r="D982" s="10"/>
-      <c r="E982" s="10"/>
+      <c r="D982" s="11"/>
+      <c r="E982" s="11"/>
     </row>
     <row r="983">
-      <c r="D983" s="10"/>
-      <c r="E983" s="10"/>
+      <c r="D983" s="11"/>
+      <c r="E983" s="11"/>
     </row>
     <row r="984">
-      <c r="D984" s="10"/>
-      <c r="E984" s="10"/>
+      <c r="D984" s="11"/>
+      <c r="E984" s="11"/>
     </row>
     <row r="985">
-      <c r="D985" s="10"/>
-      <c r="E985" s="10"/>
+      <c r="D985" s="11"/>
+      <c r="E985" s="11"/>
     </row>
     <row r="986">
-      <c r="D986" s="10"/>
-      <c r="E986" s="10"/>
+      <c r="D986" s="11"/>
+      <c r="E986" s="11"/>
     </row>
     <row r="987">
-      <c r="D987" s="10"/>
-      <c r="E987" s="10"/>
+      <c r="D987" s="11"/>
+      <c r="E987" s="11"/>
     </row>
     <row r="988">
-      <c r="D988" s="10"/>
-      <c r="E988" s="10"/>
+      <c r="D988" s="11"/>
+      <c r="E988" s="11"/>
     </row>
     <row r="989">
-      <c r="D989" s="10"/>
-      <c r="E989" s="10"/>
+      <c r="D989" s="11"/>
+      <c r="E989" s="11"/>
     </row>
     <row r="990">
-      <c r="D990" s="10"/>
-      <c r="E990" s="10"/>
+      <c r="D990" s="11"/>
+      <c r="E990" s="11"/>
     </row>
     <row r="991">
-      <c r="D991" s="10"/>
-      <c r="E991" s="10"/>
+      <c r="D991" s="11"/>
+      <c r="E991" s="11"/>
     </row>
     <row r="992">
-      <c r="D992" s="10"/>
-      <c r="E992" s="10"/>
+      <c r="D992" s="11"/>
+      <c r="E992" s="11"/>
     </row>
     <row r="993">
-      <c r="D993" s="10"/>
-      <c r="E993" s="10"/>
+      <c r="D993" s="11"/>
+      <c r="E993" s="11"/>
     </row>
     <row r="994">
-      <c r="D994" s="10"/>
-      <c r="E994" s="10"/>
+      <c r="D994" s="11"/>
+      <c r="E994" s="11"/>
     </row>
     <row r="995">
-      <c r="D995" s="10"/>
-      <c r="E995" s="10"/>
+      <c r="D995" s="11"/>
+      <c r="E995" s="11"/>
     </row>
     <row r="996">
-      <c r="D996" s="10"/>
-      <c r="E996" s="10"/>
+      <c r="D996" s="11"/>
+      <c r="E996" s="11"/>
     </row>
     <row r="997">
-      <c r="D997" s="10"/>
-      <c r="E997" s="10"/>
+      <c r="D997" s="11"/>
+      <c r="E997" s="11"/>
     </row>
     <row r="998">
-      <c r="D998" s="10"/>
-      <c r="E998" s="10"/>
+      <c r="D998" s="11"/>
+      <c r="E998" s="11"/>
     </row>
     <row r="999">
-      <c r="D999" s="10"/>
-      <c r="E999" s="10"/>
+      <c r="D999" s="11"/>
+      <c r="E999" s="11"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="10"/>
-      <c r="E1000" s="10"/>
+      <c r="D1000" s="11"/>
+      <c r="E1000" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5846,25 +5849,25 @@
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>147</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -5884,25 +5887,25 @@
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -5925,19 +5928,19 @@
       <c r="B4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>146</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -5958,25 +5961,25 @@
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>157</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -5996,25 +5999,25 @@
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -6034,25 +6037,25 @@
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -6072,25 +6075,25 @@
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="1" t="s">
